--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="194">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">Откачка</t>
   </si>
   <si>
+    <t xml:space="preserve">Kод</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
   </si>
   <si>
@@ -127,9 +130,15 @@
     <t xml:space="preserve">Ульма</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094735</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095251</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
   </si>
   <si>
@@ -145,21 +154,33 @@
     <t xml:space="preserve">Мультиголова</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000090331</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
   </si>
   <si>
     <t xml:space="preserve">Техновак</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094274</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла (палочки), 45%, кг, пл/л</t>
   </si>
   <si>
     <t xml:space="preserve">Эсперсон</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000088954</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095554</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
   </si>
   <si>
@@ -169,54 +190,87 @@
     <t xml:space="preserve">Вода</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094698</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45 %, 0,46 кг, т/ф, (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094734</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">САККАРДО</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094725</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000079372</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">Фермерская коллекция</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095396</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Fine Life</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094745</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094726</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000093998</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">Бонджорно</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095934</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">ВкусВилл</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094497</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
   </si>
   <si>
     <t xml:space="preserve">Metro Chef</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000089109</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
   </si>
   <si>
@@ -226,45 +280,81 @@
     <t xml:space="preserve">Умалат</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094742</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095992</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">Маркет Перекресток</t>
   </si>
   <si>
+    <t xml:space="preserve">3503984</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000090330</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094741</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000081879</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094903</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000093444</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">Красная птица</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096638</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для пиццы "Красная птица", 45%, 0,28 кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096640</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для бутербродов "Aventino", 45%, 0,2 кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096668</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, в/у</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096418</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
   </si>
   <si>
@@ -280,130 +370,238 @@
     <t xml:space="preserve">ручная работа</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000092242</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096639</t>
+  </si>
+  <si>
     <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094740</t>
+  </si>
+  <si>
     <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000091561</t>
+  </si>
+  <si>
     <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000093316</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096814</t>
+  </si>
+  <si>
     <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096349</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000093343</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094736</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094729</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094728</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Ваш выбор</t>
   </si>
   <si>
+    <t xml:space="preserve">327193010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000090381</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000087862</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Aventino</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096234</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Orecchio Oro</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095981</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Каждый день</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096804</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096635</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095415</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла сердечки в воде "Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094739</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">малый Комет</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094897</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Чильеджина</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094737</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095553</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Чильеджина в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094727</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096233</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000087861</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096805</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096636</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095985</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">327192013</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000090380</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000097278</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000097280</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000097275</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000097277</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097655</t>
   </si>
 </sst>
 </file>
@@ -494,13 +692,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -524,10 +726,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T20" activeCellId="0" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,7 +739,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,8 +821,11 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -628,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>200</v>
@@ -664,10 +869,10 @@
         <v>65</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="0" t="n">
         <v>1020</v>
@@ -693,8 +898,11 @@
       <c r="AB2" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC2" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -702,25 +910,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1200</v>
@@ -738,10 +946,10 @@
         <v>65</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>1020</v>
@@ -767,8 +975,11 @@
       <c r="AB3" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC3" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -776,25 +987,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>120</v>
@@ -812,10 +1023,10 @@
         <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>1020</v>
@@ -841,8 +1052,11 @@
       <c r="AB4" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC4" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -850,25 +1064,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>3000</v>
@@ -886,10 +1100,10 @@
         <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>1020</v>
@@ -915,8 +1129,11 @@
       <c r="AB5" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC5" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -924,25 +1141,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1000</v>
@@ -960,10 +1177,10 @@
         <v>35</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>518</v>
@@ -989,8 +1206,11 @@
       <c r="AB6" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -998,25 +1218,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>280</v>
@@ -1034,10 +1254,10 @@
         <v>65</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>1020</v>
@@ -1062,6 +1282,9 @@
       </c>
       <c r="AB7" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1072,25 +1295,25 @@
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>125</v>
@@ -1108,10 +1331,10 @@
         <v>31</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>1200</v>
@@ -1140,8 +1363,11 @@
       <c r="AB8" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC8" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1149,25 +1375,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>460</v>
@@ -1185,10 +1411,10 @@
         <v>65</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>1020</v>
@@ -1213,6 +1439,9 @@
       </c>
       <c r="AB9" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1223,25 +1452,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>460</v>
@@ -1259,10 +1488,10 @@
         <v>65</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>728</v>
@@ -1287,6 +1516,9 @@
       </c>
       <c r="AB10" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1297,25 +1529,25 @@
         <v>8</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>460</v>
@@ -1333,10 +1565,10 @@
         <v>65</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>728</v>
@@ -1362,8 +1594,11 @@
       <c r="AB11" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC11" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
@@ -1371,25 +1606,25 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>200</v>
@@ -1407,10 +1642,10 @@
         <v>65</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>1020</v>
@@ -1436,8 +1671,11 @@
       <c r="AB12" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC12" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
@@ -1445,25 +1683,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>370</v>
@@ -1481,10 +1719,10 @@
         <v>65</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>1020</v>
@@ -1510,8 +1748,11 @@
       <c r="AB13" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC13" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
@@ -1519,25 +1760,25 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>280</v>
@@ -1555,10 +1796,10 @@
         <v>65</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>1020</v>
@@ -1584,8 +1825,11 @@
       <c r="AB14" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC14" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
@@ -1593,25 +1837,25 @@
         <v>12</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>120</v>
@@ -1629,10 +1873,10 @@
         <v>65</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>518</v>
@@ -1658,8 +1902,11 @@
       <c r="AB15" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC15" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
@@ -1667,25 +1914,25 @@
         <v>13</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>120</v>
@@ -1703,10 +1950,10 @@
         <v>65</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>518</v>
@@ -1732,8 +1979,11 @@
       <c r="AB16" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC16" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
@@ -1741,25 +1991,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>120</v>
@@ -1777,10 +2027,10 @@
         <v>35</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>518</v>
@@ -1806,8 +2056,11 @@
       <c r="AB17" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC17" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
@@ -1815,25 +2068,25 @@
         <v>15</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>460</v>
@@ -1851,10 +2104,10 @@
         <v>65</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>728</v>
@@ -1880,8 +2133,11 @@
       <c r="AB18" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC18" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
@@ -1889,25 +2145,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>370</v>
@@ -1925,10 +2181,10 @@
         <v>50</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>1020</v>
@@ -1954,8 +2210,11 @@
       <c r="AB19" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC19" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
@@ -1963,25 +2222,25 @@
         <v>17</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>280</v>
@@ -1999,10 +2258,10 @@
         <v>45</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>1020</v>
@@ -2028,8 +2287,11 @@
       <c r="AB20" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC20" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
@@ -2037,25 +2299,25 @@
         <v>18</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>280</v>
@@ -2073,10 +2335,10 @@
         <v>65</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S21" s="0" t="n">
         <v>1020</v>
@@ -2102,8 +2364,11 @@
       <c r="AB21" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC21" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
@@ -2111,25 +2376,25 @@
         <v>19</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>120</v>
@@ -2147,10 +2412,10 @@
         <v>45</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>1020</v>
@@ -2176,8 +2441,11 @@
       <c r="AB22" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC22" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
@@ -2185,25 +2453,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>200</v>
@@ -2221,10 +2489,10 @@
         <v>50</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S23" s="0" t="n">
         <v>1020</v>
@@ -2250,8 +2518,11 @@
       <c r="AB23" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC23" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
@@ -2259,25 +2530,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>280</v>
@@ -2295,10 +2566,10 @@
         <v>50</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S24" s="0" t="n">
         <v>1020</v>
@@ -2324,8 +2595,11 @@
       <c r="AB24" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC24" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
@@ -2333,25 +2607,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>120</v>
@@ -2369,10 +2643,10 @@
         <v>25</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>1020</v>
@@ -2398,8 +2672,11 @@
       <c r="AB25" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC25" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
@@ -2407,25 +2684,25 @@
         <v>23</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>120</v>
@@ -2443,10 +2720,10 @@
         <v>50</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S26" s="0" t="n">
         <v>518</v>
@@ -2472,8 +2749,11 @@
       <c r="AB26" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC26" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
@@ -2481,25 +2761,25 @@
         <v>24</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>120</v>
@@ -2517,10 +2797,10 @@
         <v>65</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S27" s="0" t="n">
         <v>518</v>
@@ -2546,8 +2826,11 @@
       <c r="AB27" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC27" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
@@ -2555,25 +2838,25 @@
         <v>25</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>280</v>
@@ -2591,10 +2874,10 @@
         <v>65</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S28" s="0" t="n">
         <v>1020</v>
@@ -2620,8 +2903,11 @@
       <c r="AB28" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC28" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
@@ -2629,25 +2915,25 @@
         <v>26</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>200</v>
@@ -2665,10 +2951,10 @@
         <v>1020</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S29" s="0" t="n">
         <v>1020</v>
@@ -2694,8 +2980,11 @@
       <c r="AB29" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC29" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
@@ -2703,25 +2992,25 @@
         <v>27</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>1200</v>
@@ -2739,10 +3028,10 @@
         <v>65</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S30" s="0" t="n">
         <v>1020</v>
@@ -2768,8 +3057,11 @@
       <c r="AB30" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC30" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
@@ -2777,25 +3069,25 @@
         <v>28</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>460</v>
@@ -2813,10 +3105,10 @@
         <v>65</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S31" s="0" t="n">
         <v>1020</v>
@@ -2842,8 +3134,11 @@
       <c r="AB31" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC31" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
@@ -2851,25 +3146,25 @@
         <v>29</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>700</v>
@@ -2887,10 +3182,10 @@
         <v>120</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="S32" s="0" t="n">
         <v>600</v>
@@ -2916,8 +3211,11 @@
       <c r="AB32" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC32" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
@@ -2925,25 +3223,25 @@
         <v>30</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>120</v>
@@ -2961,10 +3259,10 @@
         <v>50</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S33" s="0" t="n">
         <v>518</v>
@@ -2990,8 +3288,11 @@
       <c r="AB33" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC33" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>31</v>
       </c>
@@ -2999,25 +3300,25 @@
         <v>31</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>260</v>
@@ -3035,10 +3336,10 @@
         <v>120</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="S34" s="0" t="n">
         <v>600</v>
@@ -3064,8 +3365,11 @@
       <c r="AB34" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC34" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
@@ -3073,25 +3377,25 @@
         <v>32</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>700</v>
@@ -3109,10 +3413,10 @@
         <v>120</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="S35" s="0" t="n">
         <v>600</v>
@@ -3138,8 +3442,11 @@
       <c r="AB35" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC35" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>33</v>
       </c>
@@ -3147,25 +3454,25 @@
         <v>33</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>700</v>
@@ -3183,10 +3490,10 @@
         <v>120</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="S36" s="0" t="n">
         <v>600</v>
@@ -3212,8 +3519,11 @@
       <c r="AB36" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC36" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>34</v>
       </c>
@@ -3221,25 +3531,25 @@
         <v>34</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>200</v>
@@ -3257,10 +3567,10 @@
         <v>50</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S37" s="0" t="n">
         <v>1020</v>
@@ -3286,8 +3596,11 @@
       <c r="AB37" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC37" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>35</v>
       </c>
@@ -3295,25 +3608,25 @@
         <v>35</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>700</v>
@@ -3331,10 +3644,10 @@
         <v>120</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="S38" s="0" t="n">
         <v>600</v>
@@ -3360,8 +3673,11 @@
       <c r="AB38" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC38" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>36</v>
       </c>
@@ -3369,25 +3685,25 @@
         <v>36</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>1000</v>
@@ -3405,10 +3721,10 @@
         <v>35</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S39" s="0" t="n">
         <v>518</v>
@@ -3434,8 +3750,11 @@
       <c r="AB39" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC39" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>37</v>
       </c>
@@ -3443,25 +3762,25 @@
         <v>37</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>125</v>
@@ -3479,10 +3798,10 @@
         <v>31</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S40" s="0" t="n">
         <v>960</v>
@@ -3511,8 +3830,11 @@
       <c r="AB40" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC40" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>38</v>
       </c>
@@ -3520,25 +3842,25 @@
         <v>38</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>125</v>
@@ -3556,10 +3878,10 @@
         <v>25</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S41" s="0" t="n">
         <v>1000</v>
@@ -3588,8 +3910,11 @@
       <c r="AB41" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC41" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>39</v>
       </c>
@@ -3597,25 +3922,25 @@
         <v>39</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>125</v>
@@ -3633,10 +3958,10 @@
         <v>31</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S42" s="0" t="n">
         <v>960</v>
@@ -3665,8 +3990,11 @@
       <c r="AB42" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC42" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
@@ -3674,25 +4002,25 @@
         <v>40</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>100</v>
@@ -3710,10 +4038,10 @@
         <v>31</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S43" s="0" t="n">
         <v>960</v>
@@ -3742,8 +4070,11 @@
       <c r="AB43" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC43" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>41</v>
       </c>
@@ -3751,25 +4082,25 @@
         <v>41</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>100</v>
@@ -3787,10 +4118,10 @@
         <v>25</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S44" s="0" t="n">
         <v>960</v>
@@ -3819,8 +4150,11 @@
       <c r="AB44" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC44" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>42</v>
       </c>
@@ -3828,25 +4162,25 @@
         <v>42</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>125</v>
@@ -3864,10 +4198,10 @@
         <v>25</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S45" s="0" t="n">
         <v>1200</v>
@@ -3896,8 +4230,11 @@
       <c r="AB45" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC45" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>43</v>
       </c>
@@ -3905,25 +4242,25 @@
         <v>43</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>125</v>
@@ -3941,10 +4278,10 @@
         <v>25</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S46" s="0" t="n">
         <v>1200</v>
@@ -3973,8 +4310,11 @@
       <c r="AB46" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC46" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
@@ -3982,25 +4322,25 @@
         <v>44</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>100</v>
@@ -4018,10 +4358,10 @@
         <v>31</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S47" s="0" t="n">
         <v>960</v>
@@ -4050,8 +4390,11 @@
       <c r="AB47" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC47" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>45</v>
       </c>
@@ -4059,25 +4402,25 @@
         <v>45</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>100</v>
@@ -4095,10 +4438,10 @@
         <v>31</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S48" s="0" t="n">
         <v>960</v>
@@ -4127,8 +4470,11 @@
       <c r="AB48" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC48" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>46</v>
       </c>
@@ -4136,25 +4482,25 @@
         <v>46</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>100</v>
@@ -4172,10 +4518,10 @@
         <v>31</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S49" s="0" t="n">
         <v>960</v>
@@ -4204,8 +4550,11 @@
       <c r="AB49" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC49" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>47</v>
       </c>
@@ -4213,25 +4562,25 @@
         <v>47</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>125</v>
@@ -4249,10 +4598,10 @@
         <v>31</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S50" s="0" t="n">
         <v>1200</v>
@@ -4281,8 +4630,11 @@
       <c r="AB50" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC50" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>48</v>
       </c>
@@ -4290,25 +4642,25 @@
         <v>48</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>125</v>
@@ -4326,10 +4678,10 @@
         <v>25</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S51" s="0" t="n">
         <v>1200</v>
@@ -4358,8 +4710,11 @@
       <c r="AB51" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC51" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>49</v>
       </c>
@@ -4367,25 +4722,25 @@
         <v>49</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>125</v>
@@ -4403,10 +4758,10 @@
         <v>31</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S52" s="0" t="n">
         <v>600</v>
@@ -4435,8 +4790,11 @@
       <c r="AB52" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC52" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>50</v>
       </c>
@@ -4444,25 +4802,25 @@
         <v>50</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>200</v>
@@ -4480,10 +4838,10 @@
         <v>31</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="S53" s="0" t="n">
         <v>840</v>
@@ -4512,8 +4870,11 @@
       <c r="AB53" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC53" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>51</v>
       </c>
@@ -4521,25 +4882,25 @@
         <v>51</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>125</v>
@@ -4557,10 +4918,10 @@
         <v>31</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S54" s="0" t="n">
         <v>876</v>
@@ -4589,8 +4950,11 @@
       <c r="AB54" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC54" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>52</v>
       </c>
@@ -4598,25 +4962,25 @@
         <v>52</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>125</v>
@@ -4634,10 +4998,10 @@
         <v>31</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S55" s="0" t="n">
         <v>876</v>
@@ -4666,8 +5030,11 @@
       <c r="AB55" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC55" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>53</v>
       </c>
@@ -4675,25 +5042,25 @@
         <v>53</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>100</v>
@@ -4711,10 +5078,10 @@
         <v>31</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S56" s="0" t="n">
         <v>702</v>
@@ -4743,8 +5110,11 @@
       <c r="AB56" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC56" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>54</v>
       </c>
@@ -4752,25 +5122,25 @@
         <v>54</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>100</v>
@@ -4788,10 +5158,10 @@
         <v>31</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S57" s="0" t="n">
         <v>1020</v>
@@ -4820,8 +5190,11 @@
       <c r="AB57" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC57" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>55</v>
       </c>
@@ -4829,25 +5202,25 @@
         <v>55</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>125</v>
@@ -4865,10 +5238,10 @@
         <v>25</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S58" s="0" t="n">
         <v>876</v>
@@ -4897,8 +5270,11 @@
       <c r="AB58" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC58" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>56</v>
       </c>
@@ -4906,25 +5282,25 @@
         <v>56</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>100</v>
@@ -4942,10 +5318,10 @@
         <v>31</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S59" s="0" t="n">
         <v>960</v>
@@ -4974,8 +5350,11 @@
       <c r="AB59" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC59" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>57</v>
       </c>
@@ -4983,25 +5362,25 @@
         <v>57</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>125</v>
@@ -5019,10 +5398,10 @@
         <v>31</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S60" s="0" t="n">
         <v>876</v>
@@ -5051,8 +5430,11 @@
       <c r="AB60" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC60" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>58</v>
       </c>
@@ -5060,25 +5442,25 @@
         <v>58</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>100</v>
@@ -5096,10 +5478,10 @@
         <v>31</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S61" s="0" t="n">
         <v>1020</v>
@@ -5128,8 +5510,11 @@
       <c r="AB61" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC61" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>59</v>
       </c>
@@ -5137,25 +5522,25 @@
         <v>59</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>100</v>
@@ -5173,10 +5558,10 @@
         <v>25</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S62" s="0" t="n">
         <v>702</v>
@@ -5205,8 +5590,11 @@
       <c r="AB62" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC62" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>60</v>
       </c>
@@ -5214,25 +5602,25 @@
         <v>60</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>125</v>
@@ -5250,10 +5638,10 @@
         <v>25</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S63" s="0" t="n">
         <v>876</v>
@@ -5282,8 +5670,11 @@
       <c r="AB63" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC63" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>61</v>
       </c>
@@ -5291,25 +5682,25 @@
         <v>61</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>370</v>
@@ -5327,10 +5718,10 @@
         <v>65</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S64" s="0" t="n">
         <v>1020</v>
@@ -5356,8 +5747,11 @@
       <c r="AB64" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC64" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>62</v>
       </c>
@@ -5365,25 +5759,25 @@
         <v>62</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>1200</v>
@@ -5401,10 +5795,10 @@
         <v>65</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S65" s="0" t="n">
         <v>1020</v>
@@ -5430,8 +5824,11 @@
       <c r="AB65" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC65" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>63</v>
       </c>
@@ -5439,25 +5836,25 @@
         <v>63</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>125</v>
@@ -5475,10 +5872,10 @@
         <v>25</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S66" s="0" t="n">
         <v>1000</v>
@@ -5507,8 +5904,11 @@
       <c r="AB66" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC66" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>64</v>
       </c>
@@ -5516,25 +5916,25 @@
         <v>64</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>125</v>
@@ -5552,10 +5952,10 @@
         <v>31</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S67" s="0" t="n">
         <v>876</v>
@@ -5584,34 +5984,37 @@
       <c r="AB67" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC67" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>127</v>
+      <c r="C68" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>280</v>
@@ -5629,10 +6032,10 @@
         <v>45</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S68" s="0" t="n">
         <v>1020</v>
@@ -5658,7 +6061,252 @@
       <c r="AB68" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
+      <c r="AC68" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C68" r:id="rId1" display="Сулугуни &quot;Зеленая линия&quot;, 45%, 0,28 кг, т/ф"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -728,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T20" activeCellId="0" sqref="T20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3555,7 +3555,7 @@
         <v>200</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>200</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="196">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -602,16 +602,23 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000097655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,8 кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098165</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -642,16 +649,35 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -664,6 +690,17 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="dashed">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="dashed"/>
       <diagonal/>
     </border>
   </borders>
@@ -692,7 +729,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -709,6 +746,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -718,6 +763,76 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFF2DCDB"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -726,10 +841,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC72" activeCellId="0" sqref="AC72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6065,7 +6180,83 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="X69" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y69" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z69" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC69" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6308,6 +6499,11 @@
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C68" r:id="rId1" display="Сулугуни &quot;Зеленая линия&quot;, 45%, 0,28 кг, т/ф"/>
   </hyperlinks>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="200">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -608,6 +608,18 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла, 45%, 3,5 кг, пл/л (палочки 15 г)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла, 45%, 3,6 кг, пл/л (палочки 7,5 г)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098311</t>
   </si>
 </sst>
 </file>
@@ -618,7 +630,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -661,6 +673,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -729,7 +748,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -751,6 +770,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,10 +864,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC72" activeCellId="0" sqref="AC72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6257,8 +6280,160 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X70" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z70" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC70" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC71" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="202">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -139,6 +139,9 @@
     <t xml:space="preserve">Н0000095251</t>
   </si>
   <si>
+    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
   </si>
   <si>
@@ -353,6 +356,27 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000096418</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">т/ф</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
@@ -630,7 +654,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -660,6 +684,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -766,15 +796,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,10 +895,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC72"/>
+  <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,10 +1150,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>39</v>
@@ -1135,43 +1165,43 @@
         <v>29</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="S4" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="S4" s="0" t="n">
-        <v>288</v>
+      <c r="V4" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>40</v>
@@ -1192,18 +1222,18 @@
         <v>5</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2.7</v>
@@ -1212,22 +1242,22 @@
         <v>29</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>3000</v>
+        <v>120</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>1</v>
@@ -1242,13 +1272,13 @@
         <v>29</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>1020</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>40</v>
@@ -1269,18 +1299,18 @@
         <v>5</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.7</v>
@@ -1289,43 +1319,43 @@
         <v>29</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>40</v>
@@ -1346,66 +1376,66 @@
         <v>5</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="X7" s="0" t="n">
         <v>20</v>
@@ -1423,153 +1453,153 @@
         <v>5</v>
       </c>
       <c r="AC7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D8" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L8" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>125</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>460</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="S9" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Z9" s="0" t="n">
         <v>15</v>
       </c>
@@ -1580,18 +1610,18 @@
         <v>5</v>
       </c>
       <c r="AC9" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2.7</v>
@@ -1600,7 +1630,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>31</v>
@@ -1609,7 +1639,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>460</v>
@@ -1630,10 +1660,10 @@
         <v>34</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>728</v>
+        <v>1020</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>120</v>
@@ -1657,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1668,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2.7</v>
@@ -1677,7 +1707,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>31</v>
@@ -1686,13 +1716,13 @@
         <v>32</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>460</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>460</v>
@@ -1707,7 +1737,7 @@
         <v>34</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>728</v>
@@ -1734,18 +1764,18 @@
         <v>5</v>
       </c>
       <c r="AC11" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2.7</v>
@@ -1754,7 +1784,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>31</v>
@@ -1763,16 +1793,16 @@
         <v>32</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>850</v>
@@ -1784,13 +1814,13 @@
         <v>34</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1020</v>
+        <v>728</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>40</v>
@@ -1811,18 +1841,18 @@
         <v>5</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2.7</v>
@@ -1840,16 +1870,16 @@
         <v>32</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>850</v>
@@ -1867,7 +1897,7 @@
         <v>1020</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>40</v>
@@ -1888,18 +1918,18 @@
         <v>5</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2.7</v>
@@ -1908,7 +1938,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>31</v>
@@ -1917,16 +1947,16 @@
         <v>32</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>850</v>
@@ -1965,18 +1995,18 @@
         <v>5</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2.7</v>
@@ -1985,7 +2015,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>31</v>
@@ -1994,16 +2024,16 @@
         <v>32</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>850</v>
@@ -2018,10 +2048,10 @@
         <v>35</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>40</v>
@@ -2042,18 +2072,18 @@
         <v>5</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2.7</v>
@@ -2062,7 +2092,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>31</v>
@@ -2071,7 +2101,7 @@
         <v>32</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>120</v>
@@ -2119,18 +2149,18 @@
         <v>5</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2.7</v>
@@ -2139,7 +2169,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>31</v>
@@ -2148,7 +2178,7 @@
         <v>32</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>120</v>
@@ -2163,7 +2193,7 @@
         <v>850</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>34</v>
@@ -2196,18 +2226,18 @@
         <v>5</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2.7</v>
@@ -2216,7 +2246,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>31</v>
@@ -2225,34 +2255,34 @@
         <v>32</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>728</v>
+        <v>518</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>40</v>
@@ -2273,18 +2303,18 @@
         <v>5</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2.7</v>
@@ -2293,40 +2323,40 @@
         <v>29</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>1020</v>
+        <v>728</v>
       </c>
       <c r="V19" s="0" t="n">
         <v>120</v>
@@ -2350,18 +2380,18 @@
         <v>5</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2.7</v>
@@ -2370,31 +2400,31 @@
         <v>29</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>34</v>
@@ -2427,18 +2457,18 @@
         <v>5</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2.7</v>
@@ -2447,16 +2477,16 @@
         <v>29</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>280</v>
@@ -2471,7 +2501,7 @@
         <v>850</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>34</v>
@@ -2504,18 +2534,18 @@
         <v>5</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2.7</v>
@@ -2524,43 +2554,43 @@
         <v>29</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R22" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="S22" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="S22" s="0" t="n">
-        <v>288</v>
+      <c r="V22" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="W22" s="0" t="n">
         <v>40</v>
@@ -2581,18 +2611,18 @@
         <v>5</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2.7</v>
@@ -2601,43 +2631,43 @@
         <v>29</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="V23" s="0" t="n">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="W23" s="0" t="n">
         <v>40</v>
@@ -2658,18 +2688,18 @@
         <v>5</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2.7</v>
@@ -2678,25 +2708,25 @@
         <v>29</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>850</v>
@@ -2714,7 +2744,7 @@
         <v>1020</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>40</v>
@@ -2735,18 +2765,18 @@
         <v>5</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2.7</v>
@@ -2755,43 +2785,43 @@
         <v>29</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="S25" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="S25" s="0" t="n">
-        <v>288</v>
+      <c r="V25" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="W25" s="0" t="n">
         <v>40</v>
@@ -2812,18 +2842,18 @@
         <v>5</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>2.7</v>
@@ -2832,43 +2862,43 @@
         <v>29</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>120</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="V26" s="0" t="n">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="W26" s="0" t="n">
         <v>40</v>
@@ -2889,18 +2919,18 @@
         <v>5</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>2.7</v>
@@ -2909,16 +2939,16 @@
         <v>29</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>120</v>
@@ -2933,7 +2963,7 @@
         <v>850</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>34</v>
@@ -2966,18 +2996,18 @@
         <v>5</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2.7</v>
@@ -2986,7 +3016,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>31</v>
@@ -2995,16 +3025,16 @@
         <v>32</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>850</v>
@@ -3019,10 +3049,10 @@
         <v>35</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="W28" s="0" t="n">
         <v>40</v>
@@ -3043,18 +3073,18 @@
         <v>5</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2.7</v>
@@ -3072,22 +3102,22 @@
         <v>32</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>1020</v>
+        <v>65</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>34</v>
@@ -3099,7 +3129,7 @@
         <v>1020</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="W29" s="0" t="n">
         <v>40</v>
@@ -3120,18 +3150,18 @@
         <v>5</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2.7</v>
@@ -3140,7 +3170,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>31</v>
@@ -3149,22 +3179,22 @@
         <v>32</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>65</v>
+        <v>1020</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>34</v>
@@ -3176,7 +3206,7 @@
         <v>1020</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>40</v>
@@ -3197,18 +3227,18 @@
         <v>5</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2.7</v>
@@ -3217,7 +3247,7 @@
         <v>29</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>31</v>
@@ -3226,16 +3256,16 @@
         <v>32</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>850</v>
@@ -3274,72 +3304,72 @@
         <v>5</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>112</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="V32" s="0" t="n">
         <v>120</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Z32" s="0" t="n">
         <v>15</v>
@@ -3351,18 +3381,18 @@
         <v>5</v>
       </c>
       <c r="AC32" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>2.7</v>
@@ -3371,31 +3401,31 @@
         <v>29</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>34</v>
@@ -3404,10 +3434,10 @@
         <v>35</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>40</v>
@@ -3428,18 +3458,18 @@
         <v>5</v>
       </c>
       <c r="AC33" s="0" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>3.6</v>
@@ -3448,25 +3478,25 @@
         <v>29</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>850</v>
@@ -3478,7 +3508,7 @@
         <v>34</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="S34" s="0" t="n">
         <v>600</v>
@@ -3505,95 +3535,95 @@
         <v>5</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="O35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="S35" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="V35" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="W35" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="X35" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y35" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z35" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA35" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3.6</v>
@@ -3602,25 +3632,25 @@
         <v>29</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>850</v>
@@ -3632,7 +3662,7 @@
         <v>34</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="S36" s="0" t="n">
         <v>600</v>
@@ -3659,72 +3689,72 @@
         <v>5</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N37" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W37" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="O37" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P37" s="0" t="s">
+      <c r="X37" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="S37" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="V37" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="W37" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Y37" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Z37" s="0" t="n">
         <v>15</v>
@@ -3736,18 +3766,18 @@
         <v>5</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>3.6</v>
@@ -3756,16 +3786,16 @@
         <v>29</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>700</v>
@@ -3786,7 +3816,7 @@
         <v>34</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S38" s="0" t="n">
         <v>600</v>
@@ -3813,66 +3843,66 @@
         <v>5</v>
       </c>
       <c r="AC38" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>7.5</v>
+        <v>200</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N39" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P39" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="S39" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="X39" s="0" t="n">
         <v>20</v>
@@ -3890,18 +3920,18 @@
         <v>5</v>
       </c>
       <c r="AC39" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3.6</v>
@@ -3910,55 +3940,52 @@
         <v>29</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>125</v>
+        <v>700</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>125</v>
+        <v>700</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="T40" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="U40" s="0" t="n">
-        <v>50</v>
+        <v>600</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="W40" s="0" t="n">
         <v>50</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z40" s="0" t="n">
         <v>15</v>
@@ -3970,75 +3997,72 @@
         <v>5</v>
       </c>
       <c r="AC40" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P41" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="S41" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T41" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="U41" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W41" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="X41" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y41" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Z41" s="0" t="n">
         <v>15</v>
@@ -4050,36 +4074,36 @@
         <v>5</v>
       </c>
       <c r="AC41" s="0" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>125</v>
@@ -4100,7 +4124,7 @@
         <v>34</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S42" s="0" t="n">
         <v>960</v>
@@ -4115,7 +4139,7 @@
         <v>50</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y42" s="0" t="n">
         <v>40</v>
@@ -4130,60 +4154,60 @@
         <v>5</v>
       </c>
       <c r="AC42" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>25</v>
@@ -4192,13 +4216,13 @@
         <v>50</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X43" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z43" s="0" t="n">
         <v>15</v>
@@ -4210,18 +4234,18 @@
         <v>5</v>
       </c>
       <c r="AC43" s="0" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>3.3</v>
@@ -4233,34 +4257,34 @@
         <v>30</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S44" s="0" t="n">
         <v>960</v>
@@ -4290,18 +4314,18 @@
         <v>5</v>
       </c>
       <c r="AC44" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>3.3</v>
@@ -4313,37 +4337,37 @@
         <v>30</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>25</v>
@@ -4370,18 +4394,18 @@
         <v>5</v>
       </c>
       <c r="AC45" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>3.3</v>
@@ -4393,22 +4417,22 @@
         <v>30</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>12</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>1000</v>
@@ -4420,10 +4444,10 @@
         <v>34</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="T46" s="0" t="n">
         <v>25</v>
@@ -4450,18 +4474,18 @@
         <v>5</v>
       </c>
       <c r="AC46" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>3.3</v>
@@ -4473,37 +4497,37 @@
         <v>30</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S47" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="T47" s="0" t="n">
         <v>25</v>
@@ -4530,18 +4554,18 @@
         <v>5</v>
       </c>
       <c r="AC47" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>3.3</v>
@@ -4553,37 +4577,37 @@
         <v>30</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="T48" s="0" t="n">
         <v>25</v>
@@ -4610,18 +4634,18 @@
         <v>5</v>
       </c>
       <c r="AC48" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>3.3</v>
@@ -4633,19 +4657,19 @@
         <v>30</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>100</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L49" s="0" t="n">
         <v>100</v>
@@ -4660,7 +4684,7 @@
         <v>34</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S49" s="0" t="n">
         <v>960</v>
@@ -4690,45 +4714,45 @@
         <v>5</v>
       </c>
       <c r="AC49" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>1000</v>
@@ -4740,10 +4764,10 @@
         <v>34</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="T50" s="0" t="n">
         <v>25</v>
@@ -4752,13 +4776,13 @@
         <v>50</v>
       </c>
       <c r="W50" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X50" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y50" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z50" s="0" t="n">
         <v>15</v>
@@ -4770,60 +4794,60 @@
         <v>5</v>
       </c>
       <c r="AC50" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="T51" s="0" t="n">
         <v>25</v>
@@ -4832,13 +4856,13 @@
         <v>50</v>
       </c>
       <c r="W51" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X51" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y51" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z51" s="0" t="n">
         <v>15</v>
@@ -4850,36 +4874,36 @@
         <v>5</v>
       </c>
       <c r="AC51" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>125</v>
@@ -4888,7 +4912,7 @@
         <v>8</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>1000</v>
@@ -4900,25 +4924,25 @@
         <v>34</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S52" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T52" s="0" t="n">
         <v>25</v>
       </c>
       <c r="U52" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W52" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="X52" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y52" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z52" s="0" t="n">
         <v>15</v>
@@ -4930,60 +4954,60 @@
         <v>5</v>
       </c>
       <c r="AC52" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="S53" s="0" t="n">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="T53" s="0" t="n">
         <v>25</v>
@@ -4992,13 +5016,13 @@
         <v>50</v>
       </c>
       <c r="W53" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X53" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y53" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z53" s="0" t="n">
         <v>15</v>
@@ -5010,36 +5034,36 @@
         <v>5</v>
       </c>
       <c r="AC53" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>125</v>
@@ -5048,7 +5072,7 @@
         <v>8</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>1000</v>
@@ -5060,22 +5084,22 @@
         <v>34</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>876</v>
+        <v>600</v>
       </c>
       <c r="T54" s="0" t="n">
         <v>25</v>
       </c>
       <c r="U54" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W54" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y54" s="0" t="n">
         <v>40</v>
@@ -5090,45 +5114,45 @@
         <v>5</v>
       </c>
       <c r="AC54" s="0" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>1000</v>
@@ -5140,25 +5164,25 @@
         <v>34</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="S55" s="0" t="n">
-        <v>876</v>
+        <v>840</v>
       </c>
       <c r="T55" s="0" t="n">
         <v>25</v>
       </c>
       <c r="U55" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="W55" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y55" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z55" s="0" t="n">
         <v>15</v>
@@ -5170,39 +5194,39 @@
         <v>5</v>
       </c>
       <c r="AC55" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>8</v>
@@ -5220,10 +5244,10 @@
         <v>34</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S56" s="0" t="n">
-        <v>702</v>
+        <v>876</v>
       </c>
       <c r="T56" s="0" t="n">
         <v>25</v>
@@ -5235,7 +5259,7 @@
         <v>50</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y56" s="0" t="n">
         <v>40</v>
@@ -5250,39 +5274,39 @@
         <v>5</v>
       </c>
       <c r="AC56" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>8</v>
@@ -5300,10 +5324,10 @@
         <v>34</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S57" s="0" t="n">
-        <v>1020</v>
+        <v>876</v>
       </c>
       <c r="T57" s="0" t="n">
         <v>25</v>
@@ -5312,13 +5336,13 @@
         <v>20</v>
       </c>
       <c r="W57" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X57" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y57" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z57" s="0" t="n">
         <v>15</v>
@@ -5330,18 +5354,18 @@
         <v>5</v>
       </c>
       <c r="AC57" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>3.3</v>
@@ -5353,19 +5377,19 @@
         <v>30</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>8</v>
@@ -5374,16 +5398,16 @@
         <v>1000</v>
       </c>
       <c r="N58" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S58" s="0" t="n">
-        <v>876</v>
+        <v>702</v>
       </c>
       <c r="T58" s="0" t="n">
         <v>25</v>
@@ -5410,18 +5434,18 @@
         <v>5</v>
       </c>
       <c r="AC58" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>3.3</v>
@@ -5433,19 +5457,19 @@
         <v>30</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>100</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>8</v>
@@ -5460,10 +5484,10 @@
         <v>34</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S59" s="0" t="n">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="T59" s="0" t="n">
         <v>25</v>
@@ -5490,42 +5514,42 @@
         <v>5</v>
       </c>
       <c r="AC59" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>125</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>8</v>
@@ -5534,13 +5558,13 @@
         <v>1000</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S60" s="0" t="n">
         <v>876</v>
@@ -5552,13 +5576,13 @@
         <v>20</v>
       </c>
       <c r="W60" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X60" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y60" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z60" s="0" t="n">
         <v>15</v>
@@ -5570,18 +5594,18 @@
         <v>5</v>
       </c>
       <c r="AC60" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>3.3</v>
@@ -5593,19 +5617,19 @@
         <v>30</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>100</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>8</v>
@@ -5620,10 +5644,10 @@
         <v>34</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S61" s="0" t="n">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="T61" s="0" t="n">
         <v>25</v>
@@ -5650,42 +5674,42 @@
         <v>5</v>
       </c>
       <c r="AC61" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>8</v>
@@ -5694,16 +5718,16 @@
         <v>1000</v>
       </c>
       <c r="N62" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O62" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S62" s="0" t="n">
-        <v>702</v>
+        <v>876</v>
       </c>
       <c r="T62" s="0" t="n">
         <v>25</v>
@@ -5712,13 +5736,13 @@
         <v>20</v>
       </c>
       <c r="W62" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X62" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y62" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z62" s="0" t="n">
         <v>15</v>
@@ -5730,18 +5754,18 @@
         <v>5</v>
       </c>
       <c r="AC62" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>3.3</v>
@@ -5753,19 +5777,19 @@
         <v>30</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L63" s="0" t="n">
         <v>8</v>
@@ -5774,16 +5798,16 @@
         <v>1000</v>
       </c>
       <c r="N63" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O63" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S63" s="0" t="n">
-        <v>876</v>
+        <v>1020</v>
       </c>
       <c r="T63" s="0" t="n">
         <v>25</v>
@@ -5810,21 +5834,21 @@
         <v>5</v>
       </c>
       <c r="AC63" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>29</v>
@@ -5833,50 +5857,53 @@
         <v>30</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N64" s="0" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="O64" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S64" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="V64" s="0" t="n">
-        <v>120</v>
+        <v>702</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="W64" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="X64" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y64" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Z64" s="0" t="n">
         <v>15</v>
       </c>
@@ -5887,21 +5914,21 @@
         <v>5</v>
       </c>
       <c r="AC64" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>29</v>
@@ -5910,50 +5937,53 @@
         <v>30</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>1200</v>
+        <v>125</v>
       </c>
       <c r="K65" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L65" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L65" s="0" t="n">
-        <v>1200</v>
-      </c>
       <c r="M65" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="O65" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S65" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="V65" s="0" t="n">
-        <v>120</v>
+        <v>876</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="W65" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="X65" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y65" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Z65" s="0" t="n">
         <v>15</v>
       </c>
@@ -5964,75 +5994,72 @@
         <v>5</v>
       </c>
       <c r="AC65" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F66" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W66" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G66" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L66" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="M66" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N66" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P66" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="S66" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T66" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="U66" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W66" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="X66" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y66" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Z66" s="0" t="n">
         <v>15</v>
@@ -6044,75 +6071,72 @@
         <v>5</v>
       </c>
       <c r="AC66" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>8</v>
+        <v>1200</v>
       </c>
       <c r="M67" s="0" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N67" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="O67" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S67" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="T67" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="U67" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="W67" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>20</v>
       </c>
       <c r="Y67" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Z67" s="0" t="n">
         <v>15</v>
@@ -6124,73 +6148,76 @@
         <v>5</v>
       </c>
       <c r="AC67" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>192</v>
+        <v>63</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>190</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>8</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="M68" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O68" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P68" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="X68" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y68" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="S68" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="V68" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="W68" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="X68" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y68" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Z68" s="0" t="n">
         <v>15</v>
       </c>
@@ -6201,69 +6228,72 @@
         <v>5</v>
       </c>
       <c r="AC68" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>194</v>
+        <v>64</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>192</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>700</v>
+        <v>8</v>
       </c>
       <c r="M69" s="0" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="O69" s="0" t="s">
         <v>34</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="S69" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="V69" s="0" t="n">
-        <v>120</v>
+        <v>876</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="W69" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X69" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y69" s="0" t="n">
         <v>35</v>
@@ -6277,19 +6307,19 @@
       <c r="AB69" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AC69" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC69" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>2.7</v>
@@ -6298,43 +6328,43 @@
         <v>29</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>3500</v>
+        <v>280</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="M70" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N70" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O70" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P70" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="S70" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="V70" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="W70" s="0" t="n">
         <v>40</v>
@@ -6354,89 +6384,241 @@
       <c r="AB70" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AC70" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC70" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>198</v>
+        <v>66</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>3600</v>
+        <v>700</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>7.5</v>
+        <v>700</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>850</v>
       </c>
       <c r="N71" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="X71" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="O71" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P71" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="S71" s="0" t="n">
+      <c r="Y71" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC71" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="S72" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="V71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="W71" s="0" t="n">
+      <c r="V72" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W72" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="X71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z71" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB71" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC71" s="6" t="s">
+      <c r="X72" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y72" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z72" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X73" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z73" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA73" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6674,14 +6856,16 @@
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="C69">
+  <conditionalFormatting sqref="C71">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C68" r:id="rId1" display="Сулугуни &quot;Зеленая линия&quot;, 45%, 0,28 кг, т/ф"/>
+    <hyperlink ref="C70" r:id="rId1" display="Сулугуни &quot;Зеленая линия&quot;, 45%, 0,28 кг, т/ф"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -358,25 +358,7 @@
     <t xml:space="preserve">Н0000096418</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">т/ф</t>
-    </r>
+    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
@@ -654,7 +636,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -684,12 +666,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -796,15 +772,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -898,7 +874,7 @@
   <dimension ref="A1:AC74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6515,7 +6491,7 @@
         <v>47</v>
       </c>
       <c r="S72" s="0" t="n">
-        <v>518</v>
+        <v>420</v>
       </c>
       <c r="V72" s="0" t="n">
         <v>10</v>
@@ -6592,7 +6568,7 @@
         <v>47</v>
       </c>
       <c r="S73" s="0" t="n">
-        <v>518</v>
+        <v>432</v>
       </c>
       <c r="V73" s="0" t="n">
         <v>10</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="203">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -687,6 +690,18 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -755,7 +770,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,6 +796,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -871,10 +894,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC74"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C48" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F83" activeCellId="0" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6518,7 +6541,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>68</v>
       </c>
@@ -6595,7 +6618,83 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N74" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y74" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z74" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC74" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6833,7 +6932,7 @@
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="C71">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -639,7 +639,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -690,18 +690,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -799,11 +787,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C48" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F83" activeCellId="0" sqref="F83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="210">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -629,6 +629,27 @@
   </si>
   <si>
     <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,8 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Свежий ряд", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свежий ряд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098756</t>
   </si>
 </sst>
 </file>
@@ -884,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L75" activeCellId="0" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1137,10 +1158,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>39</v>
@@ -1214,10 +1235,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>40</v>
@@ -1291,10 +1312,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>46</v>
@@ -1368,10 +1389,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>49</v>
@@ -1445,10 +1466,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>52</v>
@@ -1522,10 +1543,10 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>54</v>
@@ -1602,10 +1623,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>58</v>
@@ -1679,10 +1700,10 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>60</v>
@@ -1756,10 +1777,10 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>63</v>
@@ -1833,10 +1854,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>65</v>
@@ -1910,10 +1931,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>68</v>
@@ -1987,10 +2008,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>71</v>
@@ -2064,10 +2085,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>73</v>
@@ -2141,10 +2162,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>75</v>
@@ -2218,10 +2239,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>78</v>
@@ -2295,10 +2316,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>81</v>
@@ -2372,10 +2393,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>84</v>
@@ -2449,10 +2470,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>88</v>
@@ -2526,10 +2547,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>90</v>
@@ -2603,10 +2624,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>93</v>
@@ -2680,10 +2701,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>95</v>
@@ -2757,10 +2778,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>97</v>
@@ -2834,10 +2855,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>99</v>
@@ -2911,10 +2932,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>101</v>
@@ -2988,10 +3009,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>103</v>
@@ -3065,10 +3086,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>106</v>
@@ -3142,10 +3163,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>108</v>
@@ -3219,10 +3240,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>110</v>
@@ -3294,12 +3315,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>112</v>
@@ -3373,10 +3394,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>113</v>
@@ -3450,10 +3471,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>114</v>
@@ -3527,10 +3548,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>119</v>
@@ -3604,10 +3625,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>121</v>
@@ -3681,10 +3702,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>123</v>
@@ -3758,10 +3779,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>125</v>
@@ -3835,10 +3856,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>127</v>
@@ -3912,10 +3933,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>129</v>
@@ -3989,10 +4010,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>131</v>
@@ -4066,10 +4087,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>133</v>
@@ -4146,10 +4167,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>135</v>
@@ -4226,10 +4247,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>136</v>
@@ -4306,10 +4327,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>138</v>
@@ -4386,10 +4407,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>140</v>
@@ -4466,10 +4487,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>143</v>
@@ -4546,10 +4567,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>145</v>
@@ -4626,10 +4647,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>147</v>
@@ -4706,10 +4727,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>150</v>
@@ -4786,10 +4807,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>153</v>
@@ -4866,10 +4887,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>156</v>
@@ -4946,10 +4967,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>158</v>
@@ -5026,10 +5047,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>160</v>
@@ -5106,10 +5127,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>162</v>
@@ -5186,10 +5207,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>165</v>
@@ -5266,10 +5287,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>168</v>
@@ -5346,10 +5367,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>170</v>
@@ -5426,10 +5447,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>172</v>
@@ -5506,10 +5527,10 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>174</v>
@@ -5586,10 +5607,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>176</v>
@@ -5666,10 +5687,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>178</v>
@@ -5746,10 +5767,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>180</v>
@@ -5826,10 +5847,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>182</v>
@@ -5906,10 +5927,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>184</v>
@@ -5986,10 +6007,10 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>186</v>
@@ -6063,10 +6084,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>188</v>
@@ -6140,10 +6161,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>190</v>
@@ -6220,10 +6241,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>192</v>
@@ -6300,10 +6321,10 @@
     </row>
     <row r="70" customFormat="false" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>194</v>
@@ -6377,10 +6398,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>196</v>
@@ -6452,12 +6473,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>198</v>
@@ -6531,10 +6552,10 @@
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>200</v>
@@ -6606,12 +6627,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>202</v>
@@ -6683,9 +6704,252 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z75" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA75" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC75" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="S76" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="X76" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y76" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z76" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA76" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="X77" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y77" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z77" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA77" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC77" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="211">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -711,6 +714,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -779,7 +788,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -813,6 +822,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -905,8 +922,8 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L75" activeCellId="0" sqref="L75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC82" activeCellId="0" sqref="AC82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6950,7 +6967,86 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O78" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P78" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="S78" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U78" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W78" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="X78" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y78" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z78" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA78" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC78" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -663,7 +663,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -715,14 +715,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +727,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2DCDB"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -825,7 +825,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -859,7 +859,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -922,8 +922,8 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC82" activeCellId="0" sqref="AC82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B27" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G55" activeCellId="0" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6728,7 +6728,7 @@
       <c r="B75" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="9" t="s">
         <v>203</v>
       </c>
       <c r="D75" s="0" t="n">
@@ -6756,7 +6756,7 @@
         <v>8</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>1000</v>
@@ -6992,7 +6992,7 @@
       <c r="H78" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" s="8" t="s">
         <v>69</v>
       </c>
       <c r="J78" s="0" t="n">

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -659,7 +659,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -689,19 +689,19 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -754,7 +754,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -778,7 +778,7 @@
   <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
+      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -869,7 +869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -943,7 +943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>43</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>1020</v>
+        <v>288</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>288</v>
@@ -1165,7 +1165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>1020</v>
+        <v>360</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>360</v>
@@ -1239,7 +1239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>43</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>1020</v>
+        <v>288</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>288</v>
@@ -2500,7 +2500,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>43</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>1020</v>
+        <v>288</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>288</v>
@@ -2722,7 +2722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -5110,8 +5110,8 @@
       <c r="O58" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R58" s="0" t="n">
-        <v>702</v>
+      <c r="R58" s="2" t="n">
+        <v>558</v>
       </c>
       <c r="S58" s="0" t="n">
         <v>25</v>
@@ -5141,7 +5141,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -5187,8 +5187,8 @@
       <c r="O59" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R59" s="0" t="n">
-        <v>1020</v>
+      <c r="R59" s="2" t="n">
+        <v>558</v>
       </c>
       <c r="S59" s="0" t="n">
         <v>25</v>
@@ -5218,7 +5218,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -5341,8 +5341,8 @@
       <c r="O61" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R61" s="0" t="n">
-        <v>960</v>
+      <c r="R61" s="2" t="n">
+        <v>558</v>
       </c>
       <c r="S61" s="0" t="n">
         <v>25</v>
@@ -5372,7 +5372,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -5495,8 +5495,8 @@
       <c r="O63" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R63" s="0" t="n">
-        <v>1020</v>
+      <c r="R63" s="2" t="n">
+        <v>558</v>
       </c>
       <c r="S63" s="0" t="n">
         <v>25</v>
@@ -5526,7 +5526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -5572,8 +5572,8 @@
       <c r="O64" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R64" s="0" t="n">
-        <v>702</v>
+      <c r="R64" s="2" t="n">
+        <v>558</v>
       </c>
       <c r="S64" s="0" t="n">
         <v>25</v>
@@ -5603,7 +5603,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="G68" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="0" t="s">
         <v>81</v>
       </c>
       <c r="I68" s="0" t="n">
@@ -5927,7 +5927,7 @@
       <c r="G69" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="0" t="s">
         <v>81</v>
       </c>
       <c r="I69" s="0" t="n">
@@ -5982,7 +5982,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>43</v>
       </c>
       <c r="Q75" s="0" t="n">
-        <v>960</v>
+        <v>420</v>
       </c>
       <c r="R75" s="0" t="n">
         <v>420</v>
@@ -6432,7 +6432,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
@@ -6635,8 +6635,8 @@
       <c r="O78" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R78" s="0" t="n">
-        <v>702</v>
+      <c r="R78" s="2" t="n">
+        <v>558</v>
       </c>
       <c r="S78" s="0" t="n">
         <v>25</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -778,7 +778,7 @@
   <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
+      <selection pane="topLeft" activeCell="V22" activeCellId="0" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1138,7 +1138,7 @@
         <v>43</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>288</v>
+        <v>1020</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>288</v>
@@ -1212,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>360</v>
+        <v>1020</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>360</v>
@@ -2473,7 +2473,7 @@
         <v>43</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>288</v>
+        <v>1020</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>288</v>
@@ -2695,7 +2695,7 @@
         <v>43</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>288</v>
+        <v>1020</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>288</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -1317,13 +1317,13 @@
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W9" t="n">
         <v>20</v>
       </c>
       <c r="X9" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -4487,13 +4487,13 @@
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W42" t="n">
         <v>25</v>
       </c>
       <c r="X42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Y42" t="n">
         <v>15</v>
@@ -4585,13 +4585,13 @@
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W43" t="n">
         <v>20</v>
       </c>
       <c r="X43" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y43" t="n">
         <v>15</v>
@@ -4683,13 +4683,13 @@
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W44" t="n">
         <v>20</v>
       </c>
       <c r="X44" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y44" t="n">
         <v>15</v>
@@ -4781,13 +4781,13 @@
       </c>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W45" t="n">
         <v>20</v>
       </c>
       <c r="X45" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y45" t="n">
         <v>15</v>
@@ -4879,13 +4879,13 @@
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W46" t="n">
         <v>20</v>
       </c>
       <c r="X46" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y46" t="n">
         <v>15</v>
@@ -4977,13 +4977,13 @@
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W47" t="n">
         <v>20</v>
       </c>
       <c r="X47" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y47" t="n">
         <v>15</v>
@@ -5075,13 +5075,13 @@
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W48" t="n">
         <v>20</v>
       </c>
       <c r="X48" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y48" t="n">
         <v>15</v>
@@ -5173,13 +5173,13 @@
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W49" t="n">
         <v>20</v>
       </c>
       <c r="X49" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y49" t="n">
         <v>15</v>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W50" t="n">
         <v>20</v>
       </c>
       <c r="X50" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y50" t="n">
         <v>15</v>
@@ -5369,13 +5369,13 @@
       </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W51" t="n">
         <v>20</v>
       </c>
       <c r="X51" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y51" t="n">
         <v>15</v>
@@ -5467,13 +5467,13 @@
       </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W52" t="n">
         <v>20</v>
       </c>
       <c r="X52" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y52" t="n">
         <v>15</v>
@@ -5565,13 +5565,13 @@
       </c>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W53" t="n">
         <v>20</v>
       </c>
       <c r="X53" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y53" t="n">
         <v>15</v>
@@ -5761,13 +5761,13 @@
       </c>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W55" t="n">
         <v>25</v>
       </c>
       <c r="X55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Y55" t="n">
         <v>15</v>
@@ -5859,13 +5859,13 @@
       </c>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W56" t="n">
         <v>25</v>
       </c>
       <c r="X56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Y56" t="n">
         <v>15</v>
@@ -5957,13 +5957,13 @@
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W57" t="n">
         <v>20</v>
       </c>
       <c r="X57" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y57" t="n">
         <v>15</v>
@@ -6055,13 +6055,13 @@
       </c>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W58" t="n">
         <v>20</v>
       </c>
       <c r="X58" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y58" t="n">
         <v>15</v>
@@ -6153,13 +6153,13 @@
       </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W59" t="n">
         <v>20</v>
       </c>
       <c r="X59" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y59" t="n">
         <v>15</v>
@@ -6251,13 +6251,13 @@
       </c>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W60" t="n">
         <v>20</v>
       </c>
       <c r="X60" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y60" t="n">
         <v>15</v>
@@ -6349,13 +6349,13 @@
       </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W61" t="n">
         <v>20</v>
       </c>
       <c r="X61" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y61" t="n">
         <v>15</v>
@@ -6447,13 +6447,13 @@
       </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W62" t="n">
         <v>20</v>
       </c>
       <c r="X62" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y62" t="n">
         <v>15</v>
@@ -6545,13 +6545,13 @@
       </c>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W63" t="n">
         <v>20</v>
       </c>
       <c r="X63" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y63" t="n">
         <v>15</v>
@@ -6643,13 +6643,13 @@
       </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W64" t="n">
         <v>20</v>
       </c>
       <c r="X64" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y64" t="n">
         <v>15</v>
@@ -6741,13 +6741,13 @@
       </c>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W65" t="n">
         <v>20</v>
       </c>
       <c r="X65" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y65" t="n">
         <v>15</v>
@@ -7031,13 +7031,13 @@
       </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W68" t="n">
         <v>20</v>
       </c>
       <c r="X68" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y68" t="n">
         <v>15</v>
@@ -7129,13 +7129,13 @@
       </c>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W69" t="n">
         <v>20</v>
       </c>
       <c r="X69" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y69" t="n">
         <v>15</v>
@@ -7709,13 +7709,13 @@
       </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W75" t="n">
         <v>20</v>
       </c>
       <c r="X75" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y75" t="n">
         <v>15</v>
@@ -7809,13 +7809,13 @@
       </c>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W76" t="n">
         <v>20</v>
       </c>
       <c r="X76" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y76" t="n">
         <v>15</v>
@@ -8005,13 +8005,13 @@
       </c>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W78" t="n">
         <v>20</v>
       </c>
       <c r="X78" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y78" t="n">
         <v>15</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -668,7 +668,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -697,6 +697,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -748,13 +754,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -776,8 +786,8 @@
   </sheetPr>
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L79" activeCellId="0" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1421,7 +1431,7 @@
         <v>125</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>31</v>
@@ -3831,7 +3841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -3865,8 +3875,8 @@
       <c r="K42" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L42" s="0" t="n">
-        <v>1000</v>
+      <c r="L42" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>31</v>
@@ -3908,7 +3918,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -3942,8 +3952,8 @@
       <c r="K43" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L43" s="0" t="n">
-        <v>1000</v>
+      <c r="L43" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>25</v>
@@ -3985,7 +3995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -4019,8 +4029,8 @@
       <c r="K44" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L44" s="0" t="n">
-        <v>1000</v>
+      <c r="L44" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>31</v>
@@ -4062,7 +4072,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -4096,8 +4106,8 @@
       <c r="K45" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L45" s="0" t="n">
-        <v>1000</v>
+      <c r="L45" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>31</v>
@@ -4139,7 +4149,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -4173,8 +4183,8 @@
       <c r="K46" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L46" s="0" t="n">
-        <v>1000</v>
+      <c r="L46" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>25</v>
@@ -4216,7 +4226,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -4250,8 +4260,8 @@
       <c r="K47" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L47" s="0" t="n">
-        <v>1000</v>
+      <c r="L47" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>25</v>
@@ -4293,7 +4303,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -4327,8 +4337,8 @@
       <c r="K48" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L48" s="0" t="n">
-        <v>1000</v>
+      <c r="L48" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>25</v>
@@ -4370,7 +4380,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -4404,8 +4414,8 @@
       <c r="K49" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L49" s="0" t="n">
-        <v>1000</v>
+      <c r="L49" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>31</v>
@@ -4447,7 +4457,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -4481,8 +4491,8 @@
       <c r="K50" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L50" s="0" t="n">
-        <v>1000</v>
+      <c r="L50" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>31</v>
@@ -4524,7 +4534,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -4558,8 +4568,8 @@
       <c r="K51" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L51" s="0" t="n">
-        <v>1000</v>
+      <c r="L51" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>31</v>
@@ -4601,7 +4611,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -4635,8 +4645,8 @@
       <c r="K52" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L52" s="0" t="n">
-        <v>1000</v>
+      <c r="L52" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>31</v>
@@ -4678,7 +4688,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -4712,8 +4722,8 @@
       <c r="K53" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L53" s="0" t="n">
-        <v>1000</v>
+      <c r="L53" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>25</v>
@@ -4755,7 +4765,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -4789,8 +4799,8 @@
       <c r="K54" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="L54" s="0" t="n">
-        <v>1000</v>
+      <c r="L54" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>31</v>
@@ -4832,7 +4842,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -4866,8 +4876,8 @@
       <c r="K55" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L55" s="0" t="n">
-        <v>1000</v>
+      <c r="L55" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>31</v>
@@ -4943,8 +4953,8 @@
       <c r="K56" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L56" s="0" t="n">
-        <v>1000</v>
+      <c r="L56" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>31</v>
@@ -4986,7 +4996,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -5020,8 +5030,8 @@
       <c r="K57" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L57" s="0" t="n">
-        <v>1000</v>
+      <c r="L57" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>31</v>
@@ -5063,7 +5073,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -5097,8 +5107,8 @@
       <c r="K58" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L58" s="0" t="n">
-        <v>1000</v>
+      <c r="L58" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M58" s="0" t="n">
         <v>31</v>
@@ -5140,7 +5150,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -5174,8 +5184,8 @@
       <c r="K59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L59" s="0" t="n">
-        <v>1000</v>
+      <c r="L59" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M59" s="0" t="n">
         <v>31</v>
@@ -5217,7 +5227,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -5251,8 +5261,8 @@
       <c r="K60" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L60" s="0" t="n">
-        <v>1000</v>
+      <c r="L60" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>25</v>
@@ -5294,7 +5304,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -5328,8 +5338,8 @@
       <c r="K61" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L61" s="0" t="n">
-        <v>1000</v>
+      <c r="L61" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>31</v>
@@ -5371,7 +5381,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -5405,8 +5415,8 @@
       <c r="K62" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L62" s="0" t="n">
-        <v>1000</v>
+      <c r="L62" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M62" s="0" t="n">
         <v>31</v>
@@ -5448,7 +5458,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -5482,8 +5492,8 @@
       <c r="K63" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L63" s="0" t="n">
-        <v>1000</v>
+      <c r="L63" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M63" s="0" t="n">
         <v>31</v>
@@ -5525,7 +5535,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -5559,8 +5569,8 @@
       <c r="K64" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L64" s="0" t="n">
-        <v>1000</v>
+      <c r="L64" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>25</v>
@@ -5602,7 +5612,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -5636,8 +5646,8 @@
       <c r="K65" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L65" s="0" t="n">
-        <v>1000</v>
+      <c r="L65" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M65" s="0" t="n">
         <v>25</v>
@@ -5827,7 +5837,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -5861,8 +5871,8 @@
       <c r="K68" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L68" s="0" t="n">
-        <v>1000</v>
+      <c r="L68" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>31</v>
@@ -5904,7 +5914,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
@@ -5938,8 +5948,8 @@
       <c r="K69" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L69" s="0" t="n">
-        <v>1000</v>
+      <c r="L69" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>31</v>
@@ -6351,7 +6361,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
@@ -6385,8 +6395,8 @@
       <c r="K75" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L75" s="0" t="n">
-        <v>1000</v>
+      <c r="L75" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>31</v>
@@ -6431,7 +6441,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
@@ -6465,8 +6475,8 @@
       <c r="K76" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L76" s="0" t="n">
-        <v>1000</v>
+      <c r="L76" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M76" s="0" t="n">
         <v>31</v>
@@ -6588,7 +6598,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
@@ -6622,8 +6632,8 @@
       <c r="K78" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L78" s="0" t="n">
-        <v>1000</v>
+      <c r="L78" s="2" t="n">
+        <v>1050</v>
       </c>
       <c r="M78" s="0" t="n">
         <v>31</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="210">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -130,15 +130,12 @@
     <t xml:space="preserve">Н0000094735</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
+    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000095251</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф</t>
-  </si>
-  <si>
     <t xml:space="preserve">Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
   </si>
   <si>
@@ -166,499 +163,493 @@
     <t xml:space="preserve">Н0000094274</t>
   </si>
   <si>
+    <t xml:space="preserve">Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САККАРДО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фермерская коллекция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бонджорно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВкусВилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Chef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000089109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маркет Перекресток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3503984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умалат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000081879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красная птица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Красная птица", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для бутербродов "Aventino", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande" (Метро), 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ручная работа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000092242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000091561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эсперсон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фиор Ди Латте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000087862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orecchio Oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каждый день</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">малый Комет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чильеджина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,8 кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла, 45%, 3,5 кг, пл/л (палочки 15 г)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла, 45%, 3,6 кг, пл/л (палочки 7,5 г)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,8 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Свежий ряд", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свежий ряд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000087861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Foodfest", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodfest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099256</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла (палочки), 45%, кг, пл/л</t>
   </si>
   <si>
-    <t xml:space="preserve">Эсперсон</t>
-  </si>
-  <si>
     <t xml:space="preserve">Н0000088954</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фиор Ди Латте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45 %, 0,46 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САККАРДО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094725</t>
+    <t xml:space="preserve">Моцарелла для пиццы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099327</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у</t>
   </si>
   <si>
-    <t xml:space="preserve">Н0000079372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фермерская коллекция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бонджорно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВкусВилл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metro Chef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000089109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Умалат</t>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваш выбор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327193010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327192013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000094742</t>
   </si>
   <si>
-    <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маркет Перекресток</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3503984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000081879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
+    <t xml:space="preserve">Сулугуни палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (4*30 г, 10 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000093444</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Красная птица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Красная птица", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для бутербродов "Aventino", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, в/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande" (Метро), 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ручная работа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000092242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000091561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваш выбор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327193010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000087862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orecchio Oro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каждый день</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла сердечки в воде "Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">малый Комет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чильеджина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000087861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327192013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,8 кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла, 45%, 3,5 кг, пл/л (палочки 15 г)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла, 45%, 3,6 кг, пл/л (палочки 7,5 г)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,8 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Свежий ряд", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свежий ряд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Foodfest", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foodfest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000099256</t>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "ВкусВилл", 50%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у </t>
   </si>
 </sst>
 </file>
@@ -668,7 +659,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -694,15 +685,31 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -754,7 +761,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,7 +770,23 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,6 +799,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF4C4C4C"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -784,18 +867,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L79" activeCellId="0" sqref="L79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -952,7 +1038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1026,7 +1112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1040,43 +1126,43 @@
         <v>28</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="V4" s="0" t="n">
         <v>40</v>
@@ -1097,15 +1183,15 @@
         <v>5</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2.7</v>
@@ -1114,22 +1200,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" s="0" t="n">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
@@ -1144,13 +1230,13 @@
         <v>28</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>1020</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="V5" s="0" t="n">
         <v>40</v>
@@ -1171,63 +1257,63 @@
         <v>5</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>3000</v>
+        <v>280</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="R6" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R6" s="0" t="n">
-        <v>360</v>
+      <c r="U6" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>20</v>
@@ -1245,15 +1331,15 @@
         <v>5</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2.7</v>
@@ -1262,43 +1348,43 @@
         <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="I7" s="0" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>15</v>
+        <v>460</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>518</v>
+        <v>728</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>40</v>
@@ -1319,21 +1405,21 @@
         <v>5</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>29</v>
@@ -1342,19 +1428,19 @@
         <v>30</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>850</v>
@@ -1372,10 +1458,10 @@
         <v>1020</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>20</v>
@@ -1393,72 +1479,69 @@
         <v>5</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>15</v>
@@ -1470,15 +1553,15 @@
         <v>5</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2.7</v>
@@ -1493,19 +1576,19 @@
         <v>30</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>850</v>
@@ -1544,15 +1627,15 @@
         <v>5</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2.7</v>
@@ -1567,19 +1650,19 @@
         <v>30</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I11" s="0" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>850</v>
@@ -1591,13 +1674,13 @@
         <v>33</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>728</v>
+        <v>518</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V11" s="0" t="n">
         <v>40</v>
@@ -1621,7 +1704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1641,19 +1724,19 @@
         <v>30</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>850</v>
@@ -1665,13 +1748,13 @@
         <v>33</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>728</v>
+        <v>518</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V12" s="0" t="n">
         <v>40</v>
@@ -1692,15 +1775,15 @@
         <v>5</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2.7</v>
@@ -1715,25 +1798,25 @@
         <v>30</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>33</v>
@@ -1742,10 +1825,10 @@
         <v>34</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="V13" s="0" t="n">
         <v>40</v>
@@ -1766,15 +1849,15 @@
         <v>5</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2.7</v>
@@ -1792,16 +1875,16 @@
         <v>31</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>850</v>
@@ -1813,10 +1896,10 @@
         <v>33</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>1020</v>
+        <v>728</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>120</v>
@@ -1840,15 +1923,15 @@
         <v>5</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2.7</v>
@@ -1857,16 +1940,16 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>280</v>
@@ -1881,7 +1964,7 @@
         <v>850</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>33</v>
@@ -1914,15 +1997,15 @@
         <v>5</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2.7</v>
@@ -1931,25 +2014,25 @@
         <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>850</v>
@@ -1964,10 +2047,10 @@
         <v>34</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>40</v>
@@ -1988,15 +2071,15 @@
         <v>5</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2.7</v>
@@ -2005,16 +2088,16 @@
         <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>120</v>
@@ -2023,25 +2106,25 @@
         <v>10</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="V17" s="0" t="n">
         <v>40</v>
@@ -2062,15 +2145,15 @@
         <v>5</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2.7</v>
@@ -2079,31 +2162,31 @@
         <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>78</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>33</v>
@@ -2112,10 +2195,10 @@
         <v>34</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="V18" s="0" t="n">
         <v>40</v>
@@ -2136,15 +2219,15 @@
         <v>5</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2.7</v>
@@ -2153,40 +2236,40 @@
         <v>28</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>728</v>
+        <v>1020</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>120</v>
@@ -2210,15 +2293,15 @@
         <v>5</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2.7</v>
@@ -2227,31 +2310,31 @@
         <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>85</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>370</v>
+        <v>30</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>33</v>
@@ -2260,10 +2343,10 @@
         <v>34</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V20" s="0" t="n">
         <v>40</v>
@@ -2287,7 +2370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -2301,16 +2384,16 @@
         <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>280</v>
@@ -2325,7 +2408,7 @@
         <v>850</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>33</v>
@@ -2361,7 +2444,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -2375,7 +2458,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>30</v>
@@ -2384,22 +2467,22 @@
         <v>31</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>65</v>
+        <v>1020</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>33</v>
@@ -2411,7 +2494,7 @@
         <v>1020</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V22" s="0" t="n">
         <v>40</v>
@@ -2432,15 +2515,15 @@
         <v>5</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2.7</v>
@@ -2449,43 +2532,43 @@
         <v>28</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="I23" s="0" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q23" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="R23" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R23" s="0" t="n">
-        <v>288</v>
+      <c r="U23" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V23" s="0" t="n">
         <v>40</v>
@@ -2506,15 +2589,15 @@
         <v>5</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2.7</v>
@@ -2523,31 +2606,31 @@
         <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>33</v>
@@ -2559,7 +2642,7 @@
         <v>1020</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V24" s="0" t="n">
         <v>40</v>
@@ -2580,69 +2663,69 @@
         <v>5</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="U25" s="0" t="n">
         <v>120</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>15</v>
@@ -2654,15 +2737,15 @@
         <v>5</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2.7</v>
@@ -2671,43 +2754,43 @@
         <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>120</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>1020</v>
+        <v>34</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>288</v>
+        <v>518</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V26" s="0" t="n">
         <v>40</v>
@@ -2728,69 +2811,69 @@
         <v>5</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="I27" s="0" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M27" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="R27" s="0" t="n">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y27" s="0" t="n">
         <v>15</v>
@@ -2802,69 +2885,69 @@
         <v>5</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="I28" s="0" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y28" s="0" t="n">
         <v>15</v>
@@ -2876,69 +2959,69 @@
         <v>5</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="U29" s="0" t="n">
         <v>120</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y29" s="0" t="n">
         <v>15</v>
@@ -2950,39 +3033,39 @@
         <v>5</v>
       </c>
       <c r="AB29" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>200</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>200</v>
@@ -2991,7 +3074,7 @@
         <v>850</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>1020</v>
+        <v>50</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>33</v>
@@ -3006,7 +3089,7 @@
         <v>90</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>20</v>
@@ -3024,69 +3107,69 @@
         <v>5</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>120</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y31" s="0" t="n">
         <v>15</v>
@@ -3098,15 +3181,15 @@
         <v>5</v>
       </c>
       <c r="AB31" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2.7</v>
@@ -3115,43 +3198,43 @@
         <v>28</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>1200</v>
+        <v>7.5</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V32" s="0" t="n">
         <v>40</v>
@@ -3172,69 +3255,72 @@
         <v>5</v>
       </c>
       <c r="AB32" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y33" s="0" t="n">
         <v>15</v>
@@ -3246,144 +3332,150 @@
         <v>5</v>
       </c>
       <c r="AB33" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X34" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M34" s="0" t="n">
+      <c r="Y34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB34" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="N34" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" s="0" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="R34" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V34" s="0" t="n">
+      <c r="F35" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T35" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="W34" s="0" t="n">
+      <c r="V35" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X34" s="0" t="n">
+      <c r="W35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X35" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="Y34" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z34" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA34" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB34" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N35" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R35" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U35" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V35" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W35" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X35" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Y35" s="0" t="n">
         <v>15</v>
       </c>
@@ -3394,66 +3486,69 @@
         <v>5</v>
       </c>
       <c r="AB35" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U36" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X36" s="0" t="n">
         <v>35</v>
@@ -3468,66 +3563,69 @@
         <v>5</v>
       </c>
       <c r="AB36" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N37" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="R37" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>120</v>
+        <v>1200</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X37" s="0" t="n">
         <v>35</v>
@@ -3542,66 +3640,69 @@
         <v>5</v>
       </c>
       <c r="AB37" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H38" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N38" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="R38" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <v>120</v>
+        <v>1200</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X38" s="0" t="n">
         <v>35</v>
@@ -3616,69 +3717,72 @@
         <v>5</v>
       </c>
       <c r="AB38" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M39" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T39" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N39" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R39" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U39" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="V39" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W39" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>15</v>
@@ -3690,66 +3794,69 @@
         <v>5</v>
       </c>
       <c r="AB39" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U40" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X40" s="0" t="n">
         <v>35</v>
@@ -3764,69 +3871,72 @@
         <v>5</v>
       </c>
       <c r="AB40" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>7.5</v>
+        <v>100</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M41" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V41" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N41" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U41" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V41" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W41" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y41" s="0" t="n">
         <v>15</v>
@@ -3838,7 +3948,7 @@
         <v>5</v>
       </c>
       <c r="AB41" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,25 +3956,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>125</v>
@@ -3875,7 +3985,7 @@
       <c r="K42" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L42" s="2" t="n">
+      <c r="L42" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M42" s="0" t="n">
@@ -3885,10 +3995,10 @@
         <v>33</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S42" s="0" t="n">
         <v>25</v>
@@ -3897,10 +4007,10 @@
         <v>50</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X42" s="0" t="n">
         <v>30</v>
@@ -3915,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="AB42" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,7 +4033,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3.3</v>
@@ -3932,16 +4042,16 @@
         <v>33</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>125</v>
@@ -3952,7 +4062,7 @@
       <c r="K43" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L43" s="2" t="n">
+      <c r="L43" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M43" s="0" t="n">
@@ -3962,10 +4072,10 @@
         <v>33</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="S43" s="0" t="n">
         <v>25</v>
@@ -3992,7 +4102,7 @@
         <v>5</v>
       </c>
       <c r="AB43" s="0" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,36 +4110,36 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L44" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="L44" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M44" s="0" t="n">
@@ -4039,10 +4149,10 @@
         <v>33</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="S44" s="0" t="n">
         <v>25</v>
@@ -4054,10 +4164,10 @@
         <v>35</v>
       </c>
       <c r="W44" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X44" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y44" s="0" t="n">
         <v>15</v>
@@ -4069,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="AB44" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,36 +4187,36 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L45" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M45" s="0" t="n">
@@ -4116,25 +4226,25 @@
         <v>33</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="S45" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V45" s="0" t="n">
         <v>35</v>
       </c>
       <c r="W45" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X45" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y45" s="0" t="n">
         <v>15</v>
@@ -4146,7 +4256,7 @@
         <v>5</v>
       </c>
       <c r="AB45" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,64 +4264,64 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G46" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M46" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H46" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" s="2" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="N46" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="S46" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W46" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y46" s="0" t="n">
         <v>15</v>
@@ -4223,7 +4333,7 @@
         <v>5</v>
       </c>
       <c r="AB46" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4231,7 +4341,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>3.3</v>
@@ -4240,46 +4350,46 @@
         <v>28</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L47" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L47" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="S47" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T47" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V47" s="0" t="n">
         <v>35</v>
@@ -4300,7 +4410,7 @@
         <v>5</v>
       </c>
       <c r="AB47" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,7 +4418,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>3.3</v>
@@ -4317,46 +4427,46 @@
         <v>28</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L48" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L48" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="S48" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T48" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V48" s="0" t="n">
         <v>35</v>
@@ -4377,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="AB48" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,7 +4495,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>3.3</v>
@@ -4394,27 +4504,27 @@
         <v>28</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K49" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K49" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L49" s="2" t="n">
+      <c r="L49" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M49" s="0" t="n">
@@ -4424,16 +4534,16 @@
         <v>33</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="S49" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T49" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V49" s="0" t="n">
         <v>35</v>
@@ -4454,7 +4564,7 @@
         <v>5</v>
       </c>
       <c r="AB49" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,36 +4572,36 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L50" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M50" s="0" t="n">
@@ -4501,25 +4611,25 @@
         <v>33</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="S50" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T50" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V50" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W50" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y50" s="0" t="n">
         <v>15</v>
@@ -4531,7 +4641,7 @@
         <v>5</v>
       </c>
       <c r="AB50" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,7 +4649,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3.3</v>
@@ -4548,27 +4658,27 @@
         <v>28</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L51" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M51" s="0" t="n">
@@ -4578,16 +4688,16 @@
         <v>33</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="S51" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V51" s="0" t="n">
         <v>35</v>
@@ -4608,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="AB51" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,64 +4726,64 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J52" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K52" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K52" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L52" s="2" t="n">
+      <c r="L52" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N52" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>1200</v>
+        <v>876</v>
       </c>
       <c r="S52" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T52" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W52" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X52" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y52" s="0" t="n">
         <v>15</v>
@@ -4685,7 +4795,7 @@
         <v>5</v>
       </c>
       <c r="AB52" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,64 +4803,61 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L53" s="2" t="n">
-        <v>1050</v>
+        <v>370</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S53" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T53" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W53" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X53" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y53" s="0" t="n">
         <v>15</v>
@@ -4762,7 +4869,7 @@
         <v>5</v>
       </c>
       <c r="AB53" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,64 +4877,61 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="L54" s="2" t="n">
-        <v>1050</v>
+        <v>1200</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N54" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S54" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T54" s="0" t="n">
-        <v>30</v>
+        <v>1020</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V54" s="0" t="n">
         <v>40</v>
       </c>
       <c r="W54" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Y54" s="0" t="n">
         <v>15</v>
@@ -4839,7 +4943,7 @@
         <v>5</v>
       </c>
       <c r="AB54" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,36 +4951,36 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L55" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L55" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M55" s="0" t="n">
@@ -4886,10 +4990,10 @@
         <v>33</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="S55" s="0" t="n">
         <v>25</v>
@@ -4901,10 +5005,10 @@
         <v>35</v>
       </c>
       <c r="W55" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y55" s="0" t="n">
         <v>15</v>
@@ -4916,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="AB55" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,25 +5028,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>125</v>
@@ -4953,7 +5057,7 @@
       <c r="K56" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L56" s="2" t="n">
+      <c r="L56" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M56" s="0" t="n">
@@ -4963,10 +5067,10 @@
         <v>33</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>876</v>
+        <v>1020</v>
       </c>
       <c r="S56" s="0" t="n">
         <v>25</v>
@@ -4978,10 +5082,10 @@
         <v>35</v>
       </c>
       <c r="W56" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y56" s="0" t="n">
         <v>15</v>
@@ -4993,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="AB56" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5001,64 +5105,61 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L57" s="2" t="n">
-        <v>1050</v>
+        <v>280</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R57" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S57" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T57" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V57" s="0" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W57" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X57" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y57" s="0" t="n">
         <v>15</v>
@@ -5070,7 +5171,7 @@
         <v>5</v>
       </c>
       <c r="AB57" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,61 +5179,58 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>1050</v>
+        <v>700</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="N58" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S58" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T58" s="0" t="n">
-        <v>20</v>
+        <v>600</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V58" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W58" s="0" t="n">
         <v>35</v>
-      </c>
-      <c r="W58" s="0" t="n">
-        <v>20</v>
       </c>
       <c r="X58" s="0" t="n">
         <v>35</v>
@@ -5147,7 +5245,7 @@
         <v>5</v>
       </c>
       <c r="AB58" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,64 +5253,61 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L59" s="2" t="n">
-        <v>1050</v>
+        <v>15</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S59" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T59" s="0" t="n">
-        <v>20</v>
+        <v>420</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V59" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W59" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X59" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y59" s="0" t="n">
         <v>15</v>
@@ -5224,7 +5319,7 @@
         <v>5</v>
       </c>
       <c r="AB59" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,64 +5327,61 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>125</v>
+        <v>3600</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L60" s="2" t="n">
-        <v>1050</v>
+        <v>7.5</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S60" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T60" s="0" t="n">
-        <v>20</v>
+        <v>432</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W60" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X60" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y60" s="0" t="n">
         <v>15</v>
@@ -5301,7 +5393,7 @@
         <v>5</v>
       </c>
       <c r="AB60" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,76 +5401,73 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E61" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y61" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z61" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB61" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L61" s="2" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M61" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N61" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R61" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S61" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V61" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X61" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y61" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z61" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA61" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB61" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5386,36 +5475,36 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I62" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="J62" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L62" s="2" t="n">
+      <c r="L62" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M62" s="0" t="n">
@@ -5425,25 +5514,28 @@
         <v>33</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>420</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>876</v>
+        <v>420</v>
       </c>
       <c r="S62" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T62" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V62" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W62" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X62" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y62" s="0" t="n">
         <v>15</v>
@@ -5455,7 +5547,7 @@
         <v>5</v>
       </c>
       <c r="AB62" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5463,7 +5555,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>3.3</v>
@@ -5472,19 +5564,19 @@
         <v>28</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>8</v>
@@ -5492,7 +5584,7 @@
       <c r="K63" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="L63" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M63" s="0" t="n">
@@ -5502,10 +5594,13 @@
         <v>33</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>702</v>
       </c>
       <c r="R63" s="0" t="n">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="S63" s="0" t="n">
         <v>25</v>
@@ -5532,7 +5627,7 @@
         <v>5</v>
       </c>
       <c r="AB63" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,64 +5635,64 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L64" s="2" t="n">
-        <v>1050</v>
+        <v>280</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N64" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R64" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S64" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T64" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V64" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W64" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X64" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y64" s="0" t="n">
         <v>15</v>
@@ -5609,7 +5704,7 @@
         <v>5</v>
       </c>
       <c r="AB64" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,7 +5712,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>3.3</v>
@@ -5626,40 +5721,40 @@
         <v>28</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L65" s="2" t="n">
+      <c r="L65" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M65" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N65" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R65" s="0" t="n">
-        <v>876</v>
+        <v>720</v>
       </c>
       <c r="S65" s="0" t="n">
         <v>25</v>
@@ -5686,15 +5781,15 @@
         <v>5</v>
       </c>
       <c r="AB65" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2.7</v>
@@ -5703,31 +5798,31 @@
         <v>28</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="L66" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M66" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N66" s="0" t="s">
         <v>33</v>
@@ -5735,6 +5830,9 @@
       <c r="O66" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q66" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R66" s="0" t="n">
         <v>1020</v>
       </c>
@@ -5760,15 +5858,15 @@
         <v>5</v>
       </c>
       <c r="AB66" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>187</v>
+      <c r="B67" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2.7</v>
@@ -5783,19 +5881,19 @@
         <v>30</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>850</v>
@@ -5810,10 +5908,10 @@
         <v>34</v>
       </c>
       <c r="R67" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U67" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V67" s="0" t="n">
         <v>40</v>
@@ -5833,8 +5931,8 @@
       <c r="AA67" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" s="0" t="s">
-        <v>188</v>
+      <c r="AB67" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5842,64 +5940,61 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>81</v>
+      <c r="H68" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L68" s="2" t="n">
-        <v>1050</v>
+        <v>200</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M68" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N68" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R68" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S68" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T68" s="0" t="n">
-        <v>50</v>
+        <v>1020</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="V68" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W68" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X68" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y68" s="0" t="n">
         <v>15</v>
@@ -5910,73 +6005,70 @@
       <c r="AA68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB68" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>191</v>
+      <c r="B69" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L69" s="2" t="n">
-        <v>1050</v>
+        <v>460</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M69" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N69" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R69" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="S69" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T69" s="0" t="n">
-        <v>20</v>
+        <v>728</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V69" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W69" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X69" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y69" s="0" t="n">
         <v>15</v>
@@ -5987,70 +6079,73 @@
       <c r="AA69" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB69" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB69" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>193</v>
+      <c r="B70" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N70" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R70" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U70" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V70" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W70" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X70" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y70" s="0" t="n">
         <v>15</v>
@@ -6061,16 +6156,16 @@
       <c r="AA70" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB70" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>195</v>
+      <c r="B71" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>3.6</v>
@@ -6079,53 +6174,56 @@
         <v>28</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="F71" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X71" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="L71" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M71" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N71" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="R71" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="U71" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V71" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W71" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="X71" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="Y71" s="0" t="n">
         <v>15</v>
       </c>
@@ -6135,16 +6233,16 @@
       <c r="AA71" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="0" t="s">
-        <v>196</v>
+      <c r="AB71" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>197</v>
+      <c r="B72" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2.7</v>
@@ -6153,43 +6251,43 @@
         <v>28</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>3500</v>
+        <v>370</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="L72" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N72" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="R72" s="0" t="n">
-        <v>420</v>
+        <v>1020</v>
       </c>
       <c r="U72" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V72" s="0" t="n">
         <v>40</v>
@@ -6209,16 +6307,16 @@
       <c r="AA72" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB72" s="0" t="s">
-        <v>198</v>
+      <c r="AB72" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>199</v>
+      <c r="B73" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2.7</v>
@@ -6227,40 +6325,40 @@
         <v>28</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>3600</v>
+        <v>120</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="L73" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M73" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="R73" s="0" t="n">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="U73" s="0" t="n">
         <v>10</v>
@@ -6283,16 +6381,16 @@
       <c r="AA73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB73" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>201</v>
+      <c r="B74" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2.7</v>
@@ -6301,25 +6399,25 @@
         <v>28</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="L74" s="0" t="n">
         <v>850</v>
@@ -6334,10 +6432,10 @@
         <v>34</v>
       </c>
       <c r="R74" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U74" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V74" s="0" t="n">
         <v>40</v>
@@ -6357,16 +6455,16 @@
       <c r="AA74" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB74" s="0" t="s">
-        <v>188</v>
+      <c r="AB74" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>202</v>
+      <c r="B75" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>3.3</v>
@@ -6374,28 +6472,28 @@
       <c r="D75" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>54</v>
+      <c r="E75" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="0" t="s">
-        <v>32</v>
+      <c r="H75" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="L75" s="2" t="n">
+      <c r="L75" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M75" s="0" t="n">
@@ -6405,13 +6503,10 @@
         <v>33</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q75" s="0" t="n">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="R75" s="0" t="n">
-        <v>420</v>
+        <v>960</v>
       </c>
       <c r="S75" s="0" t="n">
         <v>25</v>
@@ -6437,76 +6532,70 @@
       <c r="AA75" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="0" t="s">
-        <v>203</v>
+      <c r="AB75" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>204</v>
+      <c r="B76" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L76" s="2" t="n">
-        <v>1050</v>
+        <v>460</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>850</v>
       </c>
       <c r="M76" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N76" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q76" s="0" t="n">
-        <v>702</v>
+        <v>50</v>
       </c>
       <c r="R76" s="0" t="n">
-        <v>702</v>
-      </c>
-      <c r="S76" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T76" s="0" t="n">
-        <v>20</v>
+        <v>728</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V76" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W76" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X76" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y76" s="0" t="n">
         <v>15</v>
@@ -6517,244 +6606,14 @@
       <c r="AA76" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB76" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="J77" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="L77" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M77" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="N77" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O77" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q77" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="R77" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U77" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V77" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W77" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X77" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y77" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z77" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA77" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB77" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J78" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K78" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L78" s="2" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M78" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N78" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O78" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R78" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S78" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T78" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V78" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W78" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X78" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y78" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z78" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA78" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB78" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="L79" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M79" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="N79" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O79" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q79" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="R79" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U79" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V79" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W79" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X79" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y79" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z79" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA79" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB79" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
+      <c r="AB76" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -869,8 +869,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K72" activeCellId="0" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6269,7 +6269,7 @@
         <v>6</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="L72" s="0" t="n">
         <v>850</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -637,7 +637,7 @@
     <t xml:space="preserve">Н0000099331</t>
   </si>
   <si>
-    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (4*30 г, 10 шт)</t>
+    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000093444</t>
@@ -869,8 +869,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K72" activeCellId="0" sqref="K72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6385,7 +6385,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -869,14 +869,14 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
@@ -6467,21 +6467,21 @@
         <v>207</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>116</v>
+      <c r="E75" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>117</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I75" s="0" t="n">
@@ -6491,7 +6491,7 @@
         <v>8</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L75" s="0" t="n">
         <v>1050</v>
@@ -6506,22 +6506,22 @@
         <v>42</v>
       </c>
       <c r="R75" s="0" t="n">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="S75" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T75" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V75" s="0" t="n">
         <v>35</v>
       </c>
       <c r="W75" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X75" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y75" s="0" t="n">
         <v>15</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -544,7 +544,7 @@
     <t xml:space="preserve">Н0000098165</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла, 45%, 3,5 кг, пл/л (палочки 15 г)</t>
+    <t xml:space="preserve">Моцарелла палочки 15 гр Эсперсен 45%, 3,5 кг, пл/л</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000098310</t>
@@ -659,7 +659,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -689,6 +689,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -761,7 +767,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -770,11 +776,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -782,11 +792,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5252,7 +5262,7 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C59" s="0" t="n">
@@ -5865,7 +5875,7 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C67" s="0" t="n">
@@ -5931,7 +5941,7 @@
       <c r="AA67" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" s="3" t="s">
+      <c r="AB67" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5957,7 +5967,7 @@
       <c r="G68" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I68" s="0" t="n">
@@ -6005,7 +6015,7 @@
       <c r="AA68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="3" t="s">
+      <c r="AB68" s="4" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6013,7 +6023,7 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C69" s="0" t="n">
@@ -6031,7 +6041,7 @@
       <c r="G69" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I69" s="0" t="n">
@@ -6079,7 +6089,7 @@
       <c r="AA69" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB69" s="3" t="s">
+      <c r="AB69" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6087,7 +6097,7 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C70" s="0" t="n">
@@ -6105,7 +6115,7 @@
       <c r="G70" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="5" t="s">
         <v>197</v>
       </c>
       <c r="I70" s="0" t="n">
@@ -6156,7 +6166,7 @@
       <c r="AA70" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="3" t="s">
+      <c r="AB70" s="4" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6164,7 +6174,7 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C71" s="0" t="n">
@@ -6182,7 +6192,7 @@
       <c r="G71" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="5" t="s">
         <v>197</v>
       </c>
       <c r="I71" s="0" t="n">
@@ -6233,7 +6243,7 @@
       <c r="AA71" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="5" t="s">
+      <c r="AB71" s="6" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6241,7 +6251,7 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C72" s="0" t="n">
@@ -6307,7 +6317,7 @@
       <c r="AA72" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB72" s="5" t="s">
+      <c r="AB72" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6315,7 +6325,7 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C73" s="0" t="n">
@@ -6333,7 +6343,7 @@
       <c r="G73" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I73" s="0" t="n">
@@ -6381,7 +6391,7 @@
       <c r="AA73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="5" t="s">
+      <c r="AB73" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6389,7 +6399,7 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C74" s="0" t="n">
@@ -6455,7 +6465,7 @@
       <c r="AA74" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB74" s="5" t="s">
+      <c r="AB74" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6463,7 +6473,7 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C75" s="0" t="n">
@@ -6481,7 +6491,7 @@
       <c r="G75" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I75" s="0" t="n">
@@ -6532,7 +6542,7 @@
       <c r="AA75" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="6" t="s">
+      <c r="AB75" s="7" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6540,7 +6550,7 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C76" s="0" t="n">
@@ -6606,10 +6616,11 @@
       <c r="AA76" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB76" s="6" t="s">
+      <c r="AB76" s="7" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="212">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла "Pretto", 45%, 0,15 кг, ф/п (кубики)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00006397</t>
   </si>
 </sst>
 </file>
@@ -691,12 +697,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -714,6 +714,13 @@
       <sz val="6.4"/>
       <color rgb="FF4C4C4C"/>
       <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -776,7 +783,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -784,11 +791,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -879,8 +886,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5967,7 +5974,7 @@
       <c r="G68" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I68" s="0" t="n">
@@ -6041,7 +6048,7 @@
       <c r="G69" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I69" s="0" t="n">
@@ -6093,7 +6100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
@@ -6115,7 +6122,7 @@
       <c r="G70" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="2" t="s">
         <v>197</v>
       </c>
       <c r="I70" s="0" t="n">
@@ -6170,7 +6177,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -6178,7 +6185,7 @@
         <v>199</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>28</v>
@@ -6190,9 +6197,9 @@
         <v>117</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>197</v>
       </c>
       <c r="I71" s="0" t="n">
@@ -6217,7 +6224,7 @@
         <v>42</v>
       </c>
       <c r="R71" s="0" t="n">
-        <v>876</v>
+        <v>720</v>
       </c>
       <c r="S71" s="0" t="n">
         <v>25</v>
@@ -6229,10 +6236,10 @@
         <v>35</v>
       </c>
       <c r="W71" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X71" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y71" s="0" t="n">
         <v>15</v>
@@ -6243,7 +6250,7 @@
       <c r="AA71" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="6" t="s">
+      <c r="AB71" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6317,7 +6324,7 @@
       <c r="AA72" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB72" s="6" t="s">
+      <c r="AB72" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6343,7 +6350,7 @@
       <c r="G73" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I73" s="0" t="n">
@@ -6391,7 +6398,7 @@
       <c r="AA73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="6" t="s">
+      <c r="AB73" s="5" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6465,7 +6472,7 @@
       <c r="AA74" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB74" s="6" t="s">
+      <c r="AB74" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6473,7 +6480,7 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C75" s="0" t="n">
@@ -6491,7 +6498,7 @@
       <c r="G75" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I75" s="0" t="n">
@@ -6542,7 +6549,7 @@
       <c r="AA75" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="7" t="s">
+      <c r="AB75" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6550,7 +6557,7 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C76" s="0" t="n">
@@ -6616,10 +6623,85 @@
       <c r="AA76" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB76" s="7" t="s">
+      <c r="AB76" s="6" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X77" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y77" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z77" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB77" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="210">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -169,487 +169,481 @@
     <t xml:space="preserve">Н0000095554</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+    <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фермерская коллекция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бонджорно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВкусВилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Chef</t>
   </si>
   <si>
     <t xml:space="preserve">САККАРДО</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000089109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маркет Перекресток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3503984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умалат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000081879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красная птица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Красная птица", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для бутербродов "Aventino", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande" (Метро), 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ручная работа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000092242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000091561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эсперсон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фиор Ди Латте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000087862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orecchio Oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каждый день</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">малый Комет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чильеджина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,8 кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки 15 гр Эсперсен 45%, 3,5 кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла, 45%, 3,6 кг, пл/л (палочки 7,5 г)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,8 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Свежий ряд", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свежий ряд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000087861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Foodfest", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodfest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла (палочки), 45%, кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000088954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваш выбор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327193010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327192013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "ВкусВилл", 50%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у</t>
+  </si>
+  <si>
     <t xml:space="preserve">Н0000094725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фермерская коллекция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бонджорно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВкусВилл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metro Chef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000089109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маркет Перекресток</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3503984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Умалат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000081879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Красная птица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Красная птица", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для бутербродов "Aventino", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 1,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Pretto", 45%, 0,46 кг, т/ф, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande" (Метро), 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ручная работа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000092242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "Красная птица", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000091561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande" (ОК), 45%, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, кг Х5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, кг, пл/л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эсперсон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фиор Ди Латте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000087862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orecchio Oro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каждый день</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">малый Комет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чильеджина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,8 кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки 15 гр Эсперсен 45%, 3,5 кг, пл/л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла, 45%, 3,6 кг, пл/л (палочки 7,5 г)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,8 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Свежий ряд", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свежий ряд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Fine Life", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000087861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Foodfest", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foodfest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000099256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла (палочки), 45%, кг, пл/л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000088954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000099327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваш выбор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327193010  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327192013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000099331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "ВкусВилл", 50%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000099329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у </t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла "Pretto", 45%, 0,15 кг, ф/п (кубики)</t>
@@ -886,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1353,7 +1347,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>49</v>
@@ -1371,19 +1365,19 @@
         <v>30</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>850</v>
@@ -1395,13 +1389,13 @@
         <v>33</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>728</v>
+        <v>1020</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>40</v>
@@ -1427,7 +1421,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>52</v>
@@ -1451,13 +1445,13 @@
         <v>53</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>850</v>
@@ -1475,7 +1469,7 @@
         <v>1020</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V8" s="0" t="n">
         <v>40</v>
@@ -1501,7 +1495,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>55</v>
@@ -1519,19 +1513,19 @@
         <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>850</v>
@@ -1570,15 +1564,15 @@
         <v>5</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2.7</v>
@@ -1599,13 +1593,13 @@
         <v>41</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>850</v>
@@ -1620,10 +1614,10 @@
         <v>34</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>40</v>
@@ -1644,15 +1638,15 @@
         <v>5</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2.7</v>
@@ -1670,7 +1664,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>120</v>
@@ -1723,7 +1717,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>62</v>
@@ -1759,7 +1753,7 @@
         <v>850</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>33</v>
@@ -1797,7 +1791,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>65</v>
@@ -1815,37 +1809,37 @@
         <v>30</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>66</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>518</v>
+        <v>728</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V13" s="0" t="n">
         <v>40</v>
@@ -1866,15 +1860,15 @@
         <v>5</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2.7</v>
@@ -1883,40 +1877,40 @@
         <v>28</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>728</v>
+        <v>1020</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>120</v>
@@ -1940,15 +1934,15 @@
         <v>5</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2.7</v>
@@ -1957,16 +1951,16 @@
         <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>280</v>
@@ -1981,7 +1975,7 @@
         <v>850</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>33</v>
@@ -2014,15 +2008,15 @@
         <v>5</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2.7</v>
@@ -2031,43 +2025,43 @@
         <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>40</v>
@@ -2088,15 +2082,15 @@
         <v>5</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2.7</v>
@@ -2105,7 +2099,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>30</v>
@@ -2114,34 +2108,34 @@
         <v>40</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="R17" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="R17" s="0" t="n">
-        <v>288</v>
+      <c r="U17" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="V17" s="0" t="n">
         <v>40</v>
@@ -2167,7 +2161,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>80</v>
@@ -2179,7 +2173,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>30</v>
@@ -2188,16 +2182,16 @@
         <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>850</v>
@@ -2215,7 +2209,7 @@
         <v>1020</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V18" s="0" t="n">
         <v>40</v>
@@ -2241,7 +2235,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>82</v>
@@ -2253,7 +2247,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>30</v>
@@ -2262,22 +2256,22 @@
         <v>40</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>33</v>
@@ -2286,10 +2280,10 @@
         <v>34</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V19" s="0" t="n">
         <v>40</v>
@@ -2310,15 +2304,15 @@
         <v>5</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2.7</v>
@@ -2333,19 +2327,19 @@
         <v>30</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>850</v>
@@ -2360,10 +2354,10 @@
         <v>34</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V20" s="0" t="n">
         <v>40</v>
@@ -2389,7 +2383,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>87</v>
@@ -2410,22 +2404,22 @@
         <v>31</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>65</v>
+        <v>1020</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>33</v>
@@ -2437,7 +2431,7 @@
         <v>1020</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V21" s="0" t="n">
         <v>40</v>
@@ -2463,7 +2457,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>89</v>
@@ -2481,25 +2475,25 @@
         <v>30</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>41</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>1020</v>
+        <v>65</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>33</v>
@@ -2511,7 +2505,7 @@
         <v>1020</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V22" s="0" t="n">
         <v>40</v>
@@ -2537,7 +2531,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>91</v>
@@ -2555,19 +2549,19 @@
         <v>30</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1200</v>
+        <v>460</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>1200</v>
+        <v>460</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>850</v>
@@ -2611,64 +2605,64 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="U24" s="0" t="n">
         <v>120</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>15</v>
@@ -2680,24 +2674,24 @@
         <v>5</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>30</v>
@@ -2706,43 +2700,43 @@
         <v>40</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>15</v>
@@ -2759,19 +2753,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>30</v>
@@ -2780,43 +2774,43 @@
         <v>40</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M26" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V26" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U26" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V26" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W26" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>15</v>
@@ -2833,7 +2827,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>102</v>
@@ -2845,7 +2839,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>30</v>
@@ -2857,13 +2851,13 @@
         <v>41</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>850</v>
@@ -2875,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>600</v>
@@ -2907,7 +2901,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>104</v>
@@ -2919,7 +2913,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>30</v>
@@ -2949,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>600</v>
@@ -2981,19 +2975,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>106</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>30</v>
@@ -3002,43 +2996,43 @@
         <v>40</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="0" t="n">
         <v>15</v>
@@ -3055,19 +3049,19 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>30</v>
@@ -3076,43 +3070,43 @@
         <v>40</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M30" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V30" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U30" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="V30" s="0" t="n">
-        <v>55</v>
-      </c>
       <c r="W30" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y30" s="0" t="n">
         <v>15</v>
@@ -3129,19 +3123,19 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>30</v>
@@ -3150,43 +3144,43 @@
         <v>40</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>700</v>
+        <v>7.5</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="U31" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y31" s="0" t="n">
         <v>15</v>
@@ -3198,70 +3192,73 @@
         <v>5</v>
       </c>
       <c r="AB31" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V32" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W32" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X32" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Y32" s="0" t="n">
         <v>15</v>
       </c>
@@ -3272,27 +3269,27 @@
         <v>5</v>
       </c>
       <c r="AB32" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>40</v>
@@ -3313,7 +3310,7 @@
         <v>1050</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>33</v>
@@ -3322,7 +3319,7 @@
         <v>42</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="S33" s="0" t="n">
         <v>25</v>
@@ -3331,10 +3328,10 @@
         <v>50</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X33" s="0" t="n">
         <v>30</v>
@@ -3354,7 +3351,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>119</v>
@@ -3363,19 +3360,19 @@
         <v>3.3</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>125</v>
@@ -3390,7 +3387,7 @@
         <v>1050</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>33</v>
@@ -3399,7 +3396,7 @@
         <v>42</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="S34" s="0" t="n">
         <v>25</v>
@@ -3408,13 +3405,13 @@
         <v>50</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X34" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y34" s="0" t="n">
         <v>15</v>
@@ -3431,7 +3428,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>121</v>
@@ -3443,10 +3440,10 @@
         <v>28</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>31</v>
@@ -3455,13 +3452,13 @@
         <v>32</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>1050</v>
@@ -3508,7 +3505,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>123</v>
@@ -3520,31 +3517,31 @@
         <v>28</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>33</v>
@@ -3553,7 +3550,7 @@
         <v>42</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S36" s="0" t="n">
         <v>25</v>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>125</v>
@@ -3597,16 +3594,16 @@
         <v>28</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>125</v>
@@ -3662,7 +3659,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>127</v>
@@ -3674,31 +3671,31 @@
         <v>28</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>33</v>
@@ -3707,7 +3704,7 @@
         <v>42</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="S38" s="0" t="n">
         <v>25</v>
@@ -3734,15 +3731,15 @@
         <v>5</v>
       </c>
       <c r="AB38" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>3.3</v>
@@ -3751,16 +3748,16 @@
         <v>28</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>100</v>
@@ -3811,15 +3808,15 @@
         <v>5</v>
       </c>
       <c r="AB39" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>3.3</v>
@@ -3828,22 +3825,22 @@
         <v>28</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>100</v>
@@ -3888,42 +3885,42 @@
         <v>5</v>
       </c>
       <c r="AB40" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>1050</v>
@@ -3938,7 +3935,7 @@
         <v>42</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S41" s="0" t="n">
         <v>25</v>
@@ -3947,13 +3944,13 @@
         <v>50</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W41" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y41" s="0" t="n">
         <v>15</v>
@@ -3970,7 +3967,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>138</v>
@@ -3982,16 +3979,16 @@
         <v>33</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>125</v>
@@ -4006,7 +4003,7 @@
         <v>1050</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>33</v>
@@ -4047,52 +4044,52 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>140</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>40</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>1050</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="S43" s="0" t="n">
         <v>25</v>
@@ -4101,10 +4098,10 @@
         <v>50</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X43" s="0" t="n">
         <v>30</v>
@@ -4119,15 +4116,15 @@
         <v>5</v>
       </c>
       <c r="AB43" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>3.6</v>
@@ -4136,10 +4133,10 @@
         <v>28</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>40</v>
@@ -4148,13 +4145,13 @@
         <v>41</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>1050</v>
@@ -4166,16 +4163,16 @@
         <v>33</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>840</v>
+        <v>876</v>
       </c>
       <c r="S44" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V44" s="0" t="n">
         <v>35</v>
@@ -4196,27 +4193,27 @@
         <v>5</v>
       </c>
       <c r="AB44" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>40</v>
@@ -4255,10 +4252,10 @@
         <v>20</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W45" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X45" s="0" t="n">
         <v>30</v>
@@ -4278,7 +4275,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>148</v>
@@ -4287,22 +4284,22 @@
         <v>3.3</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>8</v>
@@ -4323,7 +4320,7 @@
         <v>42</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>876</v>
+        <v>720</v>
       </c>
       <c r="S46" s="0" t="n">
         <v>25</v>
@@ -4332,13 +4329,13 @@
         <v>20</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W46" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y46" s="0" t="n">
         <v>15</v>
@@ -4355,7 +4352,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>150</v>
@@ -4367,16 +4364,16 @@
         <v>28</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>100</v>
@@ -4432,7 +4429,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>152</v>
@@ -4444,22 +4441,22 @@
         <v>28</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>8</v>
@@ -4509,7 +4506,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>154</v>
@@ -4518,25 +4515,25 @@
         <v>3.3</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>8</v>
@@ -4554,7 +4551,7 @@
         <v>42</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>720</v>
+        <v>876</v>
       </c>
       <c r="S49" s="0" t="n">
         <v>25</v>
@@ -4563,13 +4560,13 @@
         <v>20</v>
       </c>
       <c r="V49" s="0" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="W49" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X49" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y49" s="0" t="n">
         <v>15</v>
@@ -4586,7 +4583,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>156</v>
@@ -4595,22 +4592,22 @@
         <v>3.3</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>8</v>
@@ -4631,7 +4628,7 @@
         <v>42</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>876</v>
+        <v>720</v>
       </c>
       <c r="S50" s="0" t="n">
         <v>25</v>
@@ -4640,13 +4637,13 @@
         <v>20</v>
       </c>
       <c r="V50" s="0" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W50" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y50" s="0" t="n">
         <v>15</v>
@@ -4663,7 +4660,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>158</v>
@@ -4675,22 +4672,22 @@
         <v>28</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>8</v>
@@ -4699,7 +4696,7 @@
         <v>1050</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>33</v>
@@ -4708,7 +4705,7 @@
         <v>42</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>720</v>
+        <v>876</v>
       </c>
       <c r="S51" s="0" t="n">
         <v>25</v>
@@ -4740,67 +4737,64 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>160</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>8</v>
+        <v>370</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N52" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S52" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T52" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W52" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X52" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y52" s="0" t="n">
         <v>15</v>
@@ -4817,7 +4811,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>162</v>
@@ -4838,16 +4832,16 @@
         <v>31</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>850</v>
@@ -4891,64 +4885,67 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>1200</v>
+        <v>125</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N54" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U54" s="0" t="n">
-        <v>120</v>
+        <v>960</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W54" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y54" s="0" t="n">
         <v>15</v>
@@ -4965,7 +4962,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>166</v>
@@ -4977,16 +4974,16 @@
         <v>28</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>125</v>
@@ -4995,7 +4992,7 @@
         <v>8</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>1050</v>
@@ -5010,13 +5007,13 @@
         <v>42</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="S55" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T55" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V55" s="0" t="n">
         <v>35</v>
@@ -5042,67 +5039,64 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>168</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N56" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="R56" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="S56" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T56" s="0" t="n">
-        <v>20</v>
+      <c r="U56" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W56" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y56" s="0" t="n">
         <v>15</v>
@@ -5119,19 +5113,19 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>170</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>30</v>
@@ -5140,43 +5134,43 @@
         <v>40</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="R57" s="0" t="n">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="U57" s="0" t="n">
         <v>120</v>
       </c>
       <c r="V57" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W57" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X57" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y57" s="0" t="n">
         <v>15</v>
@@ -5193,19 +5187,19 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>30</v>
@@ -5214,43 +5208,43 @@
         <v>40</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>700</v>
+        <v>15</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N58" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="U58" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W58" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y58" s="0" t="n">
         <v>15</v>
@@ -5267,9 +5261,9 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>174</v>
       </c>
       <c r="C59" s="0" t="n">
@@ -5288,16 +5282,16 @@
         <v>40</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>850</v>
@@ -5312,7 +5306,7 @@
         <v>45</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="U59" s="0" t="n">
         <v>10</v>
@@ -5341,7 +5335,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>176</v>
@@ -5353,7 +5347,7 @@
         <v>28</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>30</v>
@@ -5362,34 +5356,34 @@
         <v>40</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>7.5</v>
+        <v>1200</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>432</v>
+        <v>1020</v>
       </c>
       <c r="U60" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V60" s="0" t="n">
         <v>40</v>
@@ -5410,86 +5404,92 @@
         <v>5</v>
       </c>
       <c r="AB60" s="0" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y61" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z61" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB61" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L61" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M61" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N61" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R61" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U61" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V61" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y61" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z61" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA61" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB61" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>179</v>
@@ -5501,10 +5501,10 @@
         <v>28</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>31</v>
@@ -5516,10 +5516,10 @@
         <v>1000</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>1050</v>
@@ -5534,16 +5534,16 @@
         <v>42</v>
       </c>
       <c r="Q62" s="0" t="n">
-        <v>420</v>
+        <v>702</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>420</v>
+        <v>702</v>
       </c>
       <c r="S62" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T62" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V62" s="0" t="n">
         <v>35</v>
@@ -5569,70 +5569,67 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>181</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M63" s="0" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N63" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>702</v>
+        <v>1020</v>
       </c>
       <c r="R63" s="0" t="n">
-        <v>702</v>
-      </c>
-      <c r="S63" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T63" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V63" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W63" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X63" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y63" s="0" t="n">
         <v>15</v>
@@ -5644,72 +5641,72 @@
         <v>5</v>
       </c>
       <c r="AB63" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N64" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q64" s="0" t="n">
-        <v>1020</v>
+        <v>42</v>
       </c>
       <c r="R64" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U64" s="0" t="n">
-        <v>120</v>
+        <v>720</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="V64" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W64" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X64" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y64" s="0" t="n">
         <v>15</v>
@@ -5726,67 +5723,67 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>186</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M65" s="0" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N65" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R65" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S65" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T65" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="V65" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W65" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X65" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y65" s="0" t="n">
         <v>15</v>
@@ -5798,15 +5795,15 @@
         <v>5</v>
       </c>
       <c r="AB65" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>188</v>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2.7</v>
@@ -5815,7 +5812,7 @@
         <v>28</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>30</v>
@@ -5824,22 +5821,22 @@
         <v>40</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="L66" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M66" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N66" s="0" t="s">
         <v>33</v>
@@ -5847,14 +5844,11 @@
       <c r="O66" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q66" s="0" t="n">
-        <v>1020</v>
-      </c>
       <c r="R66" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U66" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V66" s="0" t="n">
         <v>40</v>
@@ -5874,15 +5868,15 @@
       <c r="AA66" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB66" s="0" t="s">
+      <c r="AB66" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>191</v>
       </c>
       <c r="C67" s="0" t="n">
@@ -5898,19 +5892,19 @@
         <v>30</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>850</v>
@@ -5925,10 +5919,10 @@
         <v>34</v>
       </c>
       <c r="R67" s="0" t="n">
-        <v>518</v>
+        <v>1020</v>
       </c>
       <c r="U67" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="V67" s="0" t="n">
         <v>40</v>
@@ -5952,66 +5946,69 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>31</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M68" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N68" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R68" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U68" s="0" t="n">
-        <v>90</v>
+        <v>960</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="V68" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W68" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X68" s="0" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y68" s="0" t="n">
         <v>15</v>
@@ -6023,223 +6020,220 @@
         <v>5</v>
       </c>
       <c r="AB68" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I69" s="0" t="n">
-        <v>460</v>
+        <v>100</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>460</v>
+        <v>8</v>
       </c>
       <c r="L69" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X69" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y69" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB69" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="L70" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M69" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="N69" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O69" s="0" t="s">
+      <c r="M70" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="R69" s="0" t="n">
-        <v>728</v>
-      </c>
-      <c r="U69" s="0" t="n">
+      <c r="N70" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="U70" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V69" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y69" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA69" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB69" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I70" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J70" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K70" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L70" s="0" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M70" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N70" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R70" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S70" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T70" s="0" t="n">
+      <c r="V70" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X70" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z70" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB70" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M71" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="V70" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W70" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X70" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y70" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z70" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA70" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB70" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L71" s="0" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M71" s="0" t="n">
-        <v>31</v>
-      </c>
       <c r="N71" s="0" t="s">
         <v>33</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="R71" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S71" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T71" s="0" t="n">
-        <v>20</v>
+        <v>518</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="V71" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W71" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X71" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y71" s="0" t="n">
         <v>15</v>
@@ -6251,15 +6245,15 @@
         <v>5</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2.7</v>
@@ -6268,7 +6262,7 @@
         <v>28</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>30</v>
@@ -6277,16 +6271,16 @@
         <v>40</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>370</v>
+        <v>30</v>
       </c>
       <c r="L72" s="0" t="n">
         <v>850</v>
@@ -6301,10 +6295,10 @@
         <v>34</v>
       </c>
       <c r="R72" s="0" t="n">
-        <v>1020</v>
+        <v>518</v>
       </c>
       <c r="U72" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V72" s="0" t="n">
         <v>40</v>
@@ -6325,70 +6319,73 @@
         <v>5</v>
       </c>
       <c r="AB72" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>203</v>
+        <v>73</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F73" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X73" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G73" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K73" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L73" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M73" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N73" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R73" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U73" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V73" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W73" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X73" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="Y73" s="0" t="n">
         <v>15</v>
       </c>
@@ -6398,16 +6395,16 @@
       <c r="AA73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB73" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>205</v>
+        <v>74</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2.7</v>
@@ -6416,7 +6413,7 @@
         <v>28</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>30</v>
@@ -6425,120 +6422,117 @@
         <v>40</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="L74" s="0" t="n">
         <v>850</v>
       </c>
       <c r="M74" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>728</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y74" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z74" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="N74" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O74" s="0" t="s">
+      <c r="I75" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O75" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="R74" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U74" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V74" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W74" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X74" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y74" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z74" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA74" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB74" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J75" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K75" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L75" s="0" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M75" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N75" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O75" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="R75" s="0" t="n">
-        <v>876</v>
-      </c>
-      <c r="S75" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T75" s="0" t="n">
-        <v>20</v>
+        <v>1020</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="V75" s="0" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W75" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X75" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y75" s="0" t="n">
         <v>15</v>
@@ -6549,158 +6543,12 @@
       <c r="AA75" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="5" t="s">
+      <c r="AB75" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C76" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="L76" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M76" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="N76" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O76" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R76" s="0" t="n">
-        <v>728</v>
-      </c>
-      <c r="U76" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V76" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W76" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X76" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y76" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z76" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA76" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="J77" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="L77" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M77" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="N77" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O77" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R77" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U77" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="V77" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W77" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X77" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y77" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z77" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA77" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB77" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="211">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -553,6 +553,9 @@
     <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000098463</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
   </si>
   <si>
@@ -643,7 +646,7 @@
     <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у</t>
   </si>
   <si>
-    <t xml:space="preserve">Н0000094725</t>
+    <t xml:space="preserve">Н0000079372</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла "Pretto", 45%, 0,15 кг, ф/п (кубики)</t>
@@ -659,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -689,6 +692,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -768,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,12 +790,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -798,6 +807,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -880,8 +893,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB55" activeCellId="0" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5403,8 +5416,8 @@
       <c r="AA60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB60" s="0" t="s">
-        <v>163</v>
+      <c r="AB60" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,7 +5425,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>3.3</v>
@@ -5484,7 +5497,7 @@
         <v>5</v>
       </c>
       <c r="AB61" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5492,7 +5505,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>3.3</v>
@@ -5564,7 +5577,7 @@
         <v>5</v>
       </c>
       <c r="AB62" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,7 +5585,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2.7</v>
@@ -5590,7 +5603,7 @@
         <v>40</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>280</v>
@@ -5641,7 +5654,7 @@
         <v>5</v>
       </c>
       <c r="AB63" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5649,7 +5662,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>3.3</v>
@@ -5718,7 +5731,7 @@
         <v>5</v>
       </c>
       <c r="AB64" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,7 +5739,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2.7</v>
@@ -5744,7 +5757,7 @@
         <v>40</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>280</v>
@@ -5795,15 +5808,15 @@
         <v>5</v>
       </c>
       <c r="AB65" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>189</v>
+      <c r="B66" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2.7</v>
@@ -5868,8 +5881,8 @@
       <c r="AA66" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB66" s="4" t="s">
-        <v>190</v>
+      <c r="AB66" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,7 +5890,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2.7</v>
@@ -5942,16 +5955,16 @@
       <c r="AA67" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" s="4" t="s">
-        <v>192</v>
+      <c r="AB67" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>193</v>
+      <c r="B68" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3.3</v>
@@ -5969,7 +5982,7 @@
         <v>31</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>100</v>
@@ -6019,16 +6032,16 @@
       <c r="AA68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="4" t="s">
-        <v>195</v>
+      <c r="AB68" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>196</v>
+      <c r="B69" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>3.3</v>
@@ -6046,7 +6059,7 @@
         <v>31</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>100</v>
@@ -6096,16 +6109,16 @@
       <c r="AA69" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB69" s="5" t="s">
-        <v>197</v>
+      <c r="AB69" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>198</v>
+      <c r="B70" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2.7</v>
@@ -6170,16 +6183,16 @@
       <c r="AA70" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="5" t="s">
-        <v>199</v>
+      <c r="AB70" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>200</v>
+      <c r="B71" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>2.7</v>
@@ -6244,16 +6257,16 @@
       <c r="AA71" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="5" t="s">
-        <v>201</v>
+      <c r="AB71" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>202</v>
+      <c r="B72" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2.7</v>
@@ -6318,16 +6331,16 @@
       <c r="AA72" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB72" s="5" t="s">
-        <v>203</v>
+      <c r="AB72" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>204</v>
+      <c r="B73" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>3.6</v>
@@ -6395,16 +6408,16 @@
       <c r="AA73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="6" t="s">
-        <v>205</v>
+      <c r="AB73" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>206</v>
+      <c r="B74" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2.7</v>
@@ -6469,16 +6482,16 @@
       <c r="AA74" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB74" s="6" t="s">
-        <v>207</v>
+      <c r="AB74" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>208</v>
+      <c r="B75" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2.7</v>
@@ -6543,8 +6556,8 @@
       <c r="AA75" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="7" t="s">
-        <v>209</v>
+      <c r="AB75" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -662,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -698,6 +698,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -717,13 +718,6 @@
       <sz val="6.4"/>
       <color rgb="FF4C4C4C"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -777,7 +771,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,10 +801,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB55" activeCellId="0" sqref="AB55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J77" activeCellId="0" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6349,7 +6339,7 @@
         <v>28</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>115</v>
@@ -6367,7 +6357,7 @@
         <v>8</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="L73" s="0" t="n">
         <v>1050</v>
@@ -6382,13 +6372,13 @@
         <v>42</v>
       </c>
       <c r="R73" s="0" t="n">
-        <v>876</v>
+        <v>960</v>
       </c>
       <c r="S73" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T73" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V73" s="0" t="n">
         <v>35</v>
@@ -6556,7 +6546,7 @@
       <c r="AA75" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="8" t="s">
+      <c r="AB75" s="3" t="s">
         <v>210</v>
       </c>
     </row>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -722,12 +722,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -771,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -780,27 +786,35 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,4923 +895,5163 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB1048576"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J77" activeCellId="0" sqref="J77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="9" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="29" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.09"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="N2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V2" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="0" t="s">
+      <c r="V2" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="I3" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="N3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U3" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="0" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="0" t="s">
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="3" t="n">
         <v>288</v>
       </c>
-      <c r="V4" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="0" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="0" t="s">
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="3" t="n">
         <v>360</v>
       </c>
-      <c r="V5" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="0" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="N6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="0" t="s">
+      <c r="W6" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="0" t="s">
+      <c r="N7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="0" t="s">
+      <c r="V7" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="0" t="s">
+      <c r="N8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="0" t="s">
+      <c r="V8" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="0" t="s">
+      <c r="N9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V9" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="0" t="s">
+      <c r="V9" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="J10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="0" t="s">
+      <c r="N10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V10" s="0" t="n">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="L11" s="3" t="n">
+        <v>850</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="n">
+        <v>518</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V11" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>518</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="0" t="s">
+      <c r="W11" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="J12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="N12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="0" t="s">
+      <c r="N12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="0" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="J13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N13" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="0" t="s">
+      <c r="N13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="n">
         <v>728</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="0" t="s">
+      <c r="V13" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="0" t="s">
+      <c r="N14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V14" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="0" t="s">
+      <c r="V14" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="0" t="s">
+      <c r="N15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K16" s="0" t="n">
+      <c r="J16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="0" t="s">
+      <c r="N16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="3" t="n">
         <v>288</v>
       </c>
-      <c r="V16" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="0" t="s">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="0" t="s">
+      <c r="N17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V17" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="0" t="s">
+      <c r="V17" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="0" t="s">
+      <c r="N18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V18" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="0" t="s">
+      <c r="V18" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="0" t="n">
+      <c r="J19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="0" t="s">
+      <c r="N19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB19" s="0" t="s">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V19" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="0" t="s">
+      <c r="N20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V20" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="0" t="s">
+      <c r="V20" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="N21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="0" t="s">
+      <c r="N21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V21" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="0" t="s">
+      <c r="V21" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="0" t="s">
+      <c r="N22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V22" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="0" t="s">
+      <c r="V22" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N23" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="0" t="s">
+      <c r="N23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V23" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="0" t="s">
+      <c r="V23" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="0" t="s">
+      <c r="N24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="W24" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="X24" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="0" t="s">
+      <c r="Y24" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K25" s="0" t="n">
+      <c r="J25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="0" t="s">
+      <c r="N25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB25" s="0" t="s">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V25" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="0" t="s">
+      <c r="N26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="W26" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="X26" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y26" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z26" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="0" t="s">
+      <c r="Y26" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="0" t="s">
+      <c r="N27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="W27" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="X27" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y27" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z27" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="0" t="s">
+      <c r="Y27" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N28" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="0" t="s">
+      <c r="N28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="W28" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="X28" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y28" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z28" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB28" s="0" t="s">
+      <c r="Y28" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="0" t="s">
+      <c r="N29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W29" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z29" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="0" t="s">
+      <c r="W29" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X29" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="0" t="s">
+      <c r="N30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="V30" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="W30" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="X30" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y30" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z30" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB30" s="0" t="s">
+      <c r="Y30" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA30" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB30" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="0" t="s">
+      <c r="G31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="N31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="0" t="s">
+      <c r="N31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V31" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W31" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y31" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB31" s="0" t="s">
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" s="0" t="s">
+      <c r="N32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="S32" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="T32" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V32" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W32" s="0" t="n">
+      <c r="U32" s="3"/>
+      <c r="V32" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W32" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="X32" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y32" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z32" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA32" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="0" t="s">
+      <c r="Y32" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA32" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="D33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M33" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" s="0" t="s">
+      <c r="N33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="S33" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="T33" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="U33" s="3"/>
+      <c r="V33" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W33" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X33" s="0" t="n">
+      <c r="W33" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X33" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y33" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z33" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="0" t="s">
+      <c r="Y33" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="M34" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N34" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" s="0" t="s">
+      <c r="N34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S34" s="0" t="n">
+      <c r="S34" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T34" s="0" t="n">
+      <c r="T34" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="U34" s="3"/>
+      <c r="V34" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W34" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X34" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W34" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y34" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z34" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA34" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB34" s="0" t="s">
+      <c r="Y34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB34" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="M35" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N35" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="0" t="s">
+      <c r="N35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="S35" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T35" s="0" t="n">
+      <c r="T35" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="U35" s="3"/>
+      <c r="V35" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W35" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X35" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W35" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X35" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y35" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z35" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB35" s="0" t="s">
+      <c r="Y35" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA35" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="0" t="s">
+      <c r="D36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M36" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N36" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O36" s="0" t="s">
+      <c r="N36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="S36" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T36" s="0" t="n">
+      <c r="T36" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="U36" s="3"/>
+      <c r="V36" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W36" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X36" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W36" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X36" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y36" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z36" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB36" s="0" t="s">
+      <c r="Y36" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB36" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="0" t="s">
+      <c r="D37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="L37" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="M37" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N37" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" s="0" t="s">
+      <c r="N37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R37" s="0" t="n">
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="S37" s="0" t="n">
+      <c r="S37" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T37" s="0" t="n">
+      <c r="T37" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V37" s="0" t="n">
+      <c r="U37" s="3"/>
+      <c r="V37" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W37" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X37" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y37" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z37" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB37" s="0" t="s">
+      <c r="Y37" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA37" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB37" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="0" t="s">
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="M38" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N38" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="0" t="s">
+      <c r="N38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R38" s="0" t="n">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S38" s="0" t="n">
+      <c r="S38" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T38" s="0" t="n">
+      <c r="T38" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V38" s="0" t="n">
+      <c r="U38" s="3"/>
+      <c r="V38" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W38" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X38" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W38" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z38" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA38" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB38" s="0" t="s">
+      <c r="Y38" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA38" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB38" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="0" t="s">
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="L39" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M39" s="0" t="n">
+      <c r="M39" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N39" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="0" t="s">
+      <c r="N39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R39" s="0" t="n">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S39" s="0" t="n">
+      <c r="S39" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T39" s="0" t="n">
+      <c r="T39" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V39" s="0" t="n">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W39" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X39" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W39" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y39" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z39" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB39" s="0" t="s">
+      <c r="Y39" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA39" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB39" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="0" t="s">
+      <c r="D40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="L40" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M40" s="0" t="n">
+      <c r="M40" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O40" s="0" t="s">
+      <c r="N40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R40" s="0" t="n">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S40" s="0" t="n">
+      <c r="S40" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T40" s="0" t="n">
+      <c r="T40" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V40" s="0" t="n">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W40" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X40" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W40" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X40" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y40" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z40" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA40" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB40" s="0" t="s">
+      <c r="Y40" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA40" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="0" t="s">
+      <c r="D41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="L41" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M41" s="0" t="n">
+      <c r="M41" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N41" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O41" s="0" t="s">
+      <c r="N41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R41" s="0" t="n">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="S41" s="0" t="n">
+      <c r="S41" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T41" s="0" t="n">
+      <c r="T41" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V41" s="0" t="n">
+      <c r="U41" s="3"/>
+      <c r="V41" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W41" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X41" s="0" t="n">
+      <c r="W41" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X41" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y41" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z41" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA41" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="0" t="s">
+      <c r="Y41" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA41" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="0" t="s">
+      <c r="D42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="L42" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M42" s="0" t="n">
+      <c r="M42" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N42" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O42" s="0" t="s">
+      <c r="N42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R42" s="0" t="n">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="S42" s="0" t="n">
+      <c r="S42" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T42" s="0" t="n">
+      <c r="T42" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V42" s="0" t="n">
+      <c r="U42" s="3"/>
+      <c r="V42" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W42" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X42" s="0" t="n">
+      <c r="W42" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X42" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y42" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z42" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="0" t="s">
+      <c r="Y42" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z42" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA42" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="0" t="s">
+      <c r="D43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="L43" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M43" s="0" t="n">
+      <c r="M43" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N43" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O43" s="0" t="s">
+      <c r="N43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="R43" s="0" t="n">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3" t="n">
         <v>840</v>
       </c>
-      <c r="S43" s="0" t="n">
+      <c r="S43" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T43" s="0" t="n">
+      <c r="T43" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V43" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W43" s="0" t="n">
+      <c r="U43" s="3"/>
+      <c r="V43" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W43" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="X43" s="0" t="n">
+      <c r="X43" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y43" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z43" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA43" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="0" t="s">
+      <c r="Y43" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z43" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA43" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="0" t="s">
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M44" s="0" t="n">
+      <c r="M44" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N44" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O44" s="0" t="s">
+      <c r="N44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R44" s="0" t="n">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3" t="n">
         <v>876</v>
       </c>
-      <c r="S44" s="0" t="n">
+      <c r="S44" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W44" s="0" t="n">
+      <c r="T44" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W44" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="X44" s="0" t="n">
+      <c r="X44" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y44" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z44" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA44" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="0" t="s">
+      <c r="Y44" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z44" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="0" t="s">
+      <c r="D45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="L45" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M45" s="0" t="n">
+      <c r="M45" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N45" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O45" s="0" t="s">
+      <c r="N45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="0" t="n">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3" t="n">
         <v>876</v>
       </c>
-      <c r="S45" s="0" t="n">
+      <c r="S45" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T45" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V45" s="0" t="n">
+      <c r="T45" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W45" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X45" s="0" t="n">
+      <c r="W45" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X45" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y45" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z45" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA45" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="0" t="s">
+      <c r="Y45" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z45" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA45" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="0" t="s">
+      <c r="D46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="L46" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M46" s="0" t="n">
+      <c r="M46" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N46" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O46" s="0" t="s">
+      <c r="N46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R46" s="0" t="n">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S46" s="0" t="n">
+      <c r="S46" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T46" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V46" s="0" t="n">
+      <c r="T46" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W46" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X46" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W46" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X46" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y46" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z46" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA46" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="0" t="s">
+      <c r="Y46" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z46" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA46" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="0" t="s">
+      <c r="D47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="L47" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M47" s="0" t="n">
+      <c r="M47" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N47" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O47" s="0" t="s">
+      <c r="N47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R47" s="0" t="n">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S47" s="0" t="n">
+      <c r="S47" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V47" s="0" t="n">
+      <c r="T47" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W47" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X47" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X47" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y47" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z47" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="0" t="s">
+      <c r="Y47" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z47" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA47" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="0" t="s">
+      <c r="D48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="L48" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M48" s="0" t="n">
+      <c r="M48" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N48" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O48" s="0" t="s">
+      <c r="N48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R48" s="0" t="n">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S48" s="0" t="n">
+      <c r="S48" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V48" s="0" t="n">
+      <c r="T48" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W48" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X48" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X48" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y48" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z48" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="0" t="s">
+      <c r="Y48" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z48" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA48" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="0" t="s">
+      <c r="D49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J49" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="L49" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M49" s="0" t="n">
+      <c r="M49" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N49" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O49" s="0" t="s">
+      <c r="N49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R49" s="0" t="n">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3" t="n">
         <v>876</v>
       </c>
-      <c r="S49" s="0" t="n">
+      <c r="S49" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T49" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V49" s="0" t="n">
+      <c r="T49" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="W49" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X49" s="0" t="n">
+      <c r="W49" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X49" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y49" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z49" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="0" t="s">
+      <c r="Y49" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z49" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA49" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="0" t="s">
+      <c r="D50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="L50" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M50" s="0" t="n">
+      <c r="M50" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N50" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O50" s="0" t="s">
+      <c r="N50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R50" s="0" t="n">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S50" s="0" t="n">
+      <c r="S50" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T50" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V50" s="0" t="n">
+      <c r="T50" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W50" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X50" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W50" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X50" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y50" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z50" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA50" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB50" s="0" t="s">
+      <c r="Y50" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z50" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA50" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB50" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="D51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I51" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="L51" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M51" s="0" t="n">
+      <c r="M51" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="N51" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O51" s="0" t="s">
+      <c r="N51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R51" s="0" t="n">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3" t="n">
         <v>876</v>
       </c>
-      <c r="S51" s="0" t="n">
+      <c r="S51" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T51" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V51" s="0" t="n">
+      <c r="T51" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W51" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X51" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W51" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X51" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y51" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z51" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA51" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB51" s="0" t="s">
+      <c r="Y51" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z51" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA51" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB51" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="D52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="L52" s="0" t="n">
+      <c r="L52" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M52" s="0" t="n">
+      <c r="M52" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N52" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O52" s="0" t="s">
+      <c r="N52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="0" t="n">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U52" s="0" t="n">
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V52" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y52" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z52" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA52" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="0" t="s">
+      <c r="V52" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W52" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X52" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z52" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA52" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="D53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="L53" s="0" t="n">
+      <c r="L53" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M53" s="0" t="n">
+      <c r="M53" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N53" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O53" s="0" t="s">
+      <c r="N53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R53" s="0" t="n">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U53" s="0" t="n">
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V53" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y53" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z53" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA53" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB53" s="0" t="s">
+      <c r="V53" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W53" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X53" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y53" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z53" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA53" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB53" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="D54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="I54" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L54" s="0" t="n">
+      <c r="L54" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M54" s="0" t="n">
+      <c r="M54" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N54" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O54" s="0" t="s">
+      <c r="N54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R54" s="0" t="n">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S54" s="0" t="n">
+      <c r="S54" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T54" s="0" t="n">
+      <c r="T54" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V54" s="0" t="n">
+      <c r="U54" s="3"/>
+      <c r="V54" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W54" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X54" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W54" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X54" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y54" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z54" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA54" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="0" t="s">
+      <c r="Y54" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z54" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA54" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="0" t="s">
+      <c r="D55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="I55" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="J55" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="K55" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L55" s="0" t="n">
+      <c r="L55" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M55" s="0" t="n">
+      <c r="M55" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N55" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O55" s="0" t="s">
+      <c r="N55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R55" s="0" t="n">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="S55" s="0" t="n">
+      <c r="S55" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T55" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V55" s="0" t="n">
+      <c r="T55" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W55" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X55" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W55" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X55" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y55" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z55" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA55" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB55" s="0" t="s">
+      <c r="Y55" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z55" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA55" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB55" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="0" t="s">
+      <c r="D56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" s="0" t="s">
+      <c r="G56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L56" s="0" t="n">
+      <c r="L56" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M56" s="0" t="n">
+      <c r="M56" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N56" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O56" s="0" t="s">
+      <c r="N56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R56" s="0" t="n">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U56" s="0" t="n">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V56" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y56" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z56" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA56" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB56" s="0" t="s">
+      <c r="V56" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W56" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X56" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z56" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA56" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB56" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="0" t="s">
+      <c r="D57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="I57" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="J57" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="L57" s="0" t="n">
+      <c r="L57" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M57" s="0" t="n">
+      <c r="M57" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="N57" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O57" s="0" t="s">
+      <c r="N57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R57" s="0" t="n">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="U57" s="0" t="n">
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V57" s="0" t="n">
+      <c r="V57" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="W57" s="0" t="n">
+      <c r="W57" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="X57" s="0" t="n">
+      <c r="X57" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="Y57" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z57" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA57" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="0" t="s">
+      <c r="Y57" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z57" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA57" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="0" t="s">
+      <c r="D58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" s="0" t="s">
+      <c r="G58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="I58" s="3" t="n">
         <v>3500</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="J58" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K58" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L58" s="0" t="n">
+      <c r="K58" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L58" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M58" s="0" t="n">
+      <c r="M58" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="N58" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O58" s="0" t="s">
+      <c r="N58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R58" s="0" t="n">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3" t="n">
         <v>420</v>
       </c>
-      <c r="U58" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V58" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W58" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X58" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y58" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z58" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA58" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="0" t="s">
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V58" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W58" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X58" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y58" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z58" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA58" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="0" t="s">
+      <c r="D59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="0" t="s">
+      <c r="G59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="I59" s="3" t="n">
         <v>3600</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="J59" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="L59" s="0" t="n">
+      <c r="L59" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M59" s="0" t="n">
+      <c r="M59" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="N59" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O59" s="0" t="s">
+      <c r="N59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R59" s="0" t="n">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3" t="n">
         <v>432</v>
       </c>
-      <c r="U59" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V59" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y59" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z59" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA59" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="0" t="s">
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V59" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W59" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X59" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z59" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA59" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="0" t="s">
+      <c r="D60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="I60" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="L60" s="0" t="n">
+      <c r="L60" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M60" s="0" t="n">
+      <c r="M60" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N60" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O60" s="0" t="s">
+      <c r="N60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R60" s="0" t="n">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U60" s="0" t="n">
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V60" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y60" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z60" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA60" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3" t="s">
+      <c r="V60" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W60" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X60" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z60" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA60" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="0" t="s">
+      <c r="D61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="I61" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="J61" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="K61" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L61" s="0" t="n">
+      <c r="L61" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M61" s="0" t="n">
+      <c r="M61" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N61" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O61" s="0" t="s">
+      <c r="N61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q61" s="0" t="n">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3" t="n">
         <v>420</v>
       </c>
-      <c r="R61" s="0" t="n">
+      <c r="R61" s="3" t="n">
         <v>420</v>
       </c>
-      <c r="S61" s="0" t="n">
+      <c r="S61" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T61" s="0" t="n">
+      <c r="T61" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V61" s="0" t="n">
+      <c r="U61" s="3"/>
+      <c r="V61" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W61" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X61" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X61" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y61" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z61" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA61" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB61" s="0" t="s">
+      <c r="Y61" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z61" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA61" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB61" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="0" t="s">
+      <c r="D62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="I62" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L62" s="0" t="n">
+      <c r="L62" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M62" s="0" t="n">
+      <c r="M62" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N62" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O62" s="0" t="s">
+      <c r="N62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q62" s="0" t="n">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3" t="n">
         <v>702</v>
       </c>
-      <c r="R62" s="0" t="n">
+      <c r="R62" s="3" t="n">
         <v>702</v>
       </c>
-      <c r="S62" s="0" t="n">
+      <c r="S62" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V62" s="0" t="n">
+      <c r="T62" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W62" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X62" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X62" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y62" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z62" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA62" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="0" t="s">
+      <c r="Y62" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z62" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA62" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="0" t="s">
+      <c r="D63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" s="0" t="s">
+      <c r="G63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="I63" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="J63" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="L63" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M63" s="0" t="n">
+      <c r="M63" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N63" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O63" s="0" t="s">
+      <c r="N63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q63" s="0" t="n">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R63" s="0" t="n">
+      <c r="R63" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U63" s="0" t="n">
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V63" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W63" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X63" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y63" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z63" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA63" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB63" s="0" t="s">
+      <c r="V63" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W63" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X63" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y63" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z63" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA63" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB63" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="0" t="s">
+      <c r="D64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="I64" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="J64" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="K64" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="L64" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M64" s="0" t="n">
+      <c r="M64" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N64" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O64" s="0" t="s">
+      <c r="N64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R64" s="0" t="n">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S64" s="0" t="n">
+      <c r="S64" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T64" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V64" s="0" t="n">
+      <c r="T64" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W64" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X64" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W64" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X64" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y64" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z64" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA64" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB64" s="0" t="s">
+      <c r="Y64" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z64" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA64" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB64" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="0" t="s">
+      <c r="D65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" s="0" t="s">
+      <c r="G65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="I65" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="L65" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M65" s="0" t="n">
+      <c r="M65" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N65" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O65" s="0" t="s">
+      <c r="N65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q65" s="0" t="n">
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="R65" s="0" t="n">
+      <c r="R65" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U65" s="0" t="n">
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V65" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W65" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X65" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y65" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z65" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA65" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB65" s="0" t="s">
+      <c r="V65" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W65" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X65" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z65" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA65" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB65" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5805,756 +6059,933 @@
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="0" t="s">
+      <c r="D66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="I66" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J66" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K66" s="0" t="n">
+      <c r="J66" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K66" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L66" s="0" t="n">
+      <c r="L66" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M66" s="0" t="n">
+      <c r="M66" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N66" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O66" s="0" t="s">
+      <c r="N66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R66" s="0" t="n">
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U66" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V66" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W66" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X66" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y66" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z66" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA66" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="5" t="s">
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V66" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W66" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X66" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y66" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z66" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA66" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="0" t="s">
+      <c r="D67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="L67" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M67" s="0" t="n">
+      <c r="M67" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N67" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O67" s="0" t="s">
+      <c r="N67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R67" s="0" t="n">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U67" s="0" t="n">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V67" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W67" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X67" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y67" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z67" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA67" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB67" s="5" t="s">
+      <c r="V67" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W67" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X67" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z67" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA67" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB67" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="0" t="s">
+      <c r="D68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="J68" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="K68" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="L68" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M68" s="0" t="n">
+      <c r="M68" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N68" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O68" s="0" t="s">
+      <c r="N68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R68" s="0" t="n">
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S68" s="0" t="n">
+      <c r="S68" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T68" s="0" t="n">
+      <c r="T68" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V68" s="0" t="n">
+      <c r="U68" s="3"/>
+      <c r="V68" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W68" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X68" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W68" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X68" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y68" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z68" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA68" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB68" s="5" t="s">
+      <c r="Y68" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z68" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA68" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB68" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="3" t="n">
         <v>3.3</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" s="0" t="s">
+      <c r="D69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="I69" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="J69" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="K69" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L69" s="0" t="n">
+      <c r="L69" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M69" s="0" t="n">
+      <c r="M69" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N69" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O69" s="0" t="s">
+      <c r="N69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R69" s="0" t="n">
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3" t="n">
         <v>720</v>
       </c>
-      <c r="S69" s="0" t="n">
+      <c r="S69" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V69" s="0" t="n">
+      <c r="T69" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W69" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X69" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="W69" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X69" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y69" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA69" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB69" s="6" t="s">
+      <c r="Y69" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z69" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA69" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB69" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="0" t="s">
+      <c r="D70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="H70" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="I70" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="J70" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="K70" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="L70" s="0" t="n">
+      <c r="L70" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M70" s="0" t="n">
+      <c r="M70" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N70" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O70" s="0" t="s">
+      <c r="N70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R70" s="0" t="n">
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U70" s="0" t="n">
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V70" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W70" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X70" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y70" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z70" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA70" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB70" s="6" t="s">
+      <c r="V70" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W70" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X70" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z70" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA70" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB70" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="0" t="s">
+      <c r="D71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" s="2" t="s">
+      <c r="G71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="I71" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K71" s="0" t="n">
+      <c r="J71" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L71" s="0" t="n">
+      <c r="L71" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M71" s="0" t="n">
+      <c r="M71" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N71" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" s="0" t="s">
+      <c r="N71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R71" s="0" t="n">
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V71" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y71" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA71" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB71" s="6" t="s">
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V71" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W71" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X71" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z71" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA71" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB71" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="0" t="s">
+      <c r="D72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I72" s="0" t="n">
+      <c r="I72" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K72" s="0" t="n">
+      <c r="J72" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L72" s="0" t="n">
+      <c r="L72" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M72" s="0" t="n">
+      <c r="M72" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N72" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O72" s="0" t="s">
+      <c r="N72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R72" s="0" t="n">
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="U72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V72" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W72" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X72" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y72" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA72" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="6" t="s">
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V72" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W72" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X72" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y72" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z72" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA72" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="3" t="n">
         <v>3.6</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E73" s="0" t="s">
+      <c r="D73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I73" s="0" t="n">
+      <c r="I73" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="J73" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="K73" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="L73" s="0" t="n">
+      <c r="L73" s="3" t="n">
         <v>1050</v>
       </c>
-      <c r="M73" s="0" t="n">
+      <c r="M73" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="N73" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O73" s="0" t="s">
+      <c r="N73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R73" s="0" t="n">
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S73" s="0" t="n">
+      <c r="S73" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="T73" s="0" t="n">
+      <c r="T73" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="V73" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="W73" s="0" t="n">
+      <c r="U73" s="3"/>
+      <c r="V73" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W73" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="X73" s="0" t="n">
+      <c r="X73" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="Y73" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z73" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA73" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB73" s="7" t="s">
+      <c r="Y73" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z73" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA73" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB73" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E74" s="0" t="s">
+      <c r="D74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="H74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="I74" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="J74" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74" s="3" t="n">
         <v>460</v>
       </c>
-      <c r="L74" s="0" t="n">
+      <c r="L74" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M74" s="0" t="n">
+      <c r="M74" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N74" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O74" s="0" t="s">
+      <c r="N74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O74" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R74" s="0" t="n">
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3" t="n">
         <v>728</v>
       </c>
-      <c r="U74" s="0" t="n">
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="V74" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W74" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X74" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y74" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z74" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA74" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB74" s="3" t="s">
+      <c r="V74" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W74" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X74" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y74" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z74" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA74" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB74" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="0" t="s">
+      <c r="D75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I75" s="0" t="n">
+      <c r="I75" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="J75" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="K75" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="L75" s="0" t="n">
+      <c r="L75" s="3" t="n">
         <v>850</v>
       </c>
-      <c r="M75" s="0" t="n">
+      <c r="M75" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N75" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O75" s="0" t="s">
+      <c r="N75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R75" s="0" t="n">
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3" t="n">
         <v>1020</v>
       </c>
-      <c r="U75" s="0" t="n">
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V75" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W75" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X75" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y75" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z75" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA75" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB75" s="3" t="s">
+      <c r="V75" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W75" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X75" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z75" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA75" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB75" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+    </row>
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -897,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1083,81 +1083,77 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="L3" s="3" t="n">
+      <c r="I3" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>850</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="0" t="n">
         <v>1020</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="3" t="s">
+      <c r="U3" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6763,7 +6759,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>75</v>
       </c>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -777,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -792,6 +792,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -897,8 +901,8 @@
   </sheetPr>
   <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1083,7 +1087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1135,8 +1139,8 @@
       <c r="U3" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V3" s="0" t="n">
-        <v>40</v>
+      <c r="V3" s="4" t="n">
+        <v>60</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>20</v>
@@ -5643,7 +5647,7 @@
       <c r="AA60" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB60" s="4" t="s">
+      <c r="AB60" s="5" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6055,7 +6059,7 @@
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C66" s="3" t="n">
@@ -6125,7 +6129,7 @@
       <c r="AA66" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB66" s="6" t="s">
+      <c r="AB66" s="7" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6203,7 +6207,7 @@
       <c r="AA67" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" s="6" t="s">
+      <c r="AB67" s="7" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6211,7 +6215,7 @@
       <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>194</v>
       </c>
       <c r="C68" s="3" t="n">
@@ -6283,7 +6287,7 @@
       <c r="AA68" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="6" t="s">
+      <c r="AB68" s="7" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6291,7 +6295,7 @@
       <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>197</v>
       </c>
       <c r="C69" s="3" t="n">
@@ -6363,7 +6367,7 @@
       <c r="AA69" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB69" s="7" t="s">
+      <c r="AB69" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6371,7 +6375,7 @@
       <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>199</v>
       </c>
       <c r="C70" s="3" t="n">
@@ -6441,7 +6445,7 @@
       <c r="AA70" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="7" t="s">
+      <c r="AB70" s="8" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6449,7 +6453,7 @@
       <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C71" s="3" t="n">
@@ -6519,7 +6523,7 @@
       <c r="AA71" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="7" t="s">
+      <c r="AB71" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6527,7 +6531,7 @@
       <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>203</v>
       </c>
       <c r="C72" s="3" t="n">
@@ -6597,7 +6601,7 @@
       <c r="AA72" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB72" s="7" t="s">
+      <c r="AB72" s="8" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6605,7 +6609,7 @@
       <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C73" s="3" t="n">
@@ -6677,7 +6681,7 @@
       <c r="AA73" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="8" t="s">
+      <c r="AB73" s="9" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6685,7 +6689,7 @@
       <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C74" s="3" t="n">
@@ -6755,7 +6759,7 @@
       <c r="AA74" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB74" s="4" t="s">
+      <c r="AB74" s="5" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6763,7 +6767,7 @@
       <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C75" s="3" t="n">
@@ -6833,154 +6837,154 @@
       <c r="AA75" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="4" t="s">
+      <c r="AB75" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
-      <c r="AA76" s="9"/>
-      <c r="AB76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
-      <c r="AB77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
-      <c r="Z78" s="9"/>
-      <c r="AA78" s="9"/>
-      <c r="AB78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="9"/>
-      <c r="AA79" s="9"/>
-      <c r="AB79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
-      <c r="AB80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -556,7 +556,7 @@
     <t xml:space="preserve">Н0000098463</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,8 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,6 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000098464</t>
@@ -662,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -699,6 +699,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -777,7 +783,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,12 +808,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -815,6 +821,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -899,10 +909,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB80"/>
+  <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5651,11 +5661,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C61" s="3" t="n">
@@ -6059,7 +6069,7 @@
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C66" s="3" t="n">
@@ -6129,7 +6139,7 @@
       <c r="AA66" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB66" s="7" t="s">
+      <c r="AB66" s="8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6207,7 +6217,7 @@
       <c r="AA67" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" s="7" t="s">
+      <c r="AB67" s="8" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6215,7 +6225,7 @@
       <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C68" s="3" t="n">
@@ -6287,7 +6297,7 @@
       <c r="AA68" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="7" t="s">
+      <c r="AB68" s="8" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6295,7 +6305,7 @@
       <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="7" t="s">
         <v>197</v>
       </c>
       <c r="C69" s="3" t="n">
@@ -6367,7 +6377,7 @@
       <c r="AA69" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB69" s="8" t="s">
+      <c r="AB69" s="9" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6375,7 +6385,7 @@
       <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C70" s="3" t="n">
@@ -6445,7 +6455,7 @@
       <c r="AA70" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="8" t="s">
+      <c r="AB70" s="9" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6453,7 +6463,7 @@
       <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>201</v>
       </c>
       <c r="C71" s="3" t="n">
@@ -6523,7 +6533,7 @@
       <c r="AA71" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="8" t="s">
+      <c r="AB71" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6531,7 +6541,7 @@
       <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="7" t="s">
         <v>203</v>
       </c>
       <c r="C72" s="3" t="n">
@@ -6601,7 +6611,7 @@
       <c r="AA72" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB72" s="8" t="s">
+      <c r="AB72" s="9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6609,7 +6619,7 @@
       <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C73" s="3" t="n">
@@ -6681,7 +6691,7 @@
       <c r="AA73" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="9" t="s">
+      <c r="AB73" s="10" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6689,7 +6699,7 @@
       <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C74" s="3" t="n">
@@ -6767,7 +6777,7 @@
       <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C75" s="3" t="n">
@@ -6841,151 +6851,123 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
-      <c r="Y76" s="10"/>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="10"/>
-      <c r="AB76" s="10"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AB76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
-      <c r="AB77" s="10"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
-      <c r="Y78" s="10"/>
-      <c r="Z78" s="10"/>
-      <c r="AA78" s="10"/>
-      <c r="AB78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
-      <c r="Y79" s="10"/>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="10"/>
-      <c r="AB79" s="10"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
-      <c r="Y80" s="10"/>
-      <c r="Z80" s="10"/>
-      <c r="AA80" s="10"/>
-      <c r="AB80" s="10"/>
-    </row>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="11"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="213">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Н0000094735</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф</t>
+    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000095251</t>
@@ -544,7 +544,7 @@
     <t xml:space="preserve">Н0000098310</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла, 45%, 3,6 кг, пл/л (палочки 7,5 г)</t>
+    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, 3,6 кг, пл/л</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000098311</t>
@@ -604,7 +604,7 @@
     <t xml:space="preserve">Н0000099327</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Ваш выбор</t>
@@ -613,7 +613,7 @@
     <t xml:space="preserve">327193010  </t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 50%, 0,1/0,18 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 45%, 0,1/0,18 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">327192013</t>
@@ -653,6 +653,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00006397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф (4 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00006738</t>
   </si>
 </sst>
 </file>
@@ -698,13 +704,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -783,7 +789,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -797,6 +803,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1097,11 +1107,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -1149,7 +1159,7 @@
       <c r="U3" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="5" t="n">
         <v>60</v>
       </c>
       <c r="W3" s="0" t="n">
@@ -5505,11 +5515,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
       <c r="C59" s="3" t="n">
@@ -5657,7 +5667,7 @@
       <c r="AA60" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB60" s="5" t="s">
+      <c r="AB60" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5665,7 +5675,7 @@
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C61" s="3" t="n">
@@ -6069,7 +6079,7 @@
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C66" s="3" t="n">
@@ -6139,7 +6149,7 @@
       <c r="AA66" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB66" s="8" t="s">
+      <c r="AB66" s="9" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6217,15 +6227,15 @@
       <c r="AA67" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" s="8" t="s">
+      <c r="AB67" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>194</v>
       </c>
       <c r="C68" s="3" t="n">
@@ -6297,15 +6307,15 @@
       <c r="AA68" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="8" t="s">
+      <c r="AB68" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C69" s="3" t="n">
@@ -6377,7 +6387,7 @@
       <c r="AA69" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB69" s="9" t="s">
+      <c r="AB69" s="10" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6385,7 +6395,7 @@
       <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C70" s="3" t="n">
@@ -6455,7 +6465,7 @@
       <c r="AA70" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="9" t="s">
+      <c r="AB70" s="10" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6463,7 +6473,7 @@
       <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C71" s="3" t="n">
@@ -6533,7 +6543,7 @@
       <c r="AA71" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="9" t="s">
+      <c r="AB71" s="10" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6541,7 +6551,7 @@
       <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C72" s="3" t="n">
@@ -6611,7 +6621,7 @@
       <c r="AA72" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB72" s="9" t="s">
+      <c r="AB72" s="10" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6619,7 +6629,7 @@
       <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>205</v>
       </c>
       <c r="C73" s="3" t="n">
@@ -6691,7 +6701,7 @@
       <c r="AA73" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="10" t="s">
+      <c r="AB73" s="11" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6699,7 +6709,7 @@
       <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C74" s="3" t="n">
@@ -6769,7 +6779,7 @@
       <c r="AA74" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB74" s="5" t="s">
+      <c r="AB74" s="7" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6777,7 +6787,7 @@
       <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>209</v>
       </c>
       <c r="C75" s="3" t="n">
@@ -6847,125 +6857,170 @@
       <c r="AA75" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="5" t="s">
+      <c r="AB75" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="11"/>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V76" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X76" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y76" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z76" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="4" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="11"/>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="11"/>
-      <c r="Z79" s="11"/>
-      <c r="AA79" s="11"/>
-      <c r="AB79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="211">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -653,12 +653,6 @@
   </si>
   <si>
     <t xml:space="preserve">00-00006397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла "Pretto", 45%, 1,2 кг, т/ф (4 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-00006738</t>
   </si>
 </sst>
 </file>
@@ -668,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -698,12 +692,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -789,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -818,12 +806,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -831,10 +819,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -921,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5667,7 +5651,7 @@
       <c r="AA60" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB60" s="7" t="s">
+      <c r="AB60" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6079,7 +6063,7 @@
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C66" s="3" t="n">
@@ -6149,7 +6133,7 @@
       <c r="AA66" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB66" s="9" t="s">
+      <c r="AB66" s="8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6227,7 +6211,7 @@
       <c r="AA67" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" s="9" t="s">
+      <c r="AB67" s="8" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6235,7 +6219,7 @@
       <c r="A68" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C68" s="3" t="n">
@@ -6307,7 +6291,7 @@
       <c r="AA68" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="9" t="s">
+      <c r="AB68" s="8" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6315,7 +6299,7 @@
       <c r="A69" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>197</v>
       </c>
       <c r="C69" s="3" t="n">
@@ -6387,7 +6371,7 @@
       <c r="AA69" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB69" s="10" t="s">
+      <c r="AB69" s="9" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6395,7 +6379,7 @@
       <c r="A70" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C70" s="3" t="n">
@@ -6465,7 +6449,7 @@
       <c r="AA70" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="10" t="s">
+      <c r="AB70" s="9" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6473,7 +6457,7 @@
       <c r="A71" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>201</v>
       </c>
       <c r="C71" s="3" t="n">
@@ -6543,7 +6527,7 @@
       <c r="AA71" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="10" t="s">
+      <c r="AB71" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6551,7 +6535,7 @@
       <c r="A72" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>203</v>
       </c>
       <c r="C72" s="3" t="n">
@@ -6621,7 +6605,7 @@
       <c r="AA72" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB72" s="10" t="s">
+      <c r="AB72" s="9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6629,7 +6613,7 @@
       <c r="A73" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C73" s="3" t="n">
@@ -6701,7 +6685,7 @@
       <c r="AA73" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="11" t="s">
+      <c r="AB73" s="10" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6709,7 +6693,7 @@
       <c r="A74" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C74" s="3" t="n">
@@ -6779,7 +6763,7 @@
       <c r="AA74" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB74" s="7" t="s">
+      <c r="AB74" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6787,7 +6771,7 @@
       <c r="A75" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C75" s="3" t="n">
@@ -6857,171 +6841,98 @@
       <c r="AA75" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="7" t="s">
+      <c r="AB75" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L76" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="M76" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="N76" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O76" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R76" s="0" t="n">
-        <v>1020</v>
-      </c>
-      <c r="U76" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="V76" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="W76" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X76" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y76" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z76" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA76" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="4" t="s">
-        <v>212</v>
-      </c>
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AB76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="12"/>
-      <c r="Z77" s="12"/>
-      <c r="AA77" s="12"/>
-      <c r="AB77" s="12"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="12"/>
-      <c r="Z78" s="12"/>
-      <c r="AA78" s="12"/>
-      <c r="AB78" s="12"/>
-    </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12"/>
-      <c r="U79" s="12"/>
-      <c r="V79" s="12"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="12"/>
-      <c r="Y79" s="12"/>
-      <c r="Z79" s="12"/>
-      <c r="AA79" s="12"/>
-      <c r="AB79" s="12"/>
-    </row>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="11"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -905,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5134,7 +5134,7 @@
         <v>125</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K54" s="3" t="n">
         <v>100</v>
@@ -5214,7 +5214,7 @@
         <v>125</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K55" s="3" t="n">
         <v>8</v>
@@ -5766,7 +5766,7 @@
         <v>1000</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K62" s="3" t="n">
         <v>8</v>
@@ -6244,7 +6244,7 @@
         <v>100</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K68" s="3" t="n">
         <v>100</v>
@@ -6324,7 +6324,7 @@
         <v>100</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K69" s="3" t="n">
         <v>8</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Н0000093343</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Фиор Ди Латте</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">Н0000094736</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000094698</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">Н0000094737</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000095553</t>
@@ -556,13 +556,13 @@
     <t xml:space="preserve">Н0000098463</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,6 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 1/1,6 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000098464</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,8 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла Чильеджина в воде "Pretto", 45%, 1/1,8 кг, ф/п</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000098465</t>
@@ -906,7 +906,7 @@
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB75"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,10 +826,10 @@
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>1020</v>
+        <v>360</v>
       </c>
       <c r="R4" t="n">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -922,10 +922,10 @@
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1020</v>
+        <v>540</v>
       </c>
       <c r="R5" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -960,7 +960,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф (8 шт)</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1403,7 +1403,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>518</v>
+        <v>777</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1499,7 +1499,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>518</v>
+        <v>777</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1595,7 +1595,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>518</v>
+        <v>777</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>1020</v>
+        <v>288</v>
       </c>
       <c r="R16" t="n">
         <v>288</v>
@@ -2267,7 +2267,7 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>518</v>
+        <v>777</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -2755,13 +2755,13 @@
         <v>120</v>
       </c>
       <c r="V24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W24" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X24" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y24" t="n">
         <v>15</v>
@@ -2843,7 +2843,7 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>518</v>
+        <v>777</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2947,13 +2947,13 @@
         <v>120</v>
       </c>
       <c r="V26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
         <v>15</v>
@@ -3043,13 +3043,13 @@
         <v>120</v>
       </c>
       <c r="V27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W27" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X27" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y27" t="n">
         <v>15</v>
@@ -3139,13 +3139,13 @@
         <v>120</v>
       </c>
       <c r="V28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W28" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X28" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y28" t="n">
         <v>15</v>
@@ -3331,13 +3331,13 @@
         <v>120</v>
       </c>
       <c r="V30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W30" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X30" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y30" t="n">
         <v>15</v>
@@ -3419,7 +3419,7 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -3456,11 +3456,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла в воде Фиор Ди Латте "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Альче</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3515,7 +3515,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W32" t="n">
         <v>25</v>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Альче</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3613,7 +3613,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -3623,10 +3623,10 @@
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W33" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X33" t="n">
         <v>30</v>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W34" t="n">
         <v>20</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W35" t="n">
         <v>20</v>
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W36" t="n">
         <v>20</v>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W37" t="n">
         <v>20</v>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
         <v>100</v>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W38" t="n">
         <v>20</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W39" t="n">
         <v>20</v>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W40" t="n">
         <v>20</v>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Альче</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4407,10 +4407,10 @@
       </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W41" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X41" t="n">
         <v>30</v>
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Альче</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4505,10 +4505,10 @@
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X42" t="n">
         <v>30</v>
@@ -4534,11 +4534,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
+          <t>Моцарелла в воде Грандиоза "Unagrande", 50%, 0,2/0,36 кг, ф/п</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Альче</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4593,7 +4593,7 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>840</v>
+        <v>120</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W43" t="n">
         <v>25</v>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Альче</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4691,7 +4691,7 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W44" t="n">
         <v>25</v>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Альче</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4789,7 +4789,7 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -4799,10 +4799,10 @@
       </c>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W45" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X45" t="n">
         <v>30</v>
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W46" t="n">
         <v>20</v>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>100</v>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
         <v>8</v>
@@ -4985,7 +4985,7 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W47" t="n">
         <v>20</v>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W48" t="n">
         <v>20</v>
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Альче</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5181,7 +5181,7 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -5191,10 +5191,10 @@
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X49" t="n">
         <v>30</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W50" t="n">
         <v>20</v>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W51" t="n">
         <v>20</v>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W54" t="n">
         <v>20</v>
@@ -5710,7 +5710,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>1020</v>
+        <v>885</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W55" t="n">
         <v>20</v>
@@ -5967,13 +5967,13 @@
         <v>120</v>
       </c>
       <c r="V57" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W57" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X57" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y57" t="n">
         <v>15</v>
@@ -6055,7 +6055,7 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -6151,7 +6151,7 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>432</v>
+        <v>540</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -6284,11 +6284,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 1/1,6 кг, ф/п</t>
+          <t>Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,6 кг, ф/п</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6342,10 +6342,10 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="R61" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W61" t="n">
         <v>20</v>
@@ -6384,11 +6384,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 1/1,8 кг, ф/п</t>
+          <t>Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,6 кг, ф/п</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6442,10 +6442,10 @@
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="n">
-        <v>702</v>
+        <v>480</v>
       </c>
       <c r="R62" t="n">
-        <v>702</v>
+        <v>480</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -6455,7 +6455,7 @@
       </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W62" t="n">
         <v>20</v>
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W64" t="n">
         <v>20</v>
@@ -6837,7 +6837,7 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W68" t="n">
         <v>20</v>
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W69" t="n">
         <v>20</v>
@@ -7321,7 +7321,7 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
-        <v>518</v>
+        <v>777</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -7417,7 +7417,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>518</v>
+        <v>777</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -7458,7 +7458,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Альче</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -7513,7 +7513,7 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W73" t="n">
         <v>25</v>
@@ -7707,7 +7707,7 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>1020</v>
+        <v>360</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -7735,6 +7735,2474 @@
       <c r="AB75" t="inlineStr">
         <is>
           <t>00-00006397</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте "Turatti", 45%, 0,125/0,225 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Сакко</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Turatti</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>125</v>
+      </c>
+      <c r="J76" t="n">
+        <v>8</v>
+      </c>
+      <c r="K76" t="n">
+        <v>125</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M76" t="n">
+        <v>31</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S76" t="n">
+        <v>25</v>
+      </c>
+      <c r="T76" t="n">
+        <v>50</v>
+      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="n">
+        <v>35</v>
+      </c>
+      <c r="W76" t="n">
+        <v>20</v>
+      </c>
+      <c r="X76" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>00-00007161</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина "Turatti", 45%, 0,1/0,18 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Сакко</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Turatti</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>100</v>
+      </c>
+      <c r="J77" t="n">
+        <v>8</v>
+      </c>
+      <c r="K77" t="n">
+        <v>8</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M77" t="n">
+        <v>31</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="n">
+        <v>885</v>
+      </c>
+      <c r="R77" t="n">
+        <v>885</v>
+      </c>
+      <c r="S77" t="n">
+        <v>25</v>
+      </c>
+      <c r="T77" t="n">
+        <v>20</v>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="n">
+        <v>35</v>
+      </c>
+      <c r="W77" t="n">
+        <v>20</v>
+      </c>
+      <c r="X77" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>00-00007188</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Грандиоза "Unagrande", 45%, 0,2/0,36 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Biotec</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>200</v>
+      </c>
+      <c r="J78" t="n">
+        <v>8</v>
+      </c>
+      <c r="K78" t="n">
+        <v>200</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M78" t="n">
+        <v>31</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>малый Комет</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>480</v>
+      </c>
+      <c r="R78" t="n">
+        <v>480</v>
+      </c>
+      <c r="S78" t="n">
+        <v>25</v>
+      </c>
+      <c r="T78" t="n">
+        <v>50</v>
+      </c>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="n">
+        <v>45</v>
+      </c>
+      <c r="W78" t="n">
+        <v>25</v>
+      </c>
+      <c r="X78" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>00-00008479</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 0,5 кг, ф/п (кубики)</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Моцарелла</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>500</v>
+      </c>
+      <c r="J79" t="n">
+        <v>6</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>850</v>
+      </c>
+      <c r="M79" t="n">
+        <v>45</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="n">
+        <v>35</v>
+      </c>
+      <c r="W79" t="n">
+        <v>20</v>
+      </c>
+      <c r="X79" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>00-00008454</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ОАЭ_Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>125</v>
+      </c>
+      <c r="J80" t="n">
+        <v>8</v>
+      </c>
+      <c r="K80" t="n">
+        <v>8</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M80" t="n">
+        <v>31</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>876</v>
+      </c>
+      <c r="R80" t="n">
+        <v>876</v>
+      </c>
+      <c r="S80" t="n">
+        <v>25</v>
+      </c>
+      <c r="T80" t="n">
+        <v>20</v>
+      </c>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="n">
+        <v>35</v>
+      </c>
+      <c r="W80" t="n">
+        <v>20</v>
+      </c>
+      <c r="X80" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>00-00008816</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ОАЭ_Моцарелла в воде Фиор Ди Латте без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>125</v>
+      </c>
+      <c r="J81" t="n">
+        <v>8</v>
+      </c>
+      <c r="K81" t="n">
+        <v>125</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M81" t="n">
+        <v>31</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S81" t="n">
+        <v>25</v>
+      </c>
+      <c r="T81" t="n">
+        <v>50</v>
+      </c>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="n">
+        <v>35</v>
+      </c>
+      <c r="W81" t="n">
+        <v>20</v>
+      </c>
+      <c r="X81" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>00-00008815</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ОАЭ_Моцарелла для сэндвичей без лактозы "Unagrande", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>280</v>
+      </c>
+      <c r="J82" t="n">
+        <v>8</v>
+      </c>
+      <c r="K82" t="n">
+        <v>280</v>
+      </c>
+      <c r="L82" t="n">
+        <v>850</v>
+      </c>
+      <c r="M82" t="n">
+        <v>65</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="n">
+        <v>120</v>
+      </c>
+      <c r="V82" t="n">
+        <v>35</v>
+      </c>
+      <c r="W82" t="n">
+        <v>20</v>
+      </c>
+      <c r="X82" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>00-00008810</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ОАЭ_Моцарелла без лактозы "Unagrande", 45%, 0,15 (кубики)</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Моцарелла</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>120</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>850</v>
+      </c>
+      <c r="M83" t="n">
+        <v>45</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>360</v>
+      </c>
+      <c r="R83" t="n">
+        <v>360</v>
+      </c>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="n">
+        <v>35</v>
+      </c>
+      <c r="W83" t="n">
+        <v>20</v>
+      </c>
+      <c r="X83" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>00-00008814</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ОАЭ_Моцарелла палочки без лактозы "Unagrande", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>120</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10</v>
+      </c>
+      <c r="K84" t="n">
+        <v>30</v>
+      </c>
+      <c r="L84" t="n">
+        <v>850</v>
+      </c>
+      <c r="M84" t="n">
+        <v>65</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>777</v>
+      </c>
+      <c r="R84" t="n">
+        <v>777</v>
+      </c>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="n">
+        <v>10</v>
+      </c>
+      <c r="V84" t="n">
+        <v>35</v>
+      </c>
+      <c r="W84" t="n">
+        <v>20</v>
+      </c>
+      <c r="X84" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>00-00008811</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Сулугуни палочки без лактозы "Умалат", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>120</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6</v>
+      </c>
+      <c r="K85" t="n">
+        <v>30</v>
+      </c>
+      <c r="L85" t="n">
+        <v>850</v>
+      </c>
+      <c r="M85" t="n">
+        <v>50</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>777</v>
+      </c>
+      <c r="R85" t="n">
+        <v>777</v>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="n">
+        <v>10</v>
+      </c>
+      <c r="V85" t="n">
+        <v>40</v>
+      </c>
+      <c r="W85" t="n">
+        <v>20</v>
+      </c>
+      <c r="X85" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>00-00008879</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Biotec</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>125</v>
+      </c>
+      <c r="J86" t="n">
+        <v>8</v>
+      </c>
+      <c r="K86" t="n">
+        <v>8</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M86" t="n">
+        <v>25</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>885</v>
+      </c>
+      <c r="R86" t="n">
+        <v>885</v>
+      </c>
+      <c r="S86" t="n">
+        <v>25</v>
+      </c>
+      <c r="T86" t="n">
+        <v>20</v>
+      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="n">
+        <v>45</v>
+      </c>
+      <c r="W86" t="n">
+        <v>25</v>
+      </c>
+      <c r="X86" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>00-00008507</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Biotec</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>125</v>
+      </c>
+      <c r="J87" t="n">
+        <v>8</v>
+      </c>
+      <c r="K87" t="n">
+        <v>125</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M87" t="n">
+        <v>31</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S87" t="n">
+        <v>25</v>
+      </c>
+      <c r="T87" t="n">
+        <v>50</v>
+      </c>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="n">
+        <v>45</v>
+      </c>
+      <c r="W87" t="n">
+        <v>25</v>
+      </c>
+      <c r="X87" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>00-00008508</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Моцарелла для бутербродов «Вкусвилл», 45%, 0,2 кг т/ф</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Сакко</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Вкусвилл</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>200</v>
+      </c>
+      <c r="J88" t="n">
+        <v>9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>200</v>
+      </c>
+      <c r="L88" t="n">
+        <v>850</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1020</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="n">
+        <v>90</v>
+      </c>
+      <c r="V88" t="n">
+        <v>40</v>
+      </c>
+      <c r="W88" t="n">
+        <v>20</v>
+      </c>
+      <c r="X88" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>00-00008894</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Сулугуни "Foodfest", 45%, 0,37 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Foodfest</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>370</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6</v>
+      </c>
+      <c r="K89" t="n">
+        <v>370</v>
+      </c>
+      <c r="L89" t="n">
+        <v>850</v>
+      </c>
+      <c r="M89" t="n">
+        <v>50</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="n">
+        <v>120</v>
+      </c>
+      <c r="V89" t="n">
+        <v>35</v>
+      </c>
+      <c r="W89" t="n">
+        <v>20</v>
+      </c>
+      <c r="X89" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>00-00008525</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Сулугуни палочки "Умалат", 45%, 3,5 кг, п/л</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J90" t="n">
+        <v>8</v>
+      </c>
+      <c r="K90" t="n">
+        <v>30</v>
+      </c>
+      <c r="L90" t="n">
+        <v>850</v>
+      </c>
+      <c r="M90" t="n">
+        <v>50</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="n">
+        <v>540</v>
+      </c>
+      <c r="R90" t="n">
+        <v>540</v>
+      </c>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="n">
+        <v>10</v>
+      </c>
+      <c r="V90" t="n">
+        <v>35</v>
+      </c>
+      <c r="W90" t="n">
+        <v>20</v>
+      </c>
+      <c r="X90" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>00-00008988</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п (6 шт)</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Biotec</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>125</v>
+      </c>
+      <c r="J91" t="n">
+        <v>6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>8</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M91" t="n">
+        <v>31</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="n">
+        <v>876</v>
+      </c>
+      <c r="R91" t="n">
+        <v>876</v>
+      </c>
+      <c r="S91" t="n">
+        <v>25</v>
+      </c>
+      <c r="T91" t="n">
+        <v>20</v>
+      </c>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="n">
+        <v>35</v>
+      </c>
+      <c r="W91" t="n">
+        <v>25</v>
+      </c>
+      <c r="X91" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>00-00009215</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы “Unagrande", 45%, 0,125/0,225 кг, ф/п (6 шт)</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Biotec</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>125</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6</v>
+      </c>
+      <c r="K92" t="n">
+        <v>125</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M92" t="n">
+        <v>25</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S92" t="n">
+        <v>25</v>
+      </c>
+      <c r="T92" t="n">
+        <v>50</v>
+      </c>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="n">
+        <v>35</v>
+      </c>
+      <c r="W92" t="n">
+        <v>25</v>
+      </c>
+      <c r="X92" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>00-00009216</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф (6 шт)</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>280</v>
+      </c>
+      <c r="J93" t="n">
+        <v>8</v>
+      </c>
+      <c r="K93" t="n">
+        <v>280</v>
+      </c>
+      <c r="L93" t="n">
+        <v>850</v>
+      </c>
+      <c r="M93" t="n">
+        <v>65</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="n">
+        <v>120</v>
+      </c>
+      <c r="V93" t="n">
+        <v>40</v>
+      </c>
+      <c r="W93" t="n">
+        <v>20</v>
+      </c>
+      <c r="X93" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>00-00009217</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы "SORIMA" 45%, 1,2 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>SORIMA</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J94" t="n">
+        <v>8</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L94" t="n">
+        <v>850</v>
+      </c>
+      <c r="M94" t="n">
+        <v>65</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="n">
+        <v>120</v>
+      </c>
+      <c r="V94" t="n">
+        <v>35</v>
+      </c>
+      <c r="W94" t="n">
+        <v>20</v>
+      </c>
+      <c r="X94" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>00-00009233</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Моцарелла в воде Чильеджина «SPAR», 45%, 0,1/0,18 кг, ф/п  </t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Сакко</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>SPAR</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>100</v>
+      </c>
+      <c r="J95" t="n">
+        <v>8</v>
+      </c>
+      <c r="K95" t="n">
+        <v>8</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M95" t="n">
+        <v>31</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="n">
+        <v>708</v>
+      </c>
+      <c r="R95" t="n">
+        <v>708</v>
+      </c>
+      <c r="S95" t="n">
+        <v>25</v>
+      </c>
+      <c r="T95" t="n">
+        <v>20</v>
+      </c>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="n">
+        <v>35</v>
+      </c>
+      <c r="W95" t="n">
+        <v>20</v>
+      </c>
+      <c r="X95" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>00-00009632</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте «SPAR», 45%, 0,1/0,18 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Вода</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Сакко</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>SPAR</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>100</v>
+      </c>
+      <c r="J96" t="n">
+        <v>8</v>
+      </c>
+      <c r="K96" t="n">
+        <v>100</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M96" t="n">
+        <v>31</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Мультиголова</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="n">
+        <v>960</v>
+      </c>
+      <c r="R96" t="n">
+        <v>960</v>
+      </c>
+      <c r="S96" t="n">
+        <v>25</v>
+      </c>
+      <c r="T96" t="n">
+        <v>50</v>
+      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="n">
+        <v>35</v>
+      </c>
+      <c r="W96" t="n">
+        <v>20</v>
+      </c>
+      <c r="X96" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>00-00009633</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Моцарелла "Pretto", 45%, 0,37 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Сакко</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Фермерская коллекция</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>370</v>
+      </c>
+      <c r="J97" t="n">
+        <v>9</v>
+      </c>
+      <c r="K97" t="n">
+        <v>370</v>
+      </c>
+      <c r="L97" t="n">
+        <v>850</v>
+      </c>
+      <c r="M97" t="n">
+        <v>65</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="n">
+        <v>120</v>
+      </c>
+      <c r="V97" t="n">
+        <v>40</v>
+      </c>
+      <c r="W97" t="n">
+        <v>20</v>
+      </c>
+      <c r="X97" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>00-00009887</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы "Aventino", 45%, 0,2 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Сакко</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Aventino</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>200</v>
+      </c>
+      <c r="J98" t="n">
+        <v>9</v>
+      </c>
+      <c r="K98" t="n">
+        <v>200</v>
+      </c>
+      <c r="L98" t="n">
+        <v>850</v>
+      </c>
+      <c r="M98" t="n">
+        <v>65</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="n">
+        <v>90</v>
+      </c>
+      <c r="V98" t="n">
+        <v>40</v>
+      </c>
+      <c r="W98" t="n">
+        <v>20</v>
+      </c>
+      <c r="X98" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>00-00010112</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Моцарелла без лактозы «Вкусвилл», 45%, 0,1 кг, ф/п (кубики)</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>100</v>
+      </c>
+      <c r="J99" t="n">
+        <v>8</v>
+      </c>
+      <c r="K99" t="n">
+        <v>280</v>
+      </c>
+      <c r="L99" t="n">
+        <v>850</v>
+      </c>
+      <c r="M99" t="n">
+        <v>65</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="n">
+        <v>120</v>
+      </c>
+      <c r="V99" t="n">
+        <v>40</v>
+      </c>
+      <c r="W99" t="n">
+        <v>20</v>
+      </c>
+      <c r="X99" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>00-00010673</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки без лактозы «Вкусвилл», 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Альче</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Вкусвилл</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>120</v>
+      </c>
+      <c r="J100" t="n">
+        <v>10</v>
+      </c>
+      <c r="K100" t="n">
+        <v>30</v>
+      </c>
+      <c r="L100" t="n">
+        <v>850</v>
+      </c>
+      <c r="M100" t="n">
+        <v>65</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="n">
+        <v>777</v>
+      </c>
+      <c r="R100" t="n">
+        <v>777</v>
+      </c>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="n">
+        <v>10</v>
+      </c>
+      <c r="V100" t="n">
+        <v>35</v>
+      </c>
+      <c r="W100" t="n">
+        <v>20</v>
+      </c>
+      <c r="X100" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>00-00010669</t>
         </is>
       </c>
     </row>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -731,7 +731,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1211,7 +1211,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1307,7 +1307,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1787,7 +1787,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1883,7 +1883,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2075,7 +2075,7 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2171,7 +2171,7 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -2459,7 +2459,7 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -2555,7 +2555,7 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -2651,7 +2651,7 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -3227,7 +3227,7 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -3515,7 +3515,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -3613,7 +3613,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -3711,7 +3711,7 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -3907,7 +3907,7 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4397,7 +4397,7 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -4495,7 +4495,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5475,7 +5475,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -5667,7 +5667,7 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -5863,7 +5863,7 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -6247,7 +6247,7 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -6542,10 +6542,10 @@
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="R63" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -6738,10 +6738,10 @@
       </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="R65" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -6933,7 +6933,7 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -7225,7 +7225,7 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -8398,10 +8398,10 @@
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="R82" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Моцарелла для бутербродов «Вкусвилл», 45%, 0,2 кг т/ф</t>
+          <t>Моцарелла для бутербродов «ВкусВилл», 45%, 0,2 кг т/ф</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -8988,10 +8988,10 @@
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="R88" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
@@ -9086,10 +9086,10 @@
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="n">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="R89" t="n">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -9482,10 +9482,10 @@
       </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="R93" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
@@ -9580,10 +9580,10 @@
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="R94" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
@@ -9878,10 +9878,10 @@
       </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="R97" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -9976,10 +9976,10 @@
       </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="R98" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -10074,10 +10074,10 @@
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="R99" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Моцарелла палочки без лактозы «Вкусвилл», 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла палочки без лактозы «ВкусВилл», 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -10203,6 +10203,104 @@
       <c r="AB100" t="inlineStr">
         <is>
           <t>00-00010669</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Сулугуни "Лента Fresh", 45%, 0,2 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Сакко</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Лента Fresh</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>200</v>
+      </c>
+      <c r="J101" t="n">
+        <v>8</v>
+      </c>
+      <c r="K101" t="n">
+        <v>280</v>
+      </c>
+      <c r="L101" t="n">
+        <v>850</v>
+      </c>
+      <c r="M101" t="n">
+        <v>45</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Ульма</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="n">
+        <v>1300</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1300</v>
+      </c>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="n">
+        <v>120</v>
+      </c>
+      <c r="V101" t="n">
+        <v>40</v>
+      </c>
+      <c r="W101" t="n">
+        <v>20</v>
+      </c>
+      <c r="X101" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>00-00010019</t>
         </is>
       </c>
     </row>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -951,13 +951,14 @@
   </sheetPr>
   <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI91" activeCellId="0" sqref="AI91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG53" activeCellId="0" sqref="AG52:AG53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="11" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="11" min="7" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="8.54"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="27" min="13" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -3431,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC32" s="0" t="s">
         <v>118</v>
@@ -3511,7 +3512,7 @@
         <v>5</v>
       </c>
       <c r="AB33" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC33" s="0" t="s">
         <v>120</v>
@@ -3591,7 +3592,7 @@
         <v>5</v>
       </c>
       <c r="AB34" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC34" s="0" t="s">
         <v>122</v>
@@ -3671,7 +3672,7 @@
         <v>5</v>
       </c>
       <c r="AB35" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC35" s="0" t="s">
         <v>124</v>
@@ -3751,7 +3752,7 @@
         <v>5</v>
       </c>
       <c r="AB36" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC36" s="0" t="s">
         <v>126</v>
@@ -3831,7 +3832,7 @@
         <v>5</v>
       </c>
       <c r="AB37" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC37" s="0" t="s">
         <v>128</v>
@@ -3911,7 +3912,7 @@
         <v>5</v>
       </c>
       <c r="AB38" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC38" s="0" t="s">
         <v>131</v>
@@ -3991,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="AB39" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC39" s="0" t="s">
         <v>134</v>
@@ -4071,7 +4072,7 @@
         <v>5</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC40" s="0" t="s">
         <v>137</v>
@@ -4151,7 +4152,7 @@
         <v>5</v>
       </c>
       <c r="AB41" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC41" s="0" t="s">
         <v>139</v>
@@ -4231,7 +4232,7 @@
         <v>5</v>
       </c>
       <c r="AB42" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC42" s="0" t="s">
         <v>141</v>
@@ -4311,7 +4312,7 @@
         <v>5</v>
       </c>
       <c r="AB43" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC43" s="0" t="s">
         <v>144</v>
@@ -4391,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="AB44" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC44" s="0" t="s">
         <v>147</v>
@@ -4471,7 +4472,7 @@
         <v>5</v>
       </c>
       <c r="AB45" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC45" s="0" t="s">
         <v>149</v>
@@ -4551,7 +4552,7 @@
         <v>5</v>
       </c>
       <c r="AB46" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC46" s="0" t="s">
         <v>151</v>
@@ -4631,7 +4632,7 @@
         <v>5</v>
       </c>
       <c r="AB47" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC47" s="0" t="s">
         <v>153</v>
@@ -4711,7 +4712,7 @@
         <v>5</v>
       </c>
       <c r="AB48" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC48" s="0" t="s">
         <v>155</v>
@@ -4791,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="AB49" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC49" s="0" t="s">
         <v>157</v>
@@ -4871,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="AB50" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC50" s="0" t="s">
         <v>159</v>
@@ -4951,7 +4952,7 @@
         <v>5</v>
       </c>
       <c r="AB51" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC51" s="0" t="s">
         <v>161</v>
@@ -5185,7 +5186,7 @@
         <v>5</v>
       </c>
       <c r="AB54" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC54" s="0" t="s">
         <v>167</v>
@@ -5265,7 +5266,7 @@
         <v>5</v>
       </c>
       <c r="AB55" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC55" s="0" t="s">
         <v>169</v>
@@ -5733,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="AB61" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC61" s="0" t="s">
         <v>181</v>
@@ -5816,7 +5817,7 @@
         <v>5</v>
       </c>
       <c r="AB62" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC62" s="0" t="s">
         <v>183</v>
@@ -5976,7 +5977,7 @@
         <v>5</v>
       </c>
       <c r="AB64" s="0" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC64" s="0" t="s">
         <v>188</v>
@@ -6290,7 +6291,7 @@
         <v>5</v>
       </c>
       <c r="AB68" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC68" s="0" t="s">
         <v>198</v>
@@ -6370,7 +6371,7 @@
         <v>5</v>
       </c>
       <c r="AB69" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC69" s="0" t="s">
         <v>200</v>
@@ -6681,7 +6682,7 @@
         <v>5</v>
       </c>
       <c r="AB73" s="0" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC73" s="0" t="s">
         <v>208</v>
@@ -6918,7 +6919,7 @@
         <v>5</v>
       </c>
       <c r="AB76" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC76" s="0" t="s">
         <v>215</v>
@@ -7001,7 +7002,7 @@
         <v>5</v>
       </c>
       <c r="AB77" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC77" s="0" t="s">
         <v>217</v>
@@ -7084,7 +7085,7 @@
         <v>5</v>
       </c>
       <c r="AB78" s="0" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC78" s="0" t="s">
         <v>219</v>
@@ -7244,7 +7245,7 @@
         <v>5</v>
       </c>
       <c r="AB80" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC80" s="0" t="s">
         <v>223</v>
@@ -7327,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="AB81" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC81" s="0" t="s">
         <v>225</v>
@@ -7727,7 +7728,7 @@
         <v>5</v>
       </c>
       <c r="AB86" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC86" s="0" t="s">
         <v>235</v>
@@ -7810,7 +7811,7 @@
         <v>5</v>
       </c>
       <c r="AB87" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC87" s="0" t="s">
         <v>237</v>
@@ -8133,7 +8134,7 @@
         <v>5</v>
       </c>
       <c r="AB91" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC91" s="0" t="s">
         <v>246</v>
@@ -8216,7 +8217,7 @@
         <v>5</v>
       </c>
       <c r="AB92" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC92" s="0" t="s">
         <v>248</v>
@@ -8459,7 +8460,7 @@
         <v>5</v>
       </c>
       <c r="AB95" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC95" s="0" t="s">
         <v>256</v>
@@ -8542,7 +8543,7 @@
         <v>5</v>
       </c>
       <c r="AB96" s="2" t="n">
-        <v>1635</v>
+        <v>900</v>
       </c>
       <c r="AC96" s="0" t="s">
         <v>258</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -870,12 +870,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -919,8 +925,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,7 +938,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -951,105 +965,104 @@
   </sheetPr>
   <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG53" activeCellId="0" sqref="AG52:AG53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y18" activeCellId="0" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="11" min="7" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="27" min="13" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1094,7 +1107,7 @@
       <c r="O2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U2" s="0" t="n">
@@ -1118,7 +1131,7 @@
       <c r="AA2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC2" s="0" t="s">
@@ -1126,7 +1139,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -1171,7 +1184,7 @@
       <c r="O3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U3" s="0" t="n">
@@ -1195,7 +1208,7 @@
       <c r="AA3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AB3" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC3" s="0" t="s">
@@ -1203,7 +1216,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -1251,7 +1264,7 @@
       <c r="Q4" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="1" t="n">
         <v>360</v>
       </c>
       <c r="V4" s="0" t="n">
@@ -1272,7 +1285,7 @@
       <c r="AA4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC4" s="0" t="s">
@@ -1280,7 +1293,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -1328,7 +1341,7 @@
       <c r="Q5" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="1" t="n">
         <v>540</v>
       </c>
       <c r="V5" s="0" t="n">
@@ -1349,7 +1362,7 @@
       <c r="AA5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AB5" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC5" s="0" t="s">
@@ -1357,7 +1370,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -1402,7 +1415,7 @@
       <c r="O6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U6" s="0" t="n">
@@ -1426,7 +1439,7 @@
       <c r="AA6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC6" s="0" t="s">
@@ -1434,7 +1447,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -1479,7 +1492,7 @@
       <c r="O7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U7" s="0" t="n">
@@ -1503,7 +1516,7 @@
       <c r="AA7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AB7" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC7" s="0" t="s">
@@ -1511,7 +1524,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -1556,7 +1569,7 @@
       <c r="O8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="1" t="n">
         <v>1060</v>
       </c>
       <c r="U8" s="0" t="n">
@@ -1580,7 +1593,7 @@
       <c r="AA8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AB8" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC8" s="0" t="s">
@@ -1588,7 +1601,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -1633,7 +1646,7 @@
       <c r="O9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U9" s="0" t="n">
@@ -1657,7 +1670,7 @@
       <c r="AA9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AB9" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC9" s="0" t="s">
@@ -1665,7 +1678,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -1710,7 +1723,7 @@
       <c r="O10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U10" s="0" t="n">
@@ -1734,7 +1747,7 @@
       <c r="AA10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AB10" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC10" s="0" t="s">
@@ -1742,7 +1755,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -1787,7 +1800,7 @@
       <c r="O11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U11" s="0" t="n">
@@ -1811,7 +1824,7 @@
       <c r="AA11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB11" s="2" t="n">
+      <c r="AB11" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC11" s="0" t="s">
@@ -1819,7 +1832,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -1864,7 +1877,7 @@
       <c r="O12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U12" s="0" t="n">
@@ -1888,7 +1901,7 @@
       <c r="AA12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB12" s="2" t="n">
+      <c r="AB12" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC12" s="0" t="s">
@@ -1896,7 +1909,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -1941,7 +1954,7 @@
       <c r="O13" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="1" t="n">
         <v>728</v>
       </c>
       <c r="U13" s="0" t="n">
@@ -1965,7 +1978,7 @@
       <c r="AA13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB13" s="2" t="n">
+      <c r="AB13" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC13" s="0" t="s">
@@ -1973,7 +1986,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -2018,7 +2031,7 @@
       <c r="O14" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U14" s="0" t="n">
@@ -2042,7 +2055,7 @@
       <c r="AA14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB14" s="2" t="n">
+      <c r="AB14" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC14" s="0" t="s">
@@ -2050,7 +2063,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -2095,7 +2108,7 @@
       <c r="O15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U15" s="0" t="n">
@@ -2119,7 +2132,7 @@
       <c r="AA15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AB15" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC15" s="0" t="s">
@@ -2127,7 +2140,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -2175,7 +2188,7 @@
       <c r="Q16" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="1" t="n">
         <v>288</v>
       </c>
       <c r="V16" s="0" t="n">
@@ -2196,7 +2209,7 @@
       <c r="AA16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB16" s="2" t="n">
+      <c r="AB16" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC16" s="0" t="s">
@@ -2204,7 +2217,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -2249,7 +2262,7 @@
       <c r="O17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U17" s="0" t="n">
@@ -2273,7 +2286,7 @@
       <c r="AA17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB17" s="2" t="n">
+      <c r="AB17" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC17" s="0" t="s">
@@ -2281,7 +2294,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -2326,7 +2339,7 @@
       <c r="O18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U18" s="0" t="n">
@@ -2350,7 +2363,7 @@
       <c r="AA18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB18" s="2" t="n">
+      <c r="AB18" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC18" s="0" t="s">
@@ -2358,7 +2371,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -2403,7 +2416,7 @@
       <c r="O19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U19" s="0" t="n">
@@ -2427,7 +2440,7 @@
       <c r="AA19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB19" s="2" t="n">
+      <c r="AB19" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC19" s="0" t="s">
@@ -2435,7 +2448,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -2480,7 +2493,7 @@
       <c r="O20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U20" s="0" t="n">
@@ -2504,7 +2517,7 @@
       <c r="AA20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB20" s="2" t="n">
+      <c r="AB20" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC20" s="0" t="s">
@@ -2512,7 +2525,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -2557,7 +2570,7 @@
       <c r="O21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U21" s="0" t="n">
@@ -2581,7 +2594,7 @@
       <c r="AA21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB21" s="2" t="n">
+      <c r="AB21" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC21" s="0" t="s">
@@ -2589,7 +2602,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -2634,7 +2647,7 @@
       <c r="O22" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U22" s="0" t="n">
@@ -2658,7 +2671,7 @@
       <c r="AA22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB22" s="2" t="n">
+      <c r="AB22" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC22" s="0" t="s">
@@ -2666,7 +2679,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -2711,7 +2724,7 @@
       <c r="O23" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U23" s="0" t="n">
@@ -2735,7 +2748,7 @@
       <c r="AA23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB23" s="2" t="n">
+      <c r="AB23" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC23" s="0" t="s">
@@ -2743,7 +2756,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -2788,7 +2801,7 @@
       <c r="O24" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R24" s="1" t="n">
         <v>600</v>
       </c>
       <c r="U24" s="0" t="n">
@@ -2812,7 +2825,7 @@
       <c r="AA24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB24" s="2" t="n">
+      <c r="AB24" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC24" s="0" t="s">
@@ -2820,7 +2833,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -2865,7 +2878,7 @@
       <c r="O25" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U25" s="0" t="n">
@@ -2889,7 +2902,7 @@
       <c r="AA25" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB25" s="2" t="n">
+      <c r="AB25" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC25" s="0" t="s">
@@ -2897,7 +2910,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -2942,7 +2955,7 @@
       <c r="O26" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26" s="1" t="n">
         <v>600</v>
       </c>
       <c r="U26" s="0" t="n">
@@ -2966,7 +2979,7 @@
       <c r="AA26" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB26" s="2" t="n">
+      <c r="AB26" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC26" s="0" t="s">
@@ -2974,7 +2987,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -3019,7 +3032,7 @@
       <c r="O27" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27" s="1" t="n">
         <v>600</v>
       </c>
       <c r="U27" s="0" t="n">
@@ -3043,7 +3056,7 @@
       <c r="AA27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB27" s="2" t="n">
+      <c r="AB27" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC27" s="0" t="s">
@@ -3051,7 +3064,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -3096,7 +3109,7 @@
       <c r="O28" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28" s="1" t="n">
         <v>600</v>
       </c>
       <c r="U28" s="0" t="n">
@@ -3120,7 +3133,7 @@
       <c r="AA28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB28" s="2" t="n">
+      <c r="AB28" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC28" s="0" t="s">
@@ -3128,7 +3141,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -3173,7 +3186,7 @@
       <c r="O29" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U29" s="0" t="n">
@@ -3197,7 +3210,7 @@
       <c r="AA29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB29" s="2" t="n">
+      <c r="AB29" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC29" s="0" t="s">
@@ -3205,7 +3218,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -3250,7 +3263,7 @@
       <c r="O30" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="R30" s="1" t="n">
         <v>600</v>
       </c>
       <c r="U30" s="0" t="n">
@@ -3274,7 +3287,7 @@
       <c r="AA30" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB30" s="2" t="n">
+      <c r="AB30" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC30" s="0" t="s">
@@ -3282,7 +3295,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -3327,7 +3340,7 @@
       <c r="O31" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31" s="1" t="n">
         <v>540</v>
       </c>
       <c r="U31" s="0" t="n">
@@ -3351,7 +3364,7 @@
       <c r="AA31" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB31" s="2" t="n">
+      <c r="AB31" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC31" s="0" t="s">
@@ -3359,7 +3372,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -3404,7 +3417,7 @@
       <c r="O32" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="R32" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="S32" s="0" t="n">
@@ -3431,7 +3444,7 @@
       <c r="AA32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB32" s="2" t="n">
+      <c r="AB32" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC32" s="0" t="s">
@@ -3439,7 +3452,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -3484,7 +3497,7 @@
       <c r="O33" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="R33" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="S33" s="0" t="n">
@@ -3511,7 +3524,7 @@
       <c r="AA33" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB33" s="2" t="n">
+      <c r="AB33" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC33" s="0" t="s">
@@ -3519,7 +3532,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -3564,7 +3577,7 @@
       <c r="O34" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="R34" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="S34" s="0" t="n">
@@ -3591,7 +3604,7 @@
       <c r="AA34" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB34" s="2" t="n">
+      <c r="AB34" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC34" s="0" t="s">
@@ -3599,7 +3612,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -3644,7 +3657,7 @@
       <c r="O35" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="R35" s="1" t="n">
         <v>960</v>
       </c>
       <c r="S35" s="0" t="n">
@@ -3671,7 +3684,7 @@
       <c r="AA35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB35" s="2" t="n">
+      <c r="AB35" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC35" s="0" t="s">
@@ -3679,7 +3692,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -3724,7 +3737,7 @@
       <c r="O36" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="R36" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="S36" s="0" t="n">
@@ -3751,7 +3764,7 @@
       <c r="AA36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB36" s="2" t="n">
+      <c r="AB36" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC36" s="0" t="s">
@@ -3759,7 +3772,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -3804,7 +3817,7 @@
       <c r="O37" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R37" s="0" t="n">
+      <c r="R37" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="S37" s="0" t="n">
@@ -3831,7 +3844,7 @@
       <c r="AA37" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB37" s="2" t="n">
+      <c r="AB37" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC37" s="0" t="s">
@@ -3839,7 +3852,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -3884,7 +3897,7 @@
       <c r="O38" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R38" s="0" t="n">
+      <c r="R38" s="1" t="n">
         <v>960</v>
       </c>
       <c r="S38" s="0" t="n">
@@ -3911,7 +3924,7 @@
       <c r="AA38" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB38" s="2" t="n">
+      <c r="AB38" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC38" s="0" t="s">
@@ -3919,7 +3932,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -3964,7 +3977,7 @@
       <c r="O39" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R39" s="0" t="n">
+      <c r="R39" s="1" t="n">
         <v>960</v>
       </c>
       <c r="S39" s="0" t="n">
@@ -3991,7 +4004,7 @@
       <c r="AA39" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB39" s="2" t="n">
+      <c r="AB39" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC39" s="0" t="s">
@@ -3999,7 +4012,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -4044,7 +4057,7 @@
       <c r="O40" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R40" s="0" t="n">
+      <c r="R40" s="1" t="n">
         <v>960</v>
       </c>
       <c r="S40" s="0" t="n">
@@ -4071,7 +4084,7 @@
       <c r="AA40" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB40" s="2" t="n">
+      <c r="AB40" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC40" s="0" t="s">
@@ -4079,7 +4092,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -4124,7 +4137,7 @@
       <c r="O41" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R41" s="0" t="n">
+      <c r="R41" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="S41" s="0" t="n">
@@ -4151,7 +4164,7 @@
       <c r="AA41" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB41" s="2" t="n">
+      <c r="AB41" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC41" s="0" t="s">
@@ -4159,7 +4172,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -4204,7 +4217,7 @@
       <c r="O42" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R42" s="0" t="n">
+      <c r="R42" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="S42" s="0" t="n">
@@ -4231,7 +4244,7 @@
       <c r="AA42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB42" s="2" t="n">
+      <c r="AB42" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC42" s="0" t="s">
@@ -4239,7 +4252,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -4284,7 +4297,7 @@
       <c r="O43" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="R43" s="0" t="n">
+      <c r="R43" s="1" t="n">
         <v>120</v>
       </c>
       <c r="S43" s="0" t="n">
@@ -4311,7 +4324,7 @@
       <c r="AA43" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB43" s="2" t="n">
+      <c r="AB43" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC43" s="0" t="s">
@@ -4319,7 +4332,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -4364,7 +4377,7 @@
       <c r="O44" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R44" s="0" t="n">
+      <c r="R44" s="1" t="n">
         <v>885</v>
       </c>
       <c r="S44" s="0" t="n">
@@ -4391,7 +4404,7 @@
       <c r="AA44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB44" s="2" t="n">
+      <c r="AB44" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC44" s="0" t="s">
@@ -4399,7 +4412,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -4444,7 +4457,7 @@
       <c r="O45" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R45" s="0" t="n">
+      <c r="R45" s="1" t="n">
         <v>885</v>
       </c>
       <c r="S45" s="0" t="n">
@@ -4471,7 +4484,7 @@
       <c r="AA45" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB45" s="2" t="n">
+      <c r="AB45" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC45" s="0" t="s">
@@ -4479,7 +4492,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -4524,7 +4537,7 @@
       <c r="O46" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R46" s="0" t="n">
+      <c r="R46" s="1" t="n">
         <v>708</v>
       </c>
       <c r="S46" s="0" t="n">
@@ -4551,7 +4564,7 @@
       <c r="AA46" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB46" s="2" t="n">
+      <c r="AB46" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC46" s="0" t="s">
@@ -4559,7 +4572,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -4604,7 +4617,7 @@
       <c r="O47" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R47" s="0" t="n">
+      <c r="R47" s="1" t="n">
         <v>708</v>
       </c>
       <c r="S47" s="0" t="n">
@@ -4631,7 +4644,7 @@
       <c r="AA47" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB47" s="2" t="n">
+      <c r="AB47" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC47" s="0" t="s">
@@ -4639,7 +4652,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -4684,7 +4697,7 @@
       <c r="O48" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R48" s="0" t="n">
+      <c r="R48" s="1" t="n">
         <v>708</v>
       </c>
       <c r="S48" s="0" t="n">
@@ -4711,7 +4724,7 @@
       <c r="AA48" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB48" s="2" t="n">
+      <c r="AB48" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC48" s="0" t="s">
@@ -4719,7 +4732,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -4764,7 +4777,7 @@
       <c r="O49" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R49" s="0" t="n">
+      <c r="R49" s="1" t="n">
         <v>885</v>
       </c>
       <c r="S49" s="0" t="n">
@@ -4791,7 +4804,7 @@
       <c r="AA49" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB49" s="2" t="n">
+      <c r="AB49" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC49" s="0" t="s">
@@ -4799,7 +4812,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -4844,7 +4857,7 @@
       <c r="O50" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R50" s="0" t="n">
+      <c r="R50" s="1" t="n">
         <v>708</v>
       </c>
       <c r="S50" s="0" t="n">
@@ -4871,7 +4884,7 @@
       <c r="AA50" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB50" s="2" t="n">
+      <c r="AB50" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC50" s="0" t="s">
@@ -4879,7 +4892,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -4924,7 +4937,7 @@
       <c r="O51" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R51" s="0" t="n">
+      <c r="R51" s="1" t="n">
         <v>885</v>
       </c>
       <c r="S51" s="0" t="n">
@@ -4951,7 +4964,7 @@
       <c r="AA51" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB51" s="2" t="n">
+      <c r="AB51" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC51" s="0" t="s">
@@ -4959,7 +4972,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -5004,7 +5017,7 @@
       <c r="O52" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R52" s="0" t="n">
+      <c r="R52" s="1" t="n">
         <v>1060</v>
       </c>
       <c r="U52" s="0" t="n">
@@ -5028,7 +5041,7 @@
       <c r="AA52" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB52" s="2" t="n">
+      <c r="AB52" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC52" s="0" t="s">
@@ -5036,7 +5049,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
@@ -5081,7 +5094,7 @@
       <c r="O53" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R53" s="0" t="n">
+      <c r="R53" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U53" s="0" t="n">
@@ -5105,7 +5118,7 @@
       <c r="AA53" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB53" s="2" t="n">
+      <c r="AB53" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC53" s="0" t="s">
@@ -5113,7 +5126,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
@@ -5158,7 +5171,7 @@
       <c r="O54" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R54" s="0" t="n">
+      <c r="R54" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="S54" s="0" t="n">
@@ -5185,7 +5198,7 @@
       <c r="AA54" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB54" s="2" t="n">
+      <c r="AB54" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC54" s="0" t="s">
@@ -5193,7 +5206,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -5238,7 +5251,7 @@
       <c r="O55" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R55" s="0" t="n">
+      <c r="R55" s="1" t="n">
         <v>885</v>
       </c>
       <c r="S55" s="0" t="n">
@@ -5265,7 +5278,7 @@
       <c r="AA55" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB55" s="2" t="n">
+      <c r="AB55" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC55" s="0" t="s">
@@ -5273,7 +5286,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -5318,7 +5331,7 @@
       <c r="O56" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R56" s="0" t="n">
+      <c r="R56" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U56" s="0" t="n">
@@ -5342,7 +5355,7 @@
       <c r="AA56" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB56" s="2" t="n">
+      <c r="AB56" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC56" s="0" t="s">
@@ -5350,7 +5363,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -5395,7 +5408,7 @@
       <c r="O57" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="R57" s="0" t="n">
+      <c r="R57" s="1" t="n">
         <v>600</v>
       </c>
       <c r="U57" s="0" t="n">
@@ -5419,7 +5432,7 @@
       <c r="AA57" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB57" s="2" t="n">
+      <c r="AB57" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC57" s="0" t="s">
@@ -5427,7 +5440,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -5472,7 +5485,7 @@
       <c r="O58" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R58" s="0" t="n">
+      <c r="R58" s="1" t="n">
         <v>540</v>
       </c>
       <c r="U58" s="0" t="n">
@@ -5496,7 +5509,7 @@
       <c r="AA58" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB58" s="2" t="n">
+      <c r="AB58" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC58" s="0" t="s">
@@ -5504,7 +5517,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -5549,7 +5562,7 @@
       <c r="O59" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R59" s="0" t="n">
+      <c r="R59" s="1" t="n">
         <v>540</v>
       </c>
       <c r="U59" s="0" t="n">
@@ -5573,7 +5586,7 @@
       <c r="AA59" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB59" s="2" t="n">
+      <c r="AB59" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC59" s="0" t="s">
@@ -5581,7 +5594,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -5626,7 +5639,7 @@
       <c r="O60" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R60" s="0" t="n">
+      <c r="R60" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U60" s="0" t="n">
@@ -5650,7 +5663,7 @@
       <c r="AA60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB60" s="2" t="n">
+      <c r="AB60" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC60" s="0" t="s">
@@ -5658,7 +5671,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -5706,7 +5719,7 @@
       <c r="Q61" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="R61" s="0" t="n">
+      <c r="R61" s="1" t="n">
         <v>480</v>
       </c>
       <c r="S61" s="0" t="n">
@@ -5733,7 +5746,7 @@
       <c r="AA61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB61" s="2" t="n">
+      <c r="AB61" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC61" s="0" t="s">
@@ -5741,7 +5754,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -5789,7 +5802,7 @@
       <c r="Q62" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="R62" s="0" t="n">
+      <c r="R62" s="1" t="n">
         <v>480</v>
       </c>
       <c r="S62" s="0" t="n">
@@ -5816,7 +5829,7 @@
       <c r="AA62" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB62" s="2" t="n">
+      <c r="AB62" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC62" s="0" t="s">
@@ -5824,7 +5837,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -5872,7 +5885,7 @@
       <c r="Q63" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R63" s="0" t="n">
+      <c r="R63" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U63" s="0" t="n">
@@ -5896,7 +5909,7 @@
       <c r="AA63" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB63" s="0" t="n">
+      <c r="AB63" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="AC63" s="0" t="s">
@@ -5904,7 +5917,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -5949,7 +5962,7 @@
       <c r="O64" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R64" s="0" t="n">
+      <c r="R64" s="1" t="n">
         <v>708</v>
       </c>
       <c r="S64" s="0" t="n">
@@ -5976,7 +5989,7 @@
       <c r="AA64" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB64" s="0" t="n">
+      <c r="AB64" s="1" t="n">
         <v>900</v>
       </c>
       <c r="AC64" s="0" t="s">
@@ -5984,7 +5997,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -6032,7 +6045,7 @@
       <c r="Q65" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R65" s="0" t="n">
+      <c r="R65" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U65" s="0" t="n">
@@ -6056,7 +6069,7 @@
       <c r="AA65" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB65" s="2" t="n">
+      <c r="AB65" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC65" s="0" t="s">
@@ -6064,7 +6077,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -6109,7 +6122,7 @@
       <c r="O66" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R66" s="0" t="n">
+      <c r="R66" s="1" t="n">
         <v>540</v>
       </c>
       <c r="U66" s="0" t="n">
@@ -6133,7 +6146,7 @@
       <c r="AA66" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB66" s="2" t="n">
+      <c r="AB66" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC66" s="0" t="s">
@@ -6141,7 +6154,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -6186,7 +6199,7 @@
       <c r="O67" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R67" s="0" t="n">
+      <c r="R67" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U67" s="0" t="n">
@@ -6210,7 +6223,7 @@
       <c r="AA67" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" s="0" t="n">
+      <c r="AB67" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="AC67" s="0" t="s">
@@ -6218,7 +6231,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -6263,7 +6276,7 @@
       <c r="O68" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R68" s="0" t="n">
+      <c r="R68" s="1" t="n">
         <v>960</v>
       </c>
       <c r="S68" s="0" t="n">
@@ -6290,7 +6303,7 @@
       <c r="AA68" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="2" t="n">
+      <c r="AB68" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC68" s="0" t="s">
@@ -6298,7 +6311,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -6343,7 +6356,7 @@
       <c r="O69" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R69" s="0" t="n">
+      <c r="R69" s="1" t="n">
         <v>708</v>
       </c>
       <c r="S69" s="0" t="n">
@@ -6370,7 +6383,7 @@
       <c r="AA69" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB69" s="2" t="n">
+      <c r="AB69" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC69" s="0" t="s">
@@ -6378,7 +6391,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -6423,7 +6436,7 @@
       <c r="O70" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R70" s="0" t="n">
+      <c r="R70" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U70" s="0" t="n">
@@ -6447,7 +6460,7 @@
       <c r="AA70" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="2" t="n">
+      <c r="AB70" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC70" s="0" t="s">
@@ -6455,7 +6468,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
@@ -6500,7 +6513,7 @@
       <c r="O71" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R71" s="0" t="n">
+      <c r="R71" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U71" s="0" t="n">
@@ -6524,7 +6537,7 @@
       <c r="AA71" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB71" s="2" t="n">
+      <c r="AB71" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC71" s="0" t="s">
@@ -6532,7 +6545,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -6577,7 +6590,7 @@
       <c r="O72" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R72" s="0" t="n">
+      <c r="R72" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U72" s="0" t="n">
@@ -6601,7 +6614,7 @@
       <c r="AA72" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB72" s="0" t="n">
+      <c r="AB72" s="1" t="n">
         <v>1056</v>
       </c>
       <c r="AC72" s="0" t="s">
@@ -6609,7 +6622,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
@@ -6654,7 +6667,7 @@
       <c r="O73" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R73" s="0" t="n">
+      <c r="R73" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="S73" s="0" t="n">
@@ -6681,7 +6694,7 @@
       <c r="AA73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB73" s="0" t="n">
+      <c r="AB73" s="1" t="n">
         <v>900</v>
       </c>
       <c r="AC73" s="0" t="s">
@@ -6689,7 +6702,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
@@ -6734,7 +6747,7 @@
       <c r="O74" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="R74" s="0" t="n">
+      <c r="R74" s="1" t="n">
         <v>728</v>
       </c>
       <c r="U74" s="0" t="n">
@@ -6758,7 +6771,7 @@
       <c r="AA74" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB74" s="0" t="n">
+      <c r="AB74" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="AC74" s="0" t="s">
@@ -6766,7 +6779,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
@@ -6811,7 +6824,7 @@
       <c r="O75" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R75" s="0" t="n">
+      <c r="R75" s="1" t="n">
         <v>360</v>
       </c>
       <c r="U75" s="0" t="n">
@@ -6835,7 +6848,7 @@
       <c r="AA75" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="0" t="n">
+      <c r="AB75" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="AC75" s="0" t="s">
@@ -6843,7 +6856,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
@@ -6891,7 +6904,7 @@
       <c r="Q76" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R76" s="0" t="n">
+      <c r="R76" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="S76" s="0" t="n">
@@ -6918,7 +6931,7 @@
       <c r="AA76" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB76" s="2" t="n">
+      <c r="AB76" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC76" s="0" t="s">
@@ -6926,7 +6939,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
@@ -6974,7 +6987,7 @@
       <c r="Q77" s="0" t="n">
         <v>885</v>
       </c>
-      <c r="R77" s="0" t="n">
+      <c r="R77" s="1" t="n">
         <v>885</v>
       </c>
       <c r="S77" s="0" t="n">
@@ -7001,7 +7014,7 @@
       <c r="AA77" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB77" s="2" t="n">
+      <c r="AB77" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC77" s="0" t="s">
@@ -7009,7 +7022,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
@@ -7057,7 +7070,7 @@
       <c r="Q78" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="R78" s="0" t="n">
+      <c r="R78" s="1" t="n">
         <v>480</v>
       </c>
       <c r="S78" s="0" t="n">
@@ -7084,7 +7097,7 @@
       <c r="AA78" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB78" s="0" t="n">
+      <c r="AB78" s="1" t="n">
         <v>900</v>
       </c>
       <c r="AC78" s="0" t="s">
@@ -7092,7 +7105,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
@@ -7140,7 +7153,7 @@
       <c r="Q79" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R79" s="0" t="n">
+      <c r="R79" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="V79" s="0" t="n">
@@ -7161,7 +7174,7 @@
       <c r="AA79" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB79" s="0" t="n">
+      <c r="AB79" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="AC79" s="0" t="s">
@@ -7169,7 +7182,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
@@ -7217,7 +7230,7 @@
       <c r="Q80" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="R80" s="0" t="n">
+      <c r="R80" s="1" t="n">
         <v>876</v>
       </c>
       <c r="S80" s="0" t="n">
@@ -7244,7 +7257,7 @@
       <c r="AA80" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB80" s="2" t="n">
+      <c r="AB80" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC80" s="0" t="s">
@@ -7252,7 +7265,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B81" s="0" t="s">
@@ -7300,7 +7313,7 @@
       <c r="Q81" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R81" s="0" t="n">
+      <c r="R81" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="S81" s="0" t="n">
@@ -7327,7 +7340,7 @@
       <c r="AA81" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB81" s="2" t="n">
+      <c r="AB81" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC81" s="0" t="s">
@@ -7335,7 +7348,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
@@ -7383,7 +7396,7 @@
       <c r="Q82" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R82" s="0" t="n">
+      <c r="R82" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U82" s="0" t="n">
@@ -7407,7 +7420,7 @@
       <c r="AA82" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB82" s="0" t="n">
+      <c r="AB82" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="AC82" s="0" t="s">
@@ -7415,7 +7428,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
@@ -7463,7 +7476,7 @@
       <c r="Q83" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="R83" s="0" t="n">
+      <c r="R83" s="1" t="n">
         <v>360</v>
       </c>
       <c r="V83" s="0" t="n">
@@ -7484,7 +7497,7 @@
       <c r="AA83" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB83" s="2" t="n">
+      <c r="AB83" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC83" s="0" t="s">
@@ -7492,7 +7505,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
@@ -7540,7 +7553,7 @@
       <c r="Q84" s="0" t="n">
         <v>777</v>
       </c>
-      <c r="R84" s="0" t="n">
+      <c r="R84" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U84" s="0" t="n">
@@ -7564,7 +7577,7 @@
       <c r="AA84" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB84" s="2" t="n">
+      <c r="AB84" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC84" s="0" t="s">
@@ -7572,7 +7585,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
@@ -7620,7 +7633,7 @@
       <c r="Q85" s="0" t="n">
         <v>777</v>
       </c>
-      <c r="R85" s="0" t="n">
+      <c r="R85" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U85" s="0" t="n">
@@ -7644,7 +7657,7 @@
       <c r="AA85" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB85" s="0" t="n">
+      <c r="AB85" s="1" t="n">
         <v>1056</v>
       </c>
       <c r="AC85" s="0" t="s">
@@ -7652,7 +7665,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
@@ -7700,7 +7713,7 @@
       <c r="Q86" s="0" t="n">
         <v>885</v>
       </c>
-      <c r="R86" s="0" t="n">
+      <c r="R86" s="1" t="n">
         <v>885</v>
       </c>
       <c r="S86" s="0" t="n">
@@ -7727,7 +7740,7 @@
       <c r="AA86" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB86" s="2" t="n">
+      <c r="AB86" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC86" s="0" t="s">
@@ -7735,7 +7748,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="0" t="s">
@@ -7783,7 +7796,7 @@
       <c r="Q87" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R87" s="0" t="n">
+      <c r="R87" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="S87" s="0" t="n">
@@ -7810,7 +7823,7 @@
       <c r="AA87" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB87" s="2" t="n">
+      <c r="AB87" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC87" s="0" t="s">
@@ -7818,7 +7831,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
@@ -7866,7 +7879,7 @@
       <c r="Q88" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R88" s="0" t="n">
+      <c r="R88" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U88" s="0" t="n">
@@ -7890,7 +7903,7 @@
       <c r="AA88" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB88" s="2" t="n">
+      <c r="AB88" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC88" s="0" t="s">
@@ -7898,7 +7911,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
@@ -7946,7 +7959,7 @@
       <c r="Q89" s="0" t="n">
         <v>1060</v>
       </c>
-      <c r="R89" s="0" t="n">
+      <c r="R89" s="1" t="n">
         <v>1060</v>
       </c>
       <c r="U89" s="0" t="n">
@@ -7970,7 +7983,7 @@
       <c r="AA89" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB89" s="2" t="n">
+      <c r="AB89" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC89" s="0" t="s">
@@ -7978,7 +7991,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
@@ -8026,7 +8039,7 @@
       <c r="Q90" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="R90" s="0" t="n">
+      <c r="R90" s="1" t="n">
         <v>540</v>
       </c>
       <c r="U90" s="0" t="n">
@@ -8050,7 +8063,7 @@
       <c r="AA90" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB90" s="0" t="n">
+      <c r="AB90" s="1" t="n">
         <v>1056</v>
       </c>
       <c r="AC90" s="0" t="s">
@@ -8058,7 +8071,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
@@ -8106,7 +8119,7 @@
       <c r="Q91" s="0" t="n">
         <v>876</v>
       </c>
-      <c r="R91" s="0" t="n">
+      <c r="R91" s="1" t="n">
         <v>876</v>
       </c>
       <c r="S91" s="0" t="n">
@@ -8133,7 +8146,7 @@
       <c r="AA91" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB91" s="2" t="n">
+      <c r="AB91" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC91" s="0" t="s">
@@ -8141,7 +8154,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
@@ -8189,7 +8202,7 @@
       <c r="Q92" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="R92" s="0" t="n">
+      <c r="R92" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="S92" s="0" t="n">
@@ -8216,7 +8229,7 @@
       <c r="AA92" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB92" s="2" t="n">
+      <c r="AB92" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC92" s="0" t="s">
@@ -8224,7 +8237,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
@@ -8272,7 +8285,7 @@
       <c r="Q93" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R93" s="0" t="n">
+      <c r="R93" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U93" s="0" t="n">
@@ -8296,7 +8309,7 @@
       <c r="AA93" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB93" s="0" t="n">
+      <c r="AB93" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="AC93" s="0" t="s">
@@ -8304,7 +8317,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
@@ -8352,7 +8365,7 @@
       <c r="Q94" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R94" s="0" t="n">
+      <c r="R94" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U94" s="0" t="n">
@@ -8376,7 +8389,7 @@
       <c r="AA94" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB94" s="0" t="n">
+      <c r="AB94" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="AC94" s="0" t="s">
@@ -8384,7 +8397,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
@@ -8432,7 +8445,7 @@
       <c r="Q95" s="0" t="n">
         <v>708</v>
       </c>
-      <c r="R95" s="0" t="n">
+      <c r="R95" s="1" t="n">
         <v>708</v>
       </c>
       <c r="S95" s="0" t="n">
@@ -8459,7 +8472,7 @@
       <c r="AA95" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB95" s="2" t="n">
+      <c r="AB95" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC95" s="0" t="s">
@@ -8467,7 +8480,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
@@ -8515,7 +8528,7 @@
       <c r="Q96" s="0" t="n">
         <v>960</v>
       </c>
-      <c r="R96" s="0" t="n">
+      <c r="R96" s="1" t="n">
         <v>960</v>
       </c>
       <c r="S96" s="0" t="n">
@@ -8542,7 +8555,7 @@
       <c r="AA96" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB96" s="2" t="n">
+      <c r="AB96" s="4" t="n">
         <v>900</v>
       </c>
       <c r="AC96" s="0" t="s">
@@ -8550,7 +8563,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
@@ -8598,7 +8611,7 @@
       <c r="Q97" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R97" s="0" t="n">
+      <c r="R97" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U97" s="0" t="n">
@@ -8622,7 +8635,7 @@
       <c r="AA97" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB97" s="2" t="n">
+      <c r="AB97" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC97" s="0" t="s">
@@ -8630,7 +8643,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
@@ -8678,7 +8691,7 @@
       <c r="Q98" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R98" s="0" t="n">
+      <c r="R98" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U98" s="0" t="n">
@@ -8702,7 +8715,7 @@
       <c r="AA98" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB98" s="2" t="n">
+      <c r="AB98" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC98" s="0" t="s">
@@ -8710,7 +8723,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
@@ -8758,7 +8771,7 @@
       <c r="Q99" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R99" s="0" t="n">
+      <c r="R99" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U99" s="0" t="n">
@@ -8782,7 +8795,7 @@
       <c r="AA99" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB99" s="2" t="n">
+      <c r="AB99" s="4" t="n">
         <v>1320</v>
       </c>
       <c r="AC99" s="0" t="s">
@@ -8790,7 +8803,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
@@ -8838,7 +8851,7 @@
       <c r="Q100" s="0" t="n">
         <v>777</v>
       </c>
-      <c r="R100" s="0" t="n">
+      <c r="R100" s="1" t="n">
         <v>777</v>
       </c>
       <c r="U100" s="0" t="n">
@@ -8862,7 +8875,7 @@
       <c r="AA100" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB100" s="2" t="n">
+      <c r="AB100" s="4" t="n">
         <v>1056</v>
       </c>
       <c r="AC100" s="0" t="s">
@@ -8870,7 +8883,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
@@ -8918,7 +8931,7 @@
       <c r="Q101" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="R101" s="0" t="n">
+      <c r="R101" s="1" t="n">
         <v>1300</v>
       </c>
       <c r="U101" s="0" t="n">
@@ -8942,7 +8955,7 @@
       <c r="AA101" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB101" s="0" t="n">
+      <c r="AB101" s="1" t="n">
         <v>1320</v>
       </c>
       <c r="AC101" s="0" t="s">

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -622,7 +622,7 @@
     <t xml:space="preserve">00-00009233</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина «SPAR», 45%, 0,1/0,18 кг, ф/п</t>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина «SPAR», 45%, 0,1/0,18 кг, ф/п  </t>
   </si>
   <si>
     <t xml:space="preserve">SPAR</t>
@@ -683,7 +683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -732,6 +732,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -801,7 +807,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -868,6 +874,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -992,11 +1002,11 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O25" activeCellId="0" sqref="O25"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="E82" activeCellId="0" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6603,7 +6613,7 @@
       <c r="A70" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="17" t="s">
         <v>199</v>
       </c>
       <c r="C70" s="11" t="n">

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -738,6 +738,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1002,11 +1003,11 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
-      <selection pane="bottomRight" activeCell="E82" activeCellId="0" sqref="E82"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1405,7 +1406,7 @@
         <v>1300</v>
       </c>
       <c r="U5" s="10" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V5" s="12" t="n">
         <v>35</v>
@@ -1947,7 +1948,7 @@
         <v>1300</v>
       </c>
       <c r="U12" s="10" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V12" s="12" t="n">
         <v>35</v>
@@ -5678,7 +5679,7 @@
         <v>1300</v>
       </c>
       <c r="U58" s="10" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V58" s="12" t="n">
         <v>45</v>
@@ -6502,7 +6503,7 @@
         <v>1300</v>
       </c>
       <c r="U68" s="10" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V68" s="12" t="n">
         <v>45</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AD$77</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AD$78</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="219">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -298,6 +298,15 @@
     <t xml:space="preserve">Н0000094729</t>
   </si>
   <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Foodfest", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodfest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011191</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
   </si>
   <si>
@@ -587,9 +596,6 @@
   </si>
   <si>
     <t xml:space="preserve">Сулугуни "Foodfest", 45%, 0,37 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foodfest</t>
   </si>
   <si>
     <t xml:space="preserve">00-00008525</t>
@@ -683,7 +689,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -732,6 +738,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -808,7 +820,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -878,6 +890,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1000,14 +1016,14 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="AD25" activeCellId="0" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1199,7 +1215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
@@ -1276,7 +1292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
@@ -1356,7 +1372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
@@ -1433,7 +1449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
@@ -1510,7 +1526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>5</v>
       </c>
@@ -1587,7 +1603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
@@ -1664,7 +1680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>7</v>
       </c>
@@ -1741,7 +1757,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>8</v>
       </c>
@@ -1821,7 +1837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>9</v>
       </c>
@@ -1898,7 +1914,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>10</v>
       </c>
@@ -1975,7 +1991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>11</v>
       </c>
@@ -2052,7 +2068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>12</v>
       </c>
@@ -2129,7 +2145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>13</v>
       </c>
@@ -2206,7 +2222,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
@@ -2283,7 +2299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>15</v>
       </c>
@@ -2360,7 +2376,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>16</v>
       </c>
@@ -2437,7 +2453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>17</v>
       </c>
@@ -2514,7 +2530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>18</v>
       </c>
@@ -2684,7 +2700,7 @@
       <c r="A22" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="11" t="n">
@@ -2702,17 +2718,17 @@
       <c r="G22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>33</v>
+      <c r="H22" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="I22" s="10" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J22" s="10" t="n">
         <v>8</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L22" s="10" t="n">
         <v>1050</v>
@@ -2726,8 +2742,8 @@
       <c r="O22" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="R22" s="0" t="n">
-        <v>960</v>
+      <c r="R22" s="3" t="n">
+        <v>1200</v>
       </c>
       <c r="S22" s="10" t="n">
         <v>25</v>
@@ -2759,8 +2775,8 @@
       <c r="AB22" s="14" t="n">
         <v>1000</v>
       </c>
-      <c r="AC22" s="10" t="s">
-        <v>92</v>
+      <c r="AC22" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,7 +2784,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="11" t="n">
         <v>3.2</v>
@@ -2786,22 +2802,22 @@
         <v>32</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I23" s="10" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J23" s="10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K23" s="10" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L23" s="10" t="n">
         <v>1050</v>
       </c>
       <c r="M23" s="10" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>34</v>
@@ -2809,8 +2825,8 @@
       <c r="O23" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="R23" s="3" t="n">
-        <v>1200</v>
+      <c r="R23" s="0" t="n">
+        <v>960</v>
       </c>
       <c r="S23" s="10" t="n">
         <v>25</v>
@@ -2843,7 +2859,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,7 +2867,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="11" t="n">
         <v>3.2</v>
@@ -2869,22 +2885,22 @@
         <v>32</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I24" s="10" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J24" s="10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K24" s="10" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L24" s="10" t="n">
         <v>1050</v>
       </c>
       <c r="M24" s="10" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>34</v>
@@ -2892,8 +2908,8 @@
       <c r="O24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="R24" s="0" t="n">
-        <v>960</v>
+      <c r="R24" s="3" t="n">
+        <v>1200</v>
       </c>
       <c r="S24" s="10" t="n">
         <v>25</v>
@@ -2926,7 +2942,7 @@
         <v>1000</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,7 +2950,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" s="11" t="n">
         <v>3.2</v>
@@ -2952,13 +2968,13 @@
         <v>32</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I25" s="10" t="n">
         <v>100</v>
       </c>
       <c r="J25" s="10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K25" s="10" t="n">
         <v>100</v>
@@ -3041,7 +3057,7 @@
         <v>100</v>
       </c>
       <c r="J26" s="10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K26" s="10" t="n">
         <v>100</v>
@@ -3106,7 +3122,7 @@
         <v>3.2</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>84</v>
@@ -3115,19 +3131,19 @@
         <v>85</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="I27" s="10" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J27" s="10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K27" s="10" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L27" s="10" t="n">
         <v>1050</v>
@@ -3141,8 +3157,8 @@
       <c r="O27" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="R27" s="3" t="n">
-        <v>1200</v>
+      <c r="R27" s="0" t="n">
+        <v>960</v>
       </c>
       <c r="S27" s="10" t="n">
         <v>25</v>
@@ -3154,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="12" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W27" s="10" t="n">
         <v>20</v>
@@ -3175,7 +3191,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,7 +3199,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" s="11" t="n">
         <v>3.2</v>
@@ -3201,7 +3217,7 @@
         <v>86</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I28" s="10" t="n">
         <v>125</v>
@@ -3216,7 +3232,7 @@
         <v>1050</v>
       </c>
       <c r="M28" s="10" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>34</v>
@@ -3258,7 +3274,7 @@
         <v>1000</v>
       </c>
       <c r="AC28" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,16 +3282,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" s="11" t="n">
         <v>3.2</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>85</v>
@@ -3284,7 +3300,7 @@
         <v>86</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I29" s="10" t="n">
         <v>125</v>
@@ -3293,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="K29" s="10" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="L29" s="10" t="n">
         <v>1050</v>
       </c>
       <c r="M29" s="10" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>34</v>
@@ -3308,19 +3324,19 @@
         <v>87</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="S29" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T29" s="10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U29" s="10" t="n">
         <v>0</v>
       </c>
       <c r="V29" s="12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W29" s="10" t="n">
         <v>20</v>
@@ -3358,19 +3374,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I30" s="10" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J30" s="10" t="n">
         <v>8</v>
@@ -3391,7 +3407,7 @@
         <v>87</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="S30" s="10" t="n">
         <v>25</v>
@@ -3424,7 +3440,7 @@
         <v>1000</v>
       </c>
       <c r="AC30" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,7 +3448,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="11" t="n">
         <v>3.2</v>
@@ -3441,7 +3457,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>85</v>
@@ -3450,13 +3466,13 @@
         <v>32</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I31" s="10" t="n">
         <v>100</v>
       </c>
       <c r="J31" s="10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K31" s="10" t="n">
         <v>8</v>
@@ -3507,7 +3523,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,7 +3531,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" s="11" t="n">
         <v>3.2</v>
@@ -3524,7 +3540,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>85</v>
@@ -3533,13 +3549,13 @@
         <v>32</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="I32" s="10" t="n">
         <v>100</v>
       </c>
       <c r="J32" s="10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K32" s="10" t="n">
         <v>8</v>
@@ -3590,7 +3606,7 @@
         <v>1000</v>
       </c>
       <c r="AC32" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,31 +3614,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C33" s="11" t="n">
         <v>3.2</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="I33" s="10" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J33" s="10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K33" s="10" t="n">
         <v>8</v>
@@ -3640,7 +3656,7 @@
         <v>87</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="S33" s="10" t="n">
         <v>25</v>
@@ -3652,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="12" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W33" s="10" t="n">
         <v>20</v>
@@ -3673,7 +3689,7 @@
         <v>1000</v>
       </c>
       <c r="AC33" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,28 +3697,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" s="11" t="n">
         <v>3.2</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="I34" s="10" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J34" s="10" t="n">
         <v>8</v>
@@ -3723,7 +3739,7 @@
         <v>87</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="S34" s="10" t="n">
         <v>25</v>
@@ -3735,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W34" s="10" t="n">
         <v>20</v>
@@ -3756,7 +3772,7 @@
         <v>1000</v>
       </c>
       <c r="AC34" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,7 +3780,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" s="11" t="n">
         <v>3.2</v>
@@ -3773,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>85</v>
@@ -3782,13 +3798,13 @@
         <v>32</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I35" s="10" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J35" s="10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K35" s="10" t="n">
         <v>8</v>
@@ -3797,7 +3813,7 @@
         <v>1050</v>
       </c>
       <c r="M35" s="10" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>34</v>
@@ -3806,7 +3822,7 @@
         <v>87</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="S35" s="10" t="n">
         <v>25</v>
@@ -3839,60 +3855,66 @@
         <v>1000</v>
       </c>
       <c r="AC35" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" s="11" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>30</v>
+      <c r="E36" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="I36" s="10" t="n">
-        <v>370</v>
+        <v>125</v>
       </c>
       <c r="J36" s="10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K36" s="10" t="n">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="L36" s="10" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M36" s="10" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O36" s="10" t="s">
-        <v>35</v>
+      <c r="O36" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>960</v>
+        <v>900</v>
+      </c>
+      <c r="S36" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T36" s="10" t="n">
+        <v>20</v>
       </c>
       <c r="U36" s="10" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="V36" s="12" t="n">
         <v>35</v>
@@ -3901,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="X36" s="12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y36" s="10" t="n">
         <v>15</v>
@@ -3913,13 +3935,13 @@
         <v>5</v>
       </c>
       <c r="AB36" s="14" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AC36" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>35</v>
       </c>
@@ -3942,16 +3964,16 @@
         <v>32</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I37" s="10" t="n">
-        <v>1200</v>
+        <v>370</v>
       </c>
       <c r="J37" s="10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K37" s="10" t="n">
-        <v>1200</v>
+        <v>370</v>
       </c>
       <c r="L37" s="10" t="n">
         <v>850</v>
@@ -3965,8 +3987,8 @@
       <c r="O37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R37" s="0" t="n">
-        <v>1300</v>
+      <c r="R37" s="3" t="n">
+        <v>960</v>
       </c>
       <c r="U37" s="10" t="n">
         <v>120</v>
@@ -3990,10 +4012,10 @@
         <v>5</v>
       </c>
       <c r="AB37" s="14" t="n">
-        <v>1300</v>
+        <v>960</v>
       </c>
       <c r="AC37" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,58 +4023,52 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" s="11" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>84</v>
+      <c r="E38" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I38" s="10" t="n">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="J38" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="K38" s="12" t="n">
-        <v>125</v>
+        <v>8</v>
+      </c>
+      <c r="K38" s="10" t="n">
+        <v>1200</v>
       </c>
       <c r="L38" s="10" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M38" s="10" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O38" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="R38" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S38" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="T38" s="10" t="n">
-        <v>50</v>
+      <c r="O38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>1300</v>
       </c>
       <c r="U38" s="10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V38" s="12" t="n">
         <v>35</v>
@@ -4061,7 +4077,7 @@
         <v>20</v>
       </c>
       <c r="X38" s="12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y38" s="10" t="n">
         <v>15</v>
@@ -4073,10 +4089,10 @@
         <v>5</v>
       </c>
       <c r="AB38" s="14" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,7 +4100,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" s="11" t="n">
         <v>3.2</v>
@@ -4093,7 +4109,7 @@
         <v>29</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>85</v>
@@ -4102,7 +4118,7 @@
         <v>32</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I39" s="10" t="n">
         <v>125</v>
@@ -4110,8 +4126,8 @@
       <c r="J39" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="K39" s="10" t="n">
-        <v>8</v>
+      <c r="K39" s="12" t="n">
+        <v>125</v>
       </c>
       <c r="L39" s="10" t="n">
         <v>1050</v>
@@ -4126,13 +4142,13 @@
         <v>87</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="S39" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T39" s="10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U39" s="10" t="n">
         <v>0</v>
@@ -4159,60 +4175,66 @@
         <v>1000</v>
       </c>
       <c r="AC39" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="11" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>132</v>
+      <c r="H40" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="I40" s="10" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="J40" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K40" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="K40" s="10" t="n">
-        <v>280</v>
-      </c>
       <c r="L40" s="10" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M40" s="10" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O40" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R40" s="0" t="n">
-        <v>1300</v>
+      <c r="O40" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R40" s="3" t="n">
+        <v>900</v>
+      </c>
+      <c r="S40" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T40" s="10" t="n">
+        <v>20</v>
       </c>
       <c r="U40" s="10" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="V40" s="12" t="n">
         <v>35</v>
@@ -4221,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="X40" s="12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y40" s="10" t="n">
         <v>15</v>
@@ -4233,13 +4255,13 @@
         <v>5</v>
       </c>
       <c r="AB40" s="14" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="AC40" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>39</v>
       </c>
@@ -4253,7 +4275,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>31</v>
@@ -4265,31 +4287,31 @@
         <v>135</v>
       </c>
       <c r="I41" s="10" t="n">
-        <v>3500</v>
+        <v>280</v>
       </c>
       <c r="J41" s="10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K41" s="10" t="n">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="L41" s="10" t="n">
         <v>850</v>
       </c>
       <c r="M41" s="10" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O41" s="12" t="s">
-        <v>42</v>
+      <c r="O41" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>540</v>
+        <v>1300</v>
       </c>
       <c r="U41" s="10" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V41" s="12" t="n">
         <v>35</v>
@@ -4309,14 +4331,14 @@
       <c r="AA41" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB41" s="16" t="n">
-        <v>750</v>
+      <c r="AB41" s="14" t="n">
+        <v>1300</v>
       </c>
       <c r="AC41" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>40</v>
       </c>
@@ -4339,16 +4361,16 @@
         <v>32</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I42" s="10" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J42" s="10" t="n">
         <v>2</v>
       </c>
       <c r="K42" s="10" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="L42" s="10" t="n">
         <v>850</v>
@@ -4390,15 +4412,15 @@
         <v>750</v>
       </c>
       <c r="AC42" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" s="11" t="n">
         <v>2.7</v>
@@ -4407,43 +4429,43 @@
         <v>29</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="I43" s="10" t="n">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="J43" s="10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K43" s="10" t="n">
-        <v>1200</v>
+        <v>7.5</v>
       </c>
       <c r="L43" s="10" t="n">
         <v>850</v>
       </c>
       <c r="M43" s="10" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O43" s="10" t="s">
-        <v>35</v>
+      <c r="O43" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>1300</v>
+        <v>540</v>
       </c>
       <c r="U43" s="10" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V43" s="12" t="n">
         <v>35</v>
@@ -4463,73 +4485,64 @@
       <c r="AA43" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB43" s="14" t="n">
-        <v>1300</v>
+      <c r="AB43" s="16" t="n">
+        <v>750</v>
       </c>
       <c r="AC43" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" s="11" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="I44" s="10" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J44" s="10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K44" s="10" t="n">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="L44" s="10" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M44" s="10" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O44" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q44" s="15" t="n">
-        <v>480</v>
+      <c r="O44" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="S44" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="T44" s="10" t="n">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="U44" s="10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V44" s="12" t="n">
         <v>35</v>
@@ -4538,7 +4551,7 @@
         <v>20</v>
       </c>
       <c r="X44" s="12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y44" s="10" t="n">
         <v>15</v>
@@ -4550,7 +4563,7 @@
         <v>5</v>
       </c>
       <c r="AB44" s="14" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="AC44" s="10" t="s">
         <v>143</v>
@@ -4570,7 +4583,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>85</v>
@@ -4588,7 +4601,7 @@
         <v>2</v>
       </c>
       <c r="K45" s="10" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="L45" s="10" t="n">
         <v>1050</v>
@@ -4600,19 +4613,19 @@
         <v>34</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="Q45" s="15" t="n">
-        <v>900</v>
-      </c>
-      <c r="R45" s="3" t="n">
-        <v>900</v>
+        <v>480</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>480</v>
       </c>
       <c r="S45" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T45" s="10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U45" s="10" t="n">
         <v>0</v>
@@ -4639,7 +4652,7 @@
         <v>1000</v>
       </c>
       <c r="AC45" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4660,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C46" s="11" t="n">
         <v>3.2</v>
@@ -4656,7 +4669,7 @@
         <v>29</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>85</v>
@@ -4665,16 +4678,16 @@
         <v>32</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="I46" s="10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K46" s="10" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="L46" s="10" t="n">
         <v>1050</v>
@@ -4688,14 +4701,17 @@
       <c r="O46" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="R46" s="0" t="n">
-        <v>960</v>
+      <c r="Q46" s="15" t="n">
+        <v>900</v>
+      </c>
+      <c r="R46" s="3" t="n">
+        <v>900</v>
       </c>
       <c r="S46" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T46" s="10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U46" s="10" t="n">
         <v>0</v>
@@ -4739,7 +4755,7 @@
         <v>29</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>85</v>
@@ -4748,7 +4764,7 @@
         <v>32</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I47" s="10" t="n">
         <v>100</v>
@@ -4757,7 +4773,7 @@
         <v>12</v>
       </c>
       <c r="K47" s="10" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L47" s="10" t="n">
         <v>1050</v>
@@ -4771,14 +4787,14 @@
       <c r="O47" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="R47" s="3" t="n">
-        <v>720</v>
+      <c r="R47" s="0" t="n">
+        <v>960</v>
       </c>
       <c r="S47" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T47" s="10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U47" s="10" t="n">
         <v>0</v>
@@ -4805,60 +4821,66 @@
         <v>1000</v>
       </c>
       <c r="AC47" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="I48" s="10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J48" s="10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K48" s="10" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L48" s="10" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M48" s="10" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O48" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>777</v>
+      <c r="O48" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R48" s="3" t="n">
+        <v>720</v>
+      </c>
+      <c r="S48" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T48" s="10" t="n">
+        <v>20</v>
       </c>
       <c r="U48" s="10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V48" s="12" t="n">
         <v>35</v>
@@ -4867,7 +4889,7 @@
         <v>20</v>
       </c>
       <c r="X48" s="12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y48" s="10" t="n">
         <v>15</v>
@@ -4878,19 +4900,19 @@
       <c r="AA48" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB48" s="16" t="n">
-        <v>750</v>
+      <c r="AB48" s="14" t="n">
+        <v>1000</v>
       </c>
       <c r="AC48" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C49" s="11" t="n">
         <v>2.7</v>
@@ -4905,10 +4927,10 @@
         <v>31</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I49" s="10" t="n">
         <v>120</v>
@@ -4955,19 +4977,19 @@
       <c r="AA49" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB49" s="0" t="n">
+      <c r="AB49" s="16" t="n">
         <v>750</v>
       </c>
       <c r="AC49" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" s="11" t="n">
         <v>2.7</v>
@@ -4975,8 +4997,8 @@
       <c r="D50" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>30</v>
+      <c r="E50" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>31</v>
@@ -4985,34 +5007,34 @@
         <v>38</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I50" s="10" t="n">
-        <v>460</v>
-      </c>
-      <c r="J50" s="12" t="n">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="J50" s="10" t="n">
+        <v>10</v>
       </c>
       <c r="K50" s="10" t="n">
-        <v>460</v>
+        <v>30</v>
       </c>
       <c r="L50" s="10" t="n">
         <v>850</v>
       </c>
       <c r="M50" s="10" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>34</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>728</v>
+        <v>777</v>
       </c>
       <c r="U50" s="10" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V50" s="12" t="n">
         <v>35</v>
@@ -5032,19 +5054,19 @@
       <c r="AA50" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB50" s="3" t="n">
-        <v>1300</v>
+      <c r="AB50" s="0" t="n">
+        <v>750</v>
       </c>
       <c r="AC50" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" s="11" t="n">
         <v>2.7</v>
@@ -5059,19 +5081,19 @@
         <v>31</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="I51" s="10" t="n">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="J51" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K51" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K51" s="10" t="n">
+        <v>460</v>
       </c>
       <c r="L51" s="10" t="n">
         <v>850</v>
@@ -5079,17 +5101,17 @@
       <c r="M51" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="N51" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>59</v>
+      <c r="N51" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="U51" s="12" t="n">
-        <v>0</v>
+        <v>728</v>
+      </c>
+      <c r="U51" s="10" t="n">
+        <v>120</v>
       </c>
       <c r="V51" s="12" t="n">
         <v>35</v>
@@ -5113,68 +5135,59 @@
         <v>1300</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C52" s="11" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>84</v>
+      <c r="E52" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>160</v>
+      <c r="H52" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="I52" s="10" t="n">
-        <v>125</v>
-      </c>
-      <c r="J52" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J52" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K52" s="10" t="n">
-        <v>125</v>
+      <c r="K52" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="L52" s="10" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M52" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q52" s="15" t="n">
-        <v>1200</v>
+        <v>59</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S52" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="T52" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="U52" s="10" t="n">
+        <v>360</v>
+      </c>
+      <c r="U52" s="12" t="n">
         <v>0</v>
       </c>
       <c r="V52" s="12" t="n">
@@ -5184,7 +5197,7 @@
         <v>20</v>
       </c>
       <c r="X52" s="12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y52" s="10" t="n">
         <v>15</v>
@@ -5195,8 +5208,8 @@
       <c r="AA52" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB52" s="14" t="n">
-        <v>1000</v>
+      <c r="AB52" s="3" t="n">
+        <v>1300</v>
       </c>
       <c r="AC52" s="10" t="s">
         <v>161</v>
@@ -5216,7 +5229,7 @@
         <v>29</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>85</v>
@@ -5225,16 +5238,16 @@
         <v>32</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I53" s="10" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J53" s="10" t="n">
         <v>8</v>
       </c>
       <c r="K53" s="10" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="L53" s="10" t="n">
         <v>1050</v>
@@ -5249,16 +5262,16 @@
         <v>87</v>
       </c>
       <c r="Q53" s="15" t="n">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="S53" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T53" s="10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U53" s="10" t="n">
         <v>0</v>
@@ -5285,15 +5298,15 @@
         <v>1000</v>
       </c>
       <c r="AC53" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C54" s="11" t="n">
         <v>3.2</v>
@@ -5302,25 +5315,25 @@
         <v>29</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="I54" s="10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J54" s="10" t="n">
         <v>8</v>
       </c>
       <c r="K54" s="10" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L54" s="10" t="n">
         <v>1050</v>
@@ -5331,20 +5344,20 @@
       <c r="N54" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O54" s="10" t="s">
-        <v>142</v>
+      <c r="O54" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="Q54" s="15" t="n">
-        <v>960</v>
-      </c>
-      <c r="R54" s="3" t="n">
-        <v>960</v>
+        <v>720</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>720</v>
       </c>
       <c r="S54" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T54" s="10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U54" s="10" t="n">
         <v>0</v>
@@ -5371,62 +5384,68 @@
         <v>1000</v>
       </c>
       <c r="AC54" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C55" s="11" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>41</v>
       </c>
       <c r="I55" s="10" t="n">
-        <v>500</v>
-      </c>
-      <c r="J55" s="12" t="n">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J55" s="10" t="n">
+        <v>8</v>
       </c>
       <c r="K55" s="10" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L55" s="10" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M55" s="10" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="Q55" s="15" t="n">
-        <v>1200</v>
-      </c>
-      <c r="R55" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="U55" s="3" t="n">
+        <v>960</v>
+      </c>
+      <c r="R55" s="3" t="n">
+        <v>960</v>
+      </c>
+      <c r="S55" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T55" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="U55" s="10" t="n">
         <v>0</v>
       </c>
       <c r="V55" s="12" t="n">
@@ -5436,7 +5455,7 @@
         <v>20</v>
       </c>
       <c r="X55" s="12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y55" s="10" t="n">
         <v>15</v>
@@ -5447,31 +5466,31 @@
       <c r="AA55" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB55" s="3" t="n">
-        <v>1300</v>
+      <c r="AB55" s="14" t="n">
+        <v>1000</v>
       </c>
       <c r="AC55" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C56" s="11" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>38</v>
@@ -5480,49 +5499,43 @@
         <v>41</v>
       </c>
       <c r="I56" s="10" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="J56" s="12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K56" s="10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L56" s="10" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M56" s="10" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O56" s="12" t="s">
-        <v>87</v>
+        <v>29</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="Q56" s="15" t="n">
-        <v>900</v>
-      </c>
-      <c r="R56" s="3" t="n">
-        <v>900</v>
-      </c>
-      <c r="S56" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="T56" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="U56" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="U56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V56" s="12" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W56" s="10" t="n">
         <v>20</v>
       </c>
       <c r="X56" s="12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y56" s="10" t="n">
         <v>15</v>
@@ -5533,11 +5546,11 @@
       <c r="AA56" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB56" s="14" t="n">
-        <v>1000</v>
+      <c r="AB56" s="3" t="n">
+        <v>1300</v>
       </c>
       <c r="AC56" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,7 +5558,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C57" s="11" t="n">
         <v>3.2</v>
@@ -5554,7 +5567,7 @@
         <v>34</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>85</v>
@@ -5572,7 +5585,7 @@
         <v>6</v>
       </c>
       <c r="K57" s="10" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L57" s="10" t="n">
         <v>1050</v>
@@ -5587,16 +5600,16 @@
         <v>87</v>
       </c>
       <c r="Q57" s="15" t="n">
-        <v>1200</v>
-      </c>
-      <c r="R57" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
+      </c>
+      <c r="R57" s="3" t="n">
+        <v>900</v>
       </c>
       <c r="S57" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T57" s="10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U57" s="10" t="n">
         <v>0</v>
@@ -5623,27 +5636,27 @@
         <v>1000</v>
       </c>
       <c r="AC57" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" s="11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>30</v>
+        <v>3.2</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>38</v>
@@ -5652,34 +5665,40 @@
         <v>41</v>
       </c>
       <c r="I58" s="10" t="n">
-        <v>280</v>
-      </c>
-      <c r="J58" s="10" t="n">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="J58" s="12" t="n">
+        <v>6</v>
       </c>
       <c r="K58" s="10" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="L58" s="10" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M58" s="10" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O58" s="10" t="s">
-        <v>35</v>
+      <c r="O58" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="Q58" s="15" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
+      </c>
+      <c r="S58" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T58" s="10" t="n">
+        <v>50</v>
       </c>
       <c r="U58" s="10" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V58" s="12" t="n">
         <v>45</v>
@@ -5688,7 +5707,7 @@
         <v>20</v>
       </c>
       <c r="X58" s="12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y58" s="10" t="n">
         <v>15</v>
@@ -5699,11 +5718,11 @@
       <c r="AA58" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB58" s="3" t="n">
-        <v>1300</v>
+      <c r="AB58" s="14" t="n">
+        <v>1000</v>
       </c>
       <c r="AC58" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5711,7 +5730,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C59" s="11" t="n">
         <v>2.7</v>
@@ -5719,7 +5738,7 @@
       <c r="D59" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -5731,35 +5750,35 @@
       <c r="H59" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="12" t="n">
-        <v>150</v>
-      </c>
-      <c r="J59" s="12" t="n">
+      <c r="I59" s="10" t="n">
+        <v>280</v>
+      </c>
+      <c r="J59" s="10" t="n">
         <v>8</v>
       </c>
       <c r="K59" s="10" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="L59" s="10" t="n">
         <v>850</v>
       </c>
       <c r="M59" s="10" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="15" t="n">
-        <v>360</v>
+        <v>1300</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="U59" s="3" t="n">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="U59" s="10" t="n">
+        <v>90</v>
       </c>
       <c r="V59" s="12" t="n">
         <v>45</v>
@@ -5779,19 +5798,19 @@
       <c r="AA59" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB59" s="14" t="n">
+      <c r="AB59" s="3" t="n">
         <v>1300</v>
       </c>
       <c r="AC59" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C60" s="11" t="n">
         <v>2.7</v>
@@ -5799,7 +5818,7 @@
       <c r="D60" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -5811,35 +5830,35 @@
       <c r="H60" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="10" t="n">
-        <v>120</v>
-      </c>
-      <c r="J60" s="10" t="n">
-        <v>10</v>
+      <c r="I60" s="12" t="n">
+        <v>150</v>
+      </c>
+      <c r="J60" s="12" t="n">
+        <v>8</v>
       </c>
       <c r="K60" s="10" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L60" s="10" t="n">
         <v>850</v>
       </c>
       <c r="M60" s="10" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="Q60" s="15" t="n">
-        <v>777</v>
+        <v>360</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>777</v>
-      </c>
-      <c r="U60" s="10" t="n">
-        <v>10</v>
+        <v>360</v>
+      </c>
+      <c r="U60" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V60" s="12" t="n">
         <v>45</v>
@@ -5859,28 +5878,28 @@
       <c r="AA60" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB60" s="16" t="n">
-        <v>750</v>
+      <c r="AB60" s="14" t="n">
+        <v>1300</v>
       </c>
       <c r="AC60" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C61" s="11" t="n">
         <v>2.7</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>55</v>
+      <c r="D61" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>31</v>
@@ -5889,12 +5908,12 @@
         <v>38</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I61" s="10" t="n">
         <v>120</v>
       </c>
-      <c r="J61" s="12" t="n">
+      <c r="J61" s="10" t="n">
         <v>10</v>
       </c>
       <c r="K61" s="10" t="n">
@@ -5904,7 +5923,7 @@
         <v>850</v>
       </c>
       <c r="M61" s="10" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>34</v>
@@ -5939,82 +5958,76 @@
       <c r="AA61" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB61" s="0" t="n">
+      <c r="AB61" s="16" t="n">
         <v>750</v>
       </c>
       <c r="AC61" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C62" s="11" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I62" s="10" t="n">
-        <v>125</v>
-      </c>
-      <c r="J62" s="10" t="n">
-        <v>8</v>
+        <v>120</v>
+      </c>
+      <c r="J62" s="12" t="n">
+        <v>10</v>
       </c>
       <c r="K62" s="10" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L62" s="10" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M62" s="10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O62" s="12" t="s">
-        <v>87</v>
+      <c r="O62" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="Q62" s="15" t="n">
-        <v>900</v>
-      </c>
-      <c r="R62" s="3" t="n">
-        <v>900</v>
-      </c>
-      <c r="S62" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="T62" s="10" t="n">
-        <v>20</v>
+        <v>777</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>777</v>
       </c>
       <c r="U62" s="10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V62" s="12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W62" s="10" t="n">
         <v>20</v>
       </c>
       <c r="X62" s="12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y62" s="10" t="n">
         <v>15</v>
@@ -6025,11 +6038,11 @@
       <c r="AA62" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB62" s="14" t="n">
-        <v>1000</v>
+      <c r="AB62" s="0" t="n">
+        <v>750</v>
       </c>
       <c r="AC62" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6037,7 +6050,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" s="11" t="n">
         <v>3.2</v>
@@ -6046,7 +6059,7 @@
         <v>29</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>85</v>
@@ -6064,13 +6077,13 @@
         <v>8</v>
       </c>
       <c r="K63" s="10" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L63" s="10" t="n">
         <v>1050</v>
       </c>
       <c r="M63" s="10" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>34</v>
@@ -6079,16 +6092,16 @@
         <v>87</v>
       </c>
       <c r="Q63" s="15" t="n">
-        <v>1200</v>
-      </c>
-      <c r="R63" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
+      </c>
+      <c r="R63" s="3" t="n">
+        <v>900</v>
       </c>
       <c r="S63" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T63" s="10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U63" s="10" t="n">
         <v>0</v>
@@ -6115,63 +6128,69 @@
         <v>1000</v>
       </c>
       <c r="AC63" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C64" s="11" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>30</v>
+      <c r="E64" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="F64" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="10" t="n">
+        <v>125</v>
+      </c>
+      <c r="J64" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K64" s="10" t="n">
+        <v>125</v>
+      </c>
+      <c r="L64" s="10" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M64" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I64" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="J64" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="K64" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="L64" s="10" t="n">
-        <v>850</v>
-      </c>
-      <c r="M64" s="10" t="n">
-        <v>1020</v>
-      </c>
       <c r="N64" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O64" s="10" t="s">
-        <v>35</v>
+      <c r="O64" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="Q64" s="15" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R64" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
+      </c>
+      <c r="S64" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T64" s="10" t="n">
+        <v>50</v>
       </c>
       <c r="U64" s="10" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V64" s="12" t="n">
         <v>35</v>
@@ -6180,7 +6199,7 @@
         <v>20</v>
       </c>
       <c r="X64" s="12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y64" s="10" t="n">
         <v>15</v>
@@ -6192,13 +6211,13 @@
         <v>5</v>
       </c>
       <c r="AB64" s="14" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="AC64" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
         <v>63</v>
       </c>
@@ -6211,32 +6230,32 @@
       <c r="D65" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>55</v>
+      <c r="E65" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>188</v>
       </c>
       <c r="I65" s="10" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="J65" s="10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K65" s="10" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="L65" s="10" t="n">
         <v>850</v>
       </c>
       <c r="M65" s="10" t="n">
-        <v>50</v>
+        <v>1020</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>34</v>
@@ -6245,13 +6264,13 @@
         <v>35</v>
       </c>
       <c r="Q65" s="15" t="n">
-        <v>960</v>
-      </c>
-      <c r="R65" s="3" t="n">
-        <v>960</v>
+        <v>1300</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>1300</v>
       </c>
       <c r="U65" s="10" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V65" s="12" t="n">
         <v>35</v>
@@ -6272,7 +6291,7 @@
         <v>5</v>
       </c>
       <c r="AB65" s="14" t="n">
-        <v>960</v>
+        <v>1300</v>
       </c>
       <c r="AC65" s="10" t="s">
         <v>189</v>
@@ -6286,43 +6305,43 @@
         <v>190</v>
       </c>
       <c r="C66" s="11" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>86</v>
+        <v>31</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I66" s="10" t="n">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="J66" s="10" t="n">
         <v>6</v>
       </c>
       <c r="K66" s="10" t="n">
-        <v>8</v>
+        <v>370</v>
       </c>
       <c r="L66" s="10" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M66" s="10" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O66" s="12" t="s">
-        <v>87</v>
+      <c r="O66" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="Q66" s="15" t="n">
         <v>960</v>
@@ -6330,23 +6349,17 @@
       <c r="R66" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="S66" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="T66" s="10" t="n">
-        <v>20</v>
-      </c>
       <c r="U66" s="10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V66" s="12" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W66" s="10" t="n">
         <v>20</v>
       </c>
       <c r="X66" s="12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y66" s="10" t="n">
         <v>15</v>
@@ -6358,7 +6371,7 @@
         <v>5</v>
       </c>
       <c r="AB66" s="14" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AC66" s="10" t="s">
         <v>191</v>
@@ -6378,7 +6391,7 @@
         <v>34</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>85</v>
@@ -6396,13 +6409,13 @@
         <v>6</v>
       </c>
       <c r="K67" s="10" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L67" s="10" t="n">
         <v>1050</v>
       </c>
       <c r="M67" s="10" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>34</v>
@@ -6411,16 +6424,16 @@
         <v>87</v>
       </c>
       <c r="Q67" s="15" t="n">
-        <v>1200</v>
-      </c>
-      <c r="R67" s="0" t="n">
-        <v>1200</v>
+        <v>960</v>
+      </c>
+      <c r="R67" s="3" t="n">
+        <v>960</v>
       </c>
       <c r="S67" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T67" s="10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U67" s="10" t="n">
         <v>0</v>
@@ -6450,7 +6463,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
         <v>66</v>
       </c>
@@ -6458,52 +6471,58 @@
         <v>194</v>
       </c>
       <c r="C68" s="11" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>30</v>
+      <c r="E68" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>41</v>
       </c>
       <c r="I68" s="10" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="J68" s="10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K68" s="10" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="L68" s="10" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M68" s="10" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O68" s="10" t="s">
-        <v>35</v>
+      <c r="O68" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="Q68" s="15" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R68" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
+      </c>
+      <c r="S68" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T68" s="10" t="n">
+        <v>50</v>
       </c>
       <c r="U68" s="10" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V68" s="12" t="n">
         <v>45</v>
@@ -6512,7 +6531,7 @@
         <v>20</v>
       </c>
       <c r="X68" s="12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y68" s="10" t="n">
         <v>15</v>
@@ -6523,14 +6542,14 @@
       <c r="AA68" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" s="3" t="n">
-        <v>1300</v>
+      <c r="AB68" s="14" t="n">
+        <v>1000</v>
       </c>
       <c r="AC68" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
         <v>67</v>
       </c>
@@ -6541,7 +6560,7 @@
         <v>2.7</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>30</v>
@@ -6553,16 +6572,16 @@
         <v>38</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="I69" s="10" t="n">
-        <v>1200</v>
+        <v>280</v>
       </c>
       <c r="J69" s="10" t="n">
         <v>8</v>
       </c>
       <c r="K69" s="10" t="n">
-        <v>1200</v>
+        <v>280</v>
       </c>
       <c r="L69" s="10" t="n">
         <v>850</v>
@@ -6583,10 +6602,10 @@
         <v>1300</v>
       </c>
       <c r="U69" s="10" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V69" s="12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W69" s="10" t="n">
         <v>20</v>
@@ -6607,69 +6626,63 @@
         <v>1300</v>
       </c>
       <c r="AC69" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>199</v>
+      <c r="B70" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="C70" s="11" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>108</v>
+      <c r="E70" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I70" s="10" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="J70" s="10" t="n">
         <v>8</v>
       </c>
       <c r="K70" s="10" t="n">
-        <v>8</v>
+        <v>1200</v>
       </c>
       <c r="L70" s="10" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="M70" s="10" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O70" s="12" t="s">
-        <v>87</v>
+      <c r="O70" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="Q70" s="15" t="n">
-        <v>720</v>
-      </c>
-      <c r="R70" s="3" t="n">
-        <v>720</v>
-      </c>
-      <c r="S70" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="T70" s="10" t="n">
-        <v>20</v>
+        <v>1300</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>1300</v>
       </c>
       <c r="U70" s="10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V70" s="12" t="n">
         <v>35</v>
@@ -6678,7 +6691,7 @@
         <v>20</v>
       </c>
       <c r="X70" s="12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y70" s="10" t="n">
         <v>15</v>
@@ -6689,19 +6702,19 @@
       <c r="AA70" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB70" s="14" t="n">
-        <v>1000</v>
+      <c r="AB70" s="3" t="n">
+        <v>1300</v>
       </c>
       <c r="AC70" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>202</v>
+      <c r="B71" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="C71" s="11" t="n">
         <v>3.2</v>
@@ -6710,7 +6723,7 @@
         <v>29</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>85</v>
@@ -6719,7 +6732,7 @@
         <v>32</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I71" s="10" t="n">
         <v>100</v>
@@ -6728,7 +6741,7 @@
         <v>8</v>
       </c>
       <c r="K71" s="10" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="L71" s="10" t="n">
         <v>1050</v>
@@ -6743,16 +6756,16 @@
         <v>87</v>
       </c>
       <c r="Q71" s="15" t="n">
-        <v>960</v>
-      </c>
-      <c r="R71" s="0" t="n">
-        <v>960</v>
+        <v>720</v>
+      </c>
+      <c r="R71" s="3" t="n">
+        <v>720</v>
       </c>
       <c r="S71" s="10" t="n">
         <v>25</v>
       </c>
       <c r="T71" s="10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U71" s="10" t="n">
         <v>0</v>
@@ -6782,7 +6795,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
         <v>70</v>
       </c>
@@ -6790,52 +6803,58 @@
         <v>204</v>
       </c>
       <c r="C72" s="11" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>30</v>
+      <c r="E72" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="12" t="s">
-        <v>33</v>
+      <c r="H72" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="I72" s="10" t="n">
-        <v>370</v>
-      </c>
-      <c r="J72" s="12" t="n">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="J72" s="10" t="n">
+        <v>8</v>
       </c>
       <c r="K72" s="10" t="n">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="L72" s="10" t="n">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="M72" s="10" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="10" t="s">
-        <v>35</v>
+      <c r="O72" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="Q72" s="15" t="n">
-        <v>1300</v>
+        <v>960</v>
       </c>
       <c r="R72" s="0" t="n">
-        <v>1300</v>
+        <v>960</v>
+      </c>
+      <c r="S72" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T72" s="10" t="n">
+        <v>50</v>
       </c>
       <c r="U72" s="10" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="V72" s="12" t="n">
         <v>35</v>
@@ -6844,7 +6863,7 @@
         <v>20</v>
       </c>
       <c r="X72" s="12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y72" s="10" t="n">
         <v>15</v>
@@ -6856,13 +6875,13 @@
         <v>5</v>
       </c>
       <c r="AB72" s="14" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AC72" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
         <v>71</v>
       </c>
@@ -6884,17 +6903,17 @@
       <c r="G73" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>71</v>
+      <c r="H73" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="I73" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="J73" s="10" t="n">
-        <v>9</v>
+        <v>370</v>
+      </c>
+      <c r="J73" s="12" t="n">
+        <v>6</v>
       </c>
       <c r="K73" s="10" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="L73" s="10" t="n">
         <v>850</v>
@@ -6915,7 +6934,7 @@
         <v>1300</v>
       </c>
       <c r="U73" s="10" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V73" s="12" t="n">
         <v>35</v>
@@ -6936,13 +6955,13 @@
         <v>5</v>
       </c>
       <c r="AB73" s="14" t="n">
-        <v>1300</v>
+        <v>960</v>
       </c>
       <c r="AC73" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
         <v>72</v>
       </c>
@@ -6953,7 +6972,7 @@
         <v>2.7</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>30</v>
@@ -6962,19 +6981,19 @@
         <v>31</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>185</v>
+        <v>32</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="I74" s="10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J74" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="K74" s="12" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K74" s="10" t="n">
+        <v>200</v>
       </c>
       <c r="L74" s="10" t="n">
         <v>850</v>
@@ -6982,23 +7001,23 @@
       <c r="M74" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="N74" s="12" t="s">
-        <v>29</v>
+      <c r="N74" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="O74" s="10" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="Q74" s="15" t="n">
-        <v>240</v>
-      </c>
-      <c r="R74" s="3" t="n">
-        <v>240</v>
-      </c>
-      <c r="U74" s="12" t="n">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="U74" s="10" t="n">
+        <v>90</v>
       </c>
       <c r="V74" s="12" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W74" s="10" t="n">
         <v>20</v>
@@ -7022,7 +7041,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
         <v>73</v>
       </c>
@@ -7032,7 +7051,7 @@
       <c r="C75" s="11" t="n">
         <v>2.7</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E75" s="12" t="s">
@@ -7044,17 +7063,17 @@
       <c r="G75" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H75" s="10" t="s">
-        <v>185</v>
+      <c r="H75" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="I75" s="10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J75" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="K75" s="10" t="n">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="K75" s="12" t="n">
+        <v>1</v>
       </c>
       <c r="L75" s="10" t="n">
         <v>850</v>
@@ -7062,20 +7081,20 @@
       <c r="M75" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="N75" s="10" t="s">
-        <v>34</v>
+      <c r="N75" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="O75" s="10" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="Q75" s="15" t="n">
-        <v>777</v>
-      </c>
-      <c r="R75" s="0" t="n">
-        <v>777</v>
-      </c>
-      <c r="U75" s="10" t="n">
-        <v>10</v>
+        <v>240</v>
+      </c>
+      <c r="R75" s="3" t="n">
+        <v>240</v>
+      </c>
+      <c r="U75" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="V75" s="12" t="n">
         <v>45</v>
@@ -7095,14 +7114,14 @@
       <c r="AA75" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB75" s="16" t="n">
-        <v>750</v>
+      <c r="AB75" s="14" t="n">
+        <v>1300</v>
       </c>
       <c r="AC75" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
         <v>74</v>
       </c>
@@ -7112,54 +7131,54 @@
       <c r="C76" s="11" t="n">
         <v>2.7</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>55</v>
+      <c r="D76" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="I76" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="J76" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="K76" s="12" t="n">
-        <v>200</v>
+        <v>120</v>
+      </c>
+      <c r="J76" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K76" s="10" t="n">
+        <v>30</v>
       </c>
       <c r="L76" s="10" t="n">
         <v>850</v>
       </c>
       <c r="M76" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O76" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q76" s="15" t="n">
+        <v>777</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>777</v>
+      </c>
+      <c r="U76" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="V76" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="N76" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O76" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q76" s="15" t="n">
-        <v>1300</v>
-      </c>
-      <c r="R76" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U76" s="10" t="n">
-        <v>120</v>
-      </c>
-      <c r="V76" s="12" t="n">
-        <v>35</v>
-      </c>
       <c r="W76" s="10" t="n">
         <v>20</v>
       </c>
@@ -7175,19 +7194,19 @@
       <c r="AA76" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AB76" s="3" t="n">
-        <v>1300</v>
+      <c r="AB76" s="16" t="n">
+        <v>750</v>
       </c>
       <c r="AC76" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="11" t="n">
         <v>2.7</v>
@@ -7202,25 +7221,25 @@
         <v>31</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="I77" s="10" t="n">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="J77" s="12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K77" s="12" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L77" s="10" t="n">
         <v>850</v>
       </c>
       <c r="M77" s="10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N77" s="10" t="s">
         <v>34</v>
@@ -7229,13 +7248,13 @@
         <v>35</v>
       </c>
       <c r="Q77" s="15" t="n">
-        <v>540</v>
+        <v>1300</v>
       </c>
       <c r="R77" s="0" t="n">
-        <v>540</v>
+        <v>1300</v>
       </c>
       <c r="U77" s="10" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V77" s="12" t="n">
         <v>35</v>
@@ -7256,15 +7275,95 @@
         <v>5</v>
       </c>
       <c r="AB77" s="3" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="AC77" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I78" s="10" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J78" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K78" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="L78" s="10" t="n">
+        <v>850</v>
+      </c>
+      <c r="M78" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="N78" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q78" s="15" t="n">
+        <v>540</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="U78" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="V78" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="W78" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="X78" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y78" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z78" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA78" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB78" s="3" t="n">
+        <v>750</v>
+      </c>
+      <c r="AC78" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AD77">
+  <autoFilter ref="A1:AD78">
     <filterColumn colId="6">
       <filters>
         <filter val="Альче"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -689,7 +689,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -738,12 +738,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -820,7 +814,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -890,10 +884,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,11 +1009,11 @@
   <dimension ref="A1:AC105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AD25" activeCellId="0" sqref="AD25"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Z8" activeCellId="0" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1280,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="Z3" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="10" t="n">
         <v>5</v>
@@ -1360,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="Z4" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="10" t="n">
         <v>5</v>
@@ -1437,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="Z5" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="10" t="n">
         <v>5</v>
@@ -1514,7 +1504,7 @@
         <v>15</v>
       </c>
       <c r="Z6" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="10" t="n">
         <v>5</v>
@@ -1591,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="Z7" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="10" t="n">
         <v>5</v>
@@ -1668,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="Z8" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="10" t="n">
         <v>5</v>
@@ -1745,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="Z9" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="10" t="n">
         <v>5</v>
@@ -1825,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="Z10" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA10" s="10" t="n">
         <v>5</v>
@@ -1902,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA11" s="10" t="n">
         <v>5</v>
@@ -1979,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="Z12" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA12" s="10" t="n">
         <v>5</v>
@@ -2056,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="10" t="n">
         <v>5</v>
@@ -2133,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="Z14" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA14" s="10" t="n">
         <v>5</v>
@@ -2210,7 +2200,7 @@
         <v>15</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="10" t="n">
         <v>5</v>
@@ -2287,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="Z16" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA16" s="10" t="n">
         <v>5</v>
@@ -2364,7 +2354,7 @@
         <v>15</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="10" t="n">
         <v>5</v>
@@ -2441,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="Z18" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA18" s="10" t="n">
         <v>5</v>
@@ -2518,7 +2508,7 @@
         <v>15</v>
       </c>
       <c r="Z19" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="10" t="n">
         <v>5</v>
@@ -2601,7 +2591,7 @@
         <v>15</v>
       </c>
       <c r="Z20" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA20" s="10" t="n">
         <v>5</v>
@@ -2684,7 +2674,7 @@
         <v>15</v>
       </c>
       <c r="Z21" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA21" s="10" t="n">
         <v>5</v>
@@ -2767,7 +2757,7 @@
         <v>15</v>
       </c>
       <c r="Z22" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA22" s="10" t="n">
         <v>5</v>
@@ -2850,7 +2840,7 @@
         <v>15</v>
       </c>
       <c r="Z23" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA23" s="10" t="n">
         <v>5</v>
@@ -2933,7 +2923,7 @@
         <v>15</v>
       </c>
       <c r="Z24" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA24" s="10" t="n">
         <v>5</v>
@@ -3016,7 +3006,7 @@
         <v>15</v>
       </c>
       <c r="Z25" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="10" t="n">
         <v>5</v>
@@ -3099,7 +3089,7 @@
         <v>15</v>
       </c>
       <c r="Z26" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA26" s="10" t="n">
         <v>5</v>
@@ -3182,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="Z27" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA27" s="10" t="n">
         <v>5</v>
@@ -3265,7 +3255,7 @@
         <v>15</v>
       </c>
       <c r="Z28" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA28" s="10" t="n">
         <v>5</v>
@@ -3348,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="Z29" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA29" s="10" t="n">
         <v>5</v>
@@ -3431,7 +3421,7 @@
         <v>15</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA30" s="10" t="n">
         <v>5</v>
@@ -3514,7 +3504,7 @@
         <v>15</v>
       </c>
       <c r="Z31" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA31" s="10" t="n">
         <v>5</v>
@@ -3597,7 +3587,7 @@
         <v>15</v>
       </c>
       <c r="Z32" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA32" s="10" t="n">
         <v>5</v>
@@ -3680,7 +3670,7 @@
         <v>15</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA33" s="10" t="n">
         <v>5</v>
@@ -3763,7 +3753,7 @@
         <v>15</v>
       </c>
       <c r="Z34" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA34" s="10" t="n">
         <v>5</v>
@@ -3846,7 +3836,7 @@
         <v>15</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA35" s="10" t="n">
         <v>5</v>
@@ -3929,7 +3919,7 @@
         <v>15</v>
       </c>
       <c r="Z36" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA36" s="10" t="n">
         <v>5</v>
@@ -4006,7 +3996,7 @@
         <v>15</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA37" s="10" t="n">
         <v>5</v>
@@ -4083,7 +4073,7 @@
         <v>15</v>
       </c>
       <c r="Z38" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA38" s="10" t="n">
         <v>5</v>
@@ -4166,7 +4156,7 @@
         <v>15</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA39" s="10" t="n">
         <v>5</v>
@@ -4249,7 +4239,7 @@
         <v>15</v>
       </c>
       <c r="Z40" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA40" s="10" t="n">
         <v>5</v>
@@ -4326,7 +4316,7 @@
         <v>15</v>
       </c>
       <c r="Z41" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA41" s="10" t="n">
         <v>5</v>
@@ -4403,7 +4393,7 @@
         <v>15</v>
       </c>
       <c r="Z42" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA42" s="10" t="n">
         <v>5</v>
@@ -4480,7 +4470,7 @@
         <v>15</v>
       </c>
       <c r="Z43" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA43" s="10" t="n">
         <v>5</v>
@@ -4557,7 +4547,7 @@
         <v>15</v>
       </c>
       <c r="Z44" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA44" s="10" t="n">
         <v>5</v>
@@ -4643,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="Z45" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA45" s="10" t="n">
         <v>5</v>
@@ -4729,7 +4719,7 @@
         <v>15</v>
       </c>
       <c r="Z46" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA46" s="10" t="n">
         <v>5</v>
@@ -4812,7 +4802,7 @@
         <v>15</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA47" s="10" t="n">
         <v>5</v>
@@ -4895,7 +4885,7 @@
         <v>15</v>
       </c>
       <c r="Z48" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA48" s="10" t="n">
         <v>5</v>
@@ -4972,7 +4962,7 @@
         <v>15</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA49" s="10" t="n">
         <v>5</v>
@@ -5049,7 +5039,7 @@
         <v>15</v>
       </c>
       <c r="Z50" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA50" s="10" t="n">
         <v>5</v>
@@ -5126,7 +5116,7 @@
         <v>15</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA51" s="10" t="n">
         <v>5</v>
@@ -5203,7 +5193,7 @@
         <v>15</v>
       </c>
       <c r="Z52" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA52" s="10" t="n">
         <v>5</v>
@@ -5289,7 +5279,7 @@
         <v>15</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA53" s="10" t="n">
         <v>5</v>
@@ -5375,7 +5365,7 @@
         <v>15</v>
       </c>
       <c r="Z54" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA54" s="10" t="n">
         <v>5</v>
@@ -5461,7 +5451,7 @@
         <v>15</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA55" s="10" t="n">
         <v>5</v>
@@ -5473,7 +5463,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
         <v>54</v>
       </c>
@@ -5541,7 +5531,7 @@
         <v>15</v>
       </c>
       <c r="Z56" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA56" s="10" t="n">
         <v>5</v>
@@ -5627,7 +5617,7 @@
         <v>15</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA57" s="10" t="n">
         <v>5</v>
@@ -5713,7 +5703,7 @@
         <v>15</v>
       </c>
       <c r="Z58" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA58" s="10" t="n">
         <v>5</v>
@@ -5725,7 +5715,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
         <v>57</v>
       </c>
@@ -5793,7 +5783,7 @@
         <v>15</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA59" s="10" t="n">
         <v>5</v>
@@ -5873,7 +5863,7 @@
         <v>15</v>
       </c>
       <c r="Z60" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA60" s="10" t="n">
         <v>5</v>
@@ -5953,7 +5943,7 @@
         <v>15</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA61" s="10" t="n">
         <v>5</v>
@@ -5965,7 +5955,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
         <v>60</v>
       </c>
@@ -6033,7 +6023,7 @@
         <v>15</v>
       </c>
       <c r="Z62" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA62" s="10" t="n">
         <v>5</v>
@@ -6119,7 +6109,7 @@
         <v>15</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA63" s="10" t="n">
         <v>5</v>
@@ -6205,7 +6195,7 @@
         <v>15</v>
       </c>
       <c r="Z64" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA64" s="10" t="n">
         <v>5</v>
@@ -6285,7 +6275,7 @@
         <v>15</v>
       </c>
       <c r="Z65" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA65" s="10" t="n">
         <v>5</v>
@@ -6365,7 +6355,7 @@
         <v>15</v>
       </c>
       <c r="Z66" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA66" s="10" t="n">
         <v>5</v>
@@ -6451,7 +6441,7 @@
         <v>15</v>
       </c>
       <c r="Z67" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA67" s="10" t="n">
         <v>5</v>
@@ -6537,7 +6527,7 @@
         <v>15</v>
       </c>
       <c r="Z68" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA68" s="10" t="n">
         <v>5</v>
@@ -6617,7 +6607,7 @@
         <v>15</v>
       </c>
       <c r="Z69" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA69" s="10" t="n">
         <v>5</v>
@@ -6697,7 +6687,7 @@
         <v>15</v>
       </c>
       <c r="Z70" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA70" s="10" t="n">
         <v>5</v>
@@ -6713,7 +6703,7 @@
       <c r="A71" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C71" s="11" t="n">
@@ -6783,7 +6773,7 @@
         <v>15</v>
       </c>
       <c r="Z71" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA71" s="10" t="n">
         <v>5</v>
@@ -6869,7 +6859,7 @@
         <v>15</v>
       </c>
       <c r="Z72" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA72" s="10" t="n">
         <v>5</v>
@@ -6949,7 +6939,7 @@
         <v>15</v>
       </c>
       <c r="Z73" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA73" s="10" t="n">
         <v>5</v>
@@ -7029,7 +7019,7 @@
         <v>15</v>
       </c>
       <c r="Z74" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA74" s="10" t="n">
         <v>5</v>
@@ -7109,7 +7099,7 @@
         <v>15</v>
       </c>
       <c r="Z75" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA75" s="10" t="n">
         <v>5</v>
@@ -7189,7 +7179,7 @@
         <v>15</v>
       </c>
       <c r="Z76" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA76" s="10" t="n">
         <v>5</v>
@@ -7269,7 +7259,7 @@
         <v>15</v>
       </c>
       <c r="Z77" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA77" s="10" t="n">
         <v>5</v>
@@ -7349,7 +7339,7 @@
         <v>15</v>
       </c>
       <c r="Z78" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA78" s="10" t="n">
         <v>5</v>
@@ -7360,6 +7350,9 @@
       <c r="AC78" s="10" t="s">
         <v>218</v>
       </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z79" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -1009,11 +1009,11 @@
   <dimension ref="A1:AC105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z8" activeCellId="0" sqref="Z8"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="Z75" activeCellId="0" sqref="Z75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1128,7 +1128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>0</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="Z2" s="13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="10" t="n">
         <v>5</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -804,11 +804,11 @@
   </sheetPr>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I59" activeCellId="0" sqref="I59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V79" activeCellId="0" sqref="V79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.09"/>
@@ -957,7 +957,7 @@
         <v>90</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>20</v>
@@ -1034,7 +1034,7 @@
         <v>120</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>20</v>
@@ -1111,7 +1111,7 @@
         <v>540</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>20</v>
@@ -1188,7 +1188,7 @@
         <v>90</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>20</v>
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>20</v>
@@ -1342,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>20</v>
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>20</v>
@@ -1496,7 +1496,7 @@
         <v>90</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>20</v>
@@ -1573,7 +1573,7 @@
         <v>288</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>20</v>
@@ -1650,7 +1650,7 @@
         <v>90</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>20</v>
@@ -1727,7 +1727,7 @@
         <v>90</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>20</v>
@@ -1804,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>20</v>
@@ -1881,7 +1881,7 @@
         <v>90</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>20</v>
@@ -1958,7 +1958,7 @@
         <v>90</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>20</v>
@@ -2035,7 +2035,7 @@
         <v>120</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>20</v>
@@ -2112,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>20</v>
@@ -2189,7 +2189,7 @@
         <v>120</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>20</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W20" s="0" t="n">
         <v>20</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W21" s="0" t="n">
         <v>20</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W22" s="0" t="n">
         <v>20</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W23" s="0" t="n">
         <v>20</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>20</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W25" s="0" t="n">
         <v>20</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W26" s="0" t="n">
         <v>20</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W27" s="0" t="n">
         <v>20</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W30" s="0" t="n">
         <v>20</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W31" s="0" t="n">
         <v>20</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W32" s="0" t="n">
         <v>20</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W33" s="0" t="n">
         <v>20</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W35" s="0" t="n">
         <v>20</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W36" s="0" t="n">
         <v>20</v>
@@ -3754,7 +3754,7 @@
         <v>90</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W37" s="0" t="n">
         <v>20</v>
@@ -3831,7 +3831,7 @@
         <v>120</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W38" s="0" t="n">
         <v>20</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W39" s="0" t="n">
         <v>20</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W40" s="0" t="n">
         <v>20</v>
@@ -4074,7 +4074,7 @@
         <v>90</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W41" s="0" t="n">
         <v>20</v>
@@ -4151,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W42" s="0" t="n">
         <v>20</v>
@@ -4228,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W43" s="0" t="n">
         <v>20</v>
@@ -4305,7 +4305,7 @@
         <v>120</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W44" s="0" t="n">
         <v>20</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W45" s="0" t="n">
         <v>20</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W46" s="0" t="n">
         <v>20</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W47" s="0" t="n">
         <v>20</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W48" s="0" t="n">
         <v>20</v>
@@ -4720,7 +4720,7 @@
         <v>10</v>
       </c>
       <c r="V49" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W49" s="0" t="n">
         <v>20</v>
@@ -4797,7 +4797,7 @@
         <v>10</v>
       </c>
       <c r="V50" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W50" s="0" t="n">
         <v>20</v>
@@ -4874,7 +4874,7 @@
         <v>90</v>
       </c>
       <c r="V51" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W51" s="0" t="n">
         <v>20</v>
@@ -4948,7 +4948,7 @@
         <v>360</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W52" s="0" t="n">
         <v>20</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W53" s="0" t="n">
         <v>20</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W54" s="0" t="n">
         <v>20</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W55" s="0" t="n">
         <v>20</v>
@@ -5283,7 +5283,7 @@
         <v>1200</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W56" s="0" t="n">
         <v>20</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W63" s="0" t="n">
         <v>20</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W64" s="0" t="n">
         <v>20</v>
@@ -6024,7 +6024,7 @@
         <v>90</v>
       </c>
       <c r="V65" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W65" s="0" t="n">
         <v>20</v>
@@ -6104,7 +6104,7 @@
         <v>90</v>
       </c>
       <c r="V66" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W66" s="0" t="n">
         <v>20</v>
@@ -6436,7 +6436,7 @@
         <v>120</v>
       </c>
       <c r="V70" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W70" s="0" t="n">
         <v>20</v>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="V71" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W71" s="0" t="n">
         <v>20</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="V72" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W72" s="0" t="n">
         <v>20</v>
@@ -6688,7 +6688,7 @@
         <v>90</v>
       </c>
       <c r="V73" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W73" s="0" t="n">
         <v>20</v>
@@ -6768,7 +6768,7 @@
         <v>90</v>
       </c>
       <c r="V74" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W74" s="0" t="n">
         <v>20</v>
@@ -7005,7 +7005,7 @@
         <v>90</v>
       </c>
       <c r="V77" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W77" s="0" t="n">
         <v>20</v>
@@ -7085,7 +7085,7 @@
         <v>10</v>
       </c>
       <c r="V78" s="0" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W78" s="0" t="n">
         <v>20</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -804,16 +804,19 @@
   </sheetPr>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V79" activeCellId="0" sqref="V79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W24" activeCellId="0" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="5" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16" min="14" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="8"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="21" min="18" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="4.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="8.72"/>
   </cols>
@@ -957,7 +960,7 @@
         <v>90</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>20</v>
@@ -1034,7 +1037,7 @@
         <v>120</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>20</v>
@@ -1111,7 +1114,7 @@
         <v>540</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>20</v>
@@ -1188,7 +1191,7 @@
         <v>90</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>20</v>
@@ -1265,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>20</v>
@@ -1342,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>20</v>
@@ -1419,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>20</v>
@@ -1496,7 +1499,7 @@
         <v>90</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>20</v>
@@ -1573,7 +1576,7 @@
         <v>288</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>20</v>
@@ -1650,7 +1653,7 @@
         <v>90</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>20</v>
@@ -1727,7 +1730,7 @@
         <v>90</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>20</v>
@@ -1804,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>20</v>
@@ -1881,7 +1884,7 @@
         <v>90</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>20</v>
@@ -1958,7 +1961,7 @@
         <v>90</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>20</v>
@@ -2035,7 +2038,7 @@
         <v>120</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>20</v>
@@ -2112,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>20</v>
@@ -2290,7 +2293,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>90</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W37" s="0" t="n">
         <v>20</v>
@@ -3831,7 +3834,7 @@
         <v>120</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W38" s="0" t="n">
         <v>20</v>
@@ -4074,7 +4077,7 @@
         <v>90</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W41" s="0" t="n">
         <v>20</v>
@@ -4151,7 +4154,7 @@
         <v>10</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W42" s="0" t="n">
         <v>20</v>
@@ -4228,7 +4231,7 @@
         <v>10</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W43" s="0" t="n">
         <v>20</v>
@@ -4305,7 +4308,7 @@
         <v>120</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W44" s="0" t="n">
         <v>20</v>
@@ -4720,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="V49" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W49" s="0" t="n">
         <v>20</v>
@@ -4797,7 +4800,7 @@
         <v>10</v>
       </c>
       <c r="V50" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W50" s="0" t="n">
         <v>20</v>
@@ -4874,7 +4877,7 @@
         <v>90</v>
       </c>
       <c r="V51" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W51" s="0" t="n">
         <v>20</v>
@@ -4948,7 +4951,7 @@
         <v>360</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W52" s="0" t="n">
         <v>20</v>
@@ -5230,7 +5233,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>1200</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W56" s="0" t="n">
         <v>20</v>
@@ -5479,7 +5482,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>90</v>
       </c>
       <c r="V65" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W65" s="0" t="n">
         <v>20</v>
@@ -6104,7 +6107,7 @@
         <v>90</v>
       </c>
       <c r="V66" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W66" s="0" t="n">
         <v>20</v>
@@ -6436,7 +6439,7 @@
         <v>120</v>
       </c>
       <c r="V70" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W70" s="0" t="n">
         <v>20</v>
@@ -6688,7 +6691,7 @@
         <v>90</v>
       </c>
       <c r="V73" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W73" s="0" t="n">
         <v>20</v>
@@ -6768,7 +6771,7 @@
         <v>90</v>
       </c>
       <c r="V74" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W74" s="0" t="n">
         <v>20</v>
@@ -7005,7 +7008,7 @@
         <v>90</v>
       </c>
       <c r="V77" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W77" s="0" t="n">
         <v>20</v>
@@ -7085,7 +7088,7 @@
         <v>10</v>
       </c>
       <c r="V78" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W78" s="0" t="n">
         <v>20</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="222">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -677,6 +677,15 @@
   </si>
   <si>
     <t xml:space="preserve">00-00008988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки "Из Лавки", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из Лавки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012176</t>
   </si>
 </sst>
 </file>
@@ -686,7 +695,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -715,6 +724,18 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -772,7 +793,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,6 +803,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -802,21 +831,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC78"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W24" activeCellId="0" sqref="W24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.09"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="5" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16" min="14" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="8"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="21" min="18" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="4.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="8.72"/>
   </cols>
@@ -7032,7 +7058,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
@@ -7112,6 +7138,84 @@
         <v>750</v>
       </c>
     </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>900</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V79" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X79" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y79" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB79" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC79" s="2" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -648,7 +648,7 @@
         <v>90</v>
       </c>
       <c r="V2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W2" t="n">
         <v>20</v>
@@ -747,7 +747,7 @@
         <v>120</v>
       </c>
       <c r="V3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W3" t="n">
         <v>20</v>
@@ -846,7 +846,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W4" t="n">
         <v>20</v>
@@ -945,7 +945,7 @@
         <v>90</v>
       </c>
       <c r="V5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W5" t="n">
         <v>20</v>
@@ -1044,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="V6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W6" t="n">
         <v>20</v>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="V7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W7" t="n">
         <v>20</v>
@@ -1242,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="V8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W8" t="n">
         <v>20</v>
@@ -1341,7 +1341,7 @@
         <v>90</v>
       </c>
       <c r="V9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W9" t="n">
         <v>20</v>
@@ -1440,7 +1440,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W10" t="n">
         <v>20</v>
@@ -1539,7 +1539,7 @@
         <v>90</v>
       </c>
       <c r="V11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W11" t="n">
         <v>20</v>
@@ -1638,7 +1638,7 @@
         <v>90</v>
       </c>
       <c r="V12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W12" t="n">
         <v>20</v>
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="V13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W13" t="n">
         <v>20</v>
@@ -1836,7 +1836,7 @@
         <v>90</v>
       </c>
       <c r="V14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W14" t="n">
         <v>20</v>
@@ -1935,7 +1935,7 @@
         <v>90</v>
       </c>
       <c r="V15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W15" t="n">
         <v>20</v>
@@ -2034,7 +2034,7 @@
         <v>120</v>
       </c>
       <c r="V16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W16" t="n">
         <v>20</v>
@@ -2133,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="V17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W17" t="n">
         <v>20</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -4181,7 +4181,7 @@
         <v>90</v>
       </c>
       <c r="V37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W37" t="n">
         <v>20</v>
@@ -4280,7 +4280,7 @@
         <v>120</v>
       </c>
       <c r="V38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W38" t="n">
         <v>20</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -4585,7 +4585,7 @@
         <v>90</v>
       </c>
       <c r="V41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W41" t="n">
         <v>20</v>
@@ -4684,7 +4684,7 @@
         <v>10</v>
       </c>
       <c r="V42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W42" t="n">
         <v>20</v>
@@ -4783,7 +4783,7 @@
         <v>10</v>
       </c>
       <c r="V43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W43" t="n">
         <v>20</v>
@@ -4882,7 +4882,7 @@
         <v>120</v>
       </c>
       <c r="V44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W44" t="n">
         <v>20</v>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -5397,7 +5397,7 @@
         <v>10</v>
       </c>
       <c r="V49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W49" t="n">
         <v>20</v>
@@ -5496,7 +5496,7 @@
         <v>10</v>
       </c>
       <c r="V50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W50" t="n">
         <v>20</v>
@@ -5595,7 +5595,7 @@
         <v>90</v>
       </c>
       <c r="V51" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W51" t="n">
         <v>20</v>
@@ -5692,7 +5692,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W52" t="n">
         <v>20</v>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -6106,7 +6106,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W56" t="n">
         <v>20</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -7029,7 +7029,7 @@
         <v>90</v>
       </c>
       <c r="V65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W65" t="n">
         <v>20</v>
@@ -7130,7 +7130,7 @@
         <v>90</v>
       </c>
       <c r="V66" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W66" t="n">
         <v>20</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
@@ -7542,7 +7542,7 @@
         <v>120</v>
       </c>
       <c r="V70" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W70" t="n">
         <v>20</v>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>малый Комет/Мультиголова</t>
+          <t>Мультиголова/малый Комет</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -7853,7 +7853,7 @@
         <v>90</v>
       </c>
       <c r="V73" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W73" t="n">
         <v>20</v>
@@ -7954,7 +7954,7 @@
         <v>90</v>
       </c>
       <c r="V74" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W74" t="n">
         <v>20</v>
@@ -8255,7 +8255,7 @@
         <v>90</v>
       </c>
       <c r="V77" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W77" t="n">
         <v>20</v>
@@ -8356,7 +8356,7 @@
         <v>10</v>
       </c>
       <c r="V78" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W78" t="n">
         <v>20</v>
@@ -8455,7 +8455,7 @@
         <v>10</v>
       </c>
       <c r="V79" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W79" t="n">
         <v>20</v>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="227">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Скорость плавления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Терка мультиголовы</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
@@ -832,10 +835,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD10" activeCellId="0" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,7 +846,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,6 +930,9 @@
       </c>
       <c r="AC1" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>200</v>
@@ -970,10 +976,10 @@
         <v>65</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>1300</v>
@@ -1000,36 +1006,39 @@
         <v>5</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC2" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD2" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1200</v>
@@ -1047,10 +1056,10 @@
         <v>65</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>1300</v>
@@ -1077,36 +1086,39 @@
         <v>5</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC3" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD3" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>3000</v>
@@ -1124,10 +1136,10 @@
         <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>540</v>
@@ -1154,36 +1166,39 @@
         <v>5</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD4" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>280</v>
@@ -1201,10 +1216,10 @@
         <v>65</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>1300</v>
@@ -1231,36 +1246,39 @@
         <v>5</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC5" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD5" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>120</v>
@@ -1278,10 +1296,10 @@
         <v>65</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>900</v>
@@ -1308,36 +1326,39 @@
         <v>5</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC6" s="0" t="n">
         <v>900</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD6" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>120</v>
@@ -1355,10 +1376,10 @@
         <v>65</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>900</v>
@@ -1385,36 +1406,39 @@
         <v>5</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC7" s="0" t="n">
         <v>900</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD7" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>120</v>
@@ -1432,10 +1456,10 @@
         <v>35</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>900</v>
@@ -1462,36 +1486,39 @@
         <v>5</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>900</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD8" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>280</v>
@@ -1509,10 +1536,10 @@
         <v>45</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>1300</v>
@@ -1539,36 +1566,39 @@
         <v>5</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC9" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD9" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>120</v>
@@ -1586,10 +1616,10 @@
         <v>45</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>288</v>
@@ -1616,36 +1646,39 @@
         <v>5</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC10" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD10" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>200</v>
@@ -1663,10 +1696,10 @@
         <v>50</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>1300</v>
@@ -1693,36 +1726,39 @@
         <v>5</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC11" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD11" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>280</v>
@@ -1740,10 +1776,10 @@
         <v>50</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>1300</v>
@@ -1770,36 +1806,39 @@
         <v>5</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC12" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD12" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>120</v>
@@ -1817,10 +1856,10 @@
         <v>65</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>900</v>
@@ -1847,36 +1886,39 @@
         <v>5</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC13" s="0" t="n">
         <v>900</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD13" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>280</v>
@@ -1894,10 +1936,10 @@
         <v>65</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>1300</v>
@@ -1924,36 +1966,39 @@
         <v>5</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC14" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD14" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>200</v>
@@ -1971,10 +2016,10 @@
         <v>65</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>1300</v>
@@ -2001,36 +2046,39 @@
         <v>5</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD15" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>1200</v>
@@ -2048,10 +2096,10 @@
         <v>65</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>1300</v>
@@ -2078,36 +2126,39 @@
         <v>5</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD16" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>120</v>
@@ -2125,10 +2176,10 @@
         <v>50</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>900</v>
@@ -2155,36 +2206,39 @@
         <v>5</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" s="0" t="n">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD17" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3.6</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>260</v>
@@ -2202,10 +2256,10 @@
         <v>120</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>600</v>
@@ -2232,36 +2286,39 @@
         <v>5</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC18" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>200</v>
@@ -2279,10 +2336,10 @@
         <v>50</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>1300</v>
@@ -2309,36 +2366,39 @@
         <v>5</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC19" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD19" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>125</v>
@@ -2356,10 +2416,10 @@
         <v>31</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>1200</v>
@@ -2392,36 +2452,39 @@
         <v>5</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC20" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD20" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>125</v>
@@ -2439,10 +2502,10 @@
         <v>31</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>1200</v>
@@ -2475,36 +2538,39 @@
         <v>5</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC21" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD21" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>125</v>
@@ -2522,10 +2588,10 @@
         <v>31</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>1200</v>
@@ -2558,36 +2624,39 @@
         <v>5</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC22" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD22" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>100</v>
@@ -2605,10 +2674,10 @@
         <v>31</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>960</v>
@@ -2641,36 +2710,39 @@
         <v>5</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC23" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD23" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>125</v>
@@ -2688,10 +2760,10 @@
         <v>25</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>1200</v>
@@ -2724,36 +2796,39 @@
         <v>5</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC24" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD24" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>100</v>
@@ -2771,10 +2846,10 @@
         <v>31</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>960</v>
@@ -2807,36 +2882,39 @@
         <v>5</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC25" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD25" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>100</v>
@@ -2854,10 +2932,10 @@
         <v>31</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>960</v>
@@ -2890,36 +2968,39 @@
         <v>5</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC26" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD26" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>100</v>
@@ -2937,10 +3018,10 @@
         <v>31</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>960</v>
@@ -2973,36 +3054,39 @@
         <v>5</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC27" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>125</v>
@@ -3020,10 +3104,10 @@
         <v>31</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>1200</v>
@@ -3056,36 +3140,39 @@
         <v>5</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC28" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD28" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>125</v>
@@ -3103,10 +3190,10 @@
         <v>25</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>1200</v>
@@ -3139,36 +3226,39 @@
         <v>5</v>
       </c>
       <c r="AB29" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC29" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD29" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>125</v>
@@ -3186,10 +3276,10 @@
         <v>31</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>900</v>
@@ -3222,36 +3312,39 @@
         <v>5</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC30" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD30" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>100</v>
@@ -3269,10 +3362,10 @@
         <v>31</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>720</v>
@@ -3305,36 +3398,39 @@
         <v>5</v>
       </c>
       <c r="AB31" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC31" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD31" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>100</v>
@@ -3352,10 +3448,10 @@
         <v>31</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>720</v>
@@ -3388,36 +3484,39 @@
         <v>5</v>
       </c>
       <c r="AB32" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC32" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>100</v>
@@ -3435,10 +3534,10 @@
         <v>31</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>720</v>
@@ -3471,36 +3570,39 @@
         <v>5</v>
       </c>
       <c r="AB33" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC33" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD33" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>125</v>
@@ -3518,10 +3620,10 @@
         <v>31</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>900</v>
@@ -3554,36 +3656,39 @@
         <v>5</v>
       </c>
       <c r="AB34" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC34" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD34" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>100</v>
@@ -3601,10 +3706,10 @@
         <v>31</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>720</v>
@@ -3637,36 +3742,39 @@
         <v>5</v>
       </c>
       <c r="AB35" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC35" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD35" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>125</v>
@@ -3684,10 +3792,10 @@
         <v>25</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R36" s="0" t="n">
         <v>900</v>
@@ -3720,36 +3828,39 @@
         <v>5</v>
       </c>
       <c r="AB36" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC36" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD36" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>370</v>
@@ -3767,10 +3878,10 @@
         <v>65</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R37" s="0" t="n">
         <v>1300</v>
@@ -3797,36 +3908,39 @@
         <v>5</v>
       </c>
       <c r="AB37" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC37" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD37" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>1200</v>
@@ -3844,10 +3958,10 @@
         <v>65</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>1300</v>
@@ -3874,36 +3988,39 @@
         <v>5</v>
       </c>
       <c r="AB38" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC38" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD38" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>125</v>
@@ -3921,10 +4038,10 @@
         <v>31</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R39" s="0" t="n">
         <v>1200</v>
@@ -3957,36 +4074,39 @@
         <v>5</v>
       </c>
       <c r="AB39" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC39" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD39" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>125</v>
@@ -4004,10 +4124,10 @@
         <v>31</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R40" s="0" t="n">
         <v>900</v>
@@ -4040,36 +4160,39 @@
         <v>5</v>
       </c>
       <c r="AB40" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC40" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD40" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>280</v>
@@ -4087,10 +4210,10 @@
         <v>45</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>1300</v>
@@ -4117,36 +4240,39 @@
         <v>5</v>
       </c>
       <c r="AB41" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC41" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD41" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>3500</v>
@@ -4164,10 +4290,10 @@
         <v>35</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R42" s="0" t="n">
         <v>540</v>
@@ -4194,36 +4320,39 @@
         <v>5</v>
       </c>
       <c r="AB42" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC42" s="0" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD42" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>3600</v>
@@ -4241,10 +4370,10 @@
         <v>35</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R43" s="0" t="n">
         <v>540</v>
@@ -4271,36 +4400,39 @@
         <v>5</v>
       </c>
       <c r="AB43" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC43" s="0" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD43" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>1200</v>
@@ -4318,10 +4450,10 @@
         <v>50</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R44" s="0" t="n">
         <v>1300</v>
@@ -4348,36 +4480,39 @@
         <v>5</v>
       </c>
       <c r="AB44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AC44" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD44" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>1000</v>
@@ -4395,10 +4530,10 @@
         <v>31</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q45" s="0" t="n">
         <v>480</v>
@@ -4434,36 +4569,39 @@
         <v>5</v>
       </c>
       <c r="AB45" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC45" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD45" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>1000</v>
@@ -4481,10 +4619,10 @@
         <v>31</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q46" s="0" t="n">
         <v>900</v>
@@ -4520,36 +4658,39 @@
         <v>5</v>
       </c>
       <c r="AB46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC46" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD46" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>100</v>
@@ -4567,10 +4708,10 @@
         <v>31</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R47" s="0" t="n">
         <v>960</v>
@@ -4603,36 +4744,39 @@
         <v>5</v>
       </c>
       <c r="AB47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC47" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD47" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>100</v>
@@ -4650,10 +4794,10 @@
         <v>31</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R48" s="0" t="n">
         <v>720</v>
@@ -4686,36 +4830,39 @@
         <v>5</v>
       </c>
       <c r="AB48" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC48" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD48" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>120</v>
@@ -4733,10 +4880,10 @@
         <v>50</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R49" s="0" t="n">
         <v>900</v>
@@ -4763,36 +4910,39 @@
         <v>5</v>
       </c>
       <c r="AB49" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AC49" s="0" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD49" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>120</v>
@@ -4810,10 +4960,10 @@
         <v>50</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R50" s="0" t="n">
         <v>900</v>
@@ -4840,36 +4990,39 @@
         <v>5</v>
       </c>
       <c r="AB50" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AC50" s="0" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD50" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>460</v>
@@ -4887,10 +5040,10 @@
         <v>65</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R51" s="0" t="n">
         <v>728</v>
@@ -4917,36 +5070,39 @@
         <v>5</v>
       </c>
       <c r="AB51" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AC51" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD51" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>150</v>
@@ -4964,10 +5120,10 @@
         <v>65</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R52" s="0" t="n">
         <v>360</v>
@@ -4991,36 +5147,39 @@
         <v>5</v>
       </c>
       <c r="AB52" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC52" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD52" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>125</v>
@@ -5038,10 +5197,10 @@
         <v>31</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q53" s="0" t="n">
         <v>1200</v>
@@ -5077,36 +5236,39 @@
         <v>5</v>
       </c>
       <c r="AB53" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC53" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD53" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>100</v>
@@ -5124,10 +5286,10 @@
         <v>31</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q54" s="0" t="n">
         <v>720</v>
@@ -5163,36 +5325,39 @@
         <v>5</v>
       </c>
       <c r="AB54" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC54" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD54" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>200</v>
@@ -5210,10 +5375,10 @@
         <v>31</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q55" s="0" t="n">
         <v>960</v>
@@ -5249,36 +5414,39 @@
         <v>5</v>
       </c>
       <c r="AB55" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC55" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD55" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>500</v>
@@ -5296,10 +5464,10 @@
         <v>45</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q56" s="0" t="n">
         <v>1200</v>
@@ -5326,36 +5494,39 @@
         <v>5</v>
       </c>
       <c r="AB56" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC56" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD56" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>125</v>
@@ -5373,10 +5544,10 @@
         <v>31</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q57" s="0" t="n">
         <v>900</v>
@@ -5412,36 +5583,39 @@
         <v>5</v>
       </c>
       <c r="AB57" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC57" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD57" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>125</v>
@@ -5459,10 +5633,10 @@
         <v>31</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q58" s="0" t="n">
         <v>1200</v>
@@ -5498,36 +5672,39 @@
         <v>5</v>
       </c>
       <c r="AB58" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC58" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD58" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>280</v>
@@ -5545,10 +5722,10 @@
         <v>65</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q59" s="0" t="n">
         <v>1300</v>
@@ -5578,36 +5755,39 @@
         <v>5</v>
       </c>
       <c r="AB59" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC59" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD59" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>150</v>
@@ -5625,10 +5805,10 @@
         <v>45</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q60" s="0" t="n">
         <v>360</v>
@@ -5655,10 +5835,13 @@
         <v>5</v>
       </c>
       <c r="AB60" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC60" s="0" t="n">
         <v>1300</v>
+      </c>
+      <c r="AD60" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,25 +5849,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>120</v>
@@ -5702,10 +5885,10 @@
         <v>65</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q61" s="0" t="n">
         <v>900</v>
@@ -5735,36 +5918,39 @@
         <v>5</v>
       </c>
       <c r="AB61" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC61" s="0" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD61" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>120</v>
@@ -5782,10 +5968,10 @@
         <v>50</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q62" s="0" t="n">
         <v>900</v>
@@ -5815,36 +6001,39 @@
         <v>5</v>
       </c>
       <c r="AB62" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC62" s="0" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD62" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>125</v>
@@ -5862,10 +6051,10 @@
         <v>25</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q63" s="0" t="n">
         <v>900</v>
@@ -5901,36 +6090,39 @@
         <v>5</v>
       </c>
       <c r="AB63" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC63" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD63" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>125</v>
@@ -5948,10 +6140,10 @@
         <v>31</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q64" s="0" t="n">
         <v>1200</v>
@@ -5987,36 +6179,39 @@
         <v>5</v>
       </c>
       <c r="AB64" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC64" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD64" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>200</v>
@@ -6034,10 +6229,10 @@
         <v>1020</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q65" s="0" t="n">
         <v>1300</v>
@@ -6067,36 +6262,39 @@
         <v>5</v>
       </c>
       <c r="AB65" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC65" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD65" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>370</v>
@@ -6114,10 +6312,10 @@
         <v>50</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q66" s="0" t="n">
         <v>1300</v>
@@ -6147,36 +6345,39 @@
         <v>5</v>
       </c>
       <c r="AB66" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC66" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD66" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>125</v>
@@ -6194,10 +6395,10 @@
         <v>31</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q67" s="0" t="n">
         <v>960</v>
@@ -6233,36 +6434,39 @@
         <v>5</v>
       </c>
       <c r="AB67" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC67" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD67" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>125</v>
@@ -6280,10 +6484,10 @@
         <v>25</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q68" s="0" t="n">
         <v>1200</v>
@@ -6319,36 +6523,39 @@
         <v>5</v>
       </c>
       <c r="AB68" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC68" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD68" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>280</v>
@@ -6366,10 +6573,10 @@
         <v>65</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q69" s="0" t="n">
         <v>1300</v>
@@ -6399,36 +6606,39 @@
         <v>5</v>
       </c>
       <c r="AB69" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC69" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD69" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>1200</v>
@@ -6446,10 +6656,10 @@
         <v>65</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q70" s="0" t="n">
         <v>1300</v>
@@ -6479,36 +6689,39 @@
         <v>5</v>
       </c>
       <c r="AB70" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC70" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD70" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>100</v>
@@ -6526,10 +6739,10 @@
         <v>31</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q71" s="0" t="n">
         <v>720</v>
@@ -6565,36 +6778,39 @@
         <v>5</v>
       </c>
       <c r="AB71" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC71" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD71" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I72" s="0" t="n">
         <v>100</v>
@@ -6612,10 +6828,10 @@
         <v>31</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q72" s="0" t="n">
         <v>960</v>
@@ -6651,36 +6867,39 @@
         <v>5</v>
       </c>
       <c r="AB72" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC72" s="0" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD72" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>370</v>
@@ -6698,10 +6917,10 @@
         <v>65</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q73" s="0" t="n">
         <v>1300</v>
@@ -6731,36 +6950,39 @@
         <v>5</v>
       </c>
       <c r="AB73" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC73" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD73" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I74" s="0" t="n">
         <v>200</v>
@@ -6778,10 +7000,10 @@
         <v>65</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q74" s="0" t="n">
         <v>1300</v>
@@ -6811,36 +7033,39 @@
         <v>5</v>
       </c>
       <c r="AB74" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC74" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD74" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I75" s="0" t="n">
         <v>100</v>
@@ -6858,10 +7083,10 @@
         <v>65</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q75" s="0" t="n">
         <v>240</v>
@@ -6888,36 +7113,39 @@
         <v>5</v>
       </c>
       <c r="AB75" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC75" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD75" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>120</v>
@@ -6935,10 +7163,10 @@
         <v>65</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q76" s="0" t="n">
         <v>900</v>
@@ -6968,36 +7196,39 @@
         <v>5</v>
       </c>
       <c r="AB76" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC76" s="0" t="n">
         <v>900</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD76" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>200</v>
@@ -7015,10 +7246,10 @@
         <v>45</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q77" s="0" t="n">
         <v>1300</v>
@@ -7048,36 +7279,39 @@
         <v>5</v>
       </c>
       <c r="AB77" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AC77" s="0" t="n">
         <v>1300</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD77" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>3500</v>
@@ -7095,10 +7329,10 @@
         <v>50</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q78" s="0" t="n">
         <v>540</v>
@@ -7128,36 +7362,39 @@
         <v>5</v>
       </c>
       <c r="AB78" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AC78" s="0" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD78" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>120</v>
@@ -7175,10 +7412,10 @@
         <v>65</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R79" s="0" t="n">
         <v>900</v>
@@ -7205,10 +7442,13 @@
         <v>5</v>
       </c>
       <c r="AB79" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC79" s="0" t="n">
         <v>900</v>
+      </c>
+      <c r="AD79" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7216,25 +7456,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>3000</v>
@@ -7252,10 +7492,10 @@
         <v>45</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R80" s="0" t="n">
         <v>1300</v>
@@ -7282,10 +7522,13 @@
         <v>5</v>
       </c>
       <c r="AB80" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC80" s="0" t="n">
         <v>1300</v>
+      </c>
+      <c r="AD80" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7293,25 +7536,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>120</v>
@@ -7329,10 +7572,10 @@
         <v>65</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q81" s="0" t="n">
         <v>900</v>
@@ -7362,10 +7605,13 @@
         <v>5</v>
       </c>
       <c r="AB81" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AC81" s="0" t="n">
         <v>750</v>
+      </c>
+      <c r="AD81" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -283,7 +283,7 @@
     <t xml:space="preserve">Biotec</t>
   </si>
   <si>
-    <t xml:space="preserve">малый Комет/Мультиголова</t>
+    <t xml:space="preserve">Мультиголова/малый Комет</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000094736</t>
@@ -694,7 +694,7 @@
     <t xml:space="preserve">00-00012352</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла палочки без лактозы "Unagrande", 45%, 0,12 кг, т/ф </t>
+    <t xml:space="preserve">Моцарелла палочки без лактозы "Unagrande", 45%, 0,12 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">00-00012503</t>
@@ -707,7 +707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -734,13 +734,6 @@
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -794,7 +787,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,14 +798,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -832,15 +817,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2335,7 @@
         <v>125</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>31</v>
@@ -2433,7 +2418,7 @@
         <v>125</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>31</v>
@@ -2516,7 +2501,7 @@
         <v>125</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>31</v>
@@ -2599,7 +2584,7 @@
         <v>100</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>31</v>
@@ -2682,7 +2667,7 @@
         <v>125</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>25</v>
@@ -2765,7 +2750,7 @@
         <v>100</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>31</v>
@@ -2848,7 +2833,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>31</v>
@@ -2931,7 +2916,7 @@
         <v>100</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>31</v>
@@ -3014,7 +2999,7 @@
         <v>125</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>31</v>
@@ -3097,7 +3082,7 @@
         <v>125</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>25</v>
@@ -3180,7 +3165,7 @@
         <v>8</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>31</v>
@@ -3263,7 +3248,7 @@
         <v>8</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>31</v>
@@ -3346,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>31</v>
@@ -3429,7 +3414,7 @@
         <v>8</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>31</v>
@@ -3512,7 +3497,7 @@
         <v>8</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>31</v>
@@ -3595,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>31</v>
@@ -3678,7 +3663,7 @@
         <v>8</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>25</v>
@@ -3915,7 +3900,7 @@
         <v>125</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>31</v>
@@ -3998,7 +3983,7 @@
         <v>8</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>31</v>
@@ -4389,7 +4374,7 @@
         <v>125</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>31</v>
@@ -4475,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>31</v>
@@ -4561,7 +4546,7 @@
         <v>100</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>31</v>
@@ -4644,7 +4629,7 @@
         <v>8</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>31</v>
@@ -5032,7 +5017,7 @@
         <v>125</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>31</v>
@@ -5118,7 +5103,7 @@
         <v>8</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>31</v>
@@ -5204,7 +5189,7 @@
         <v>200</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>31</v>
@@ -5367,7 +5352,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>31</v>
@@ -5453,7 +5438,7 @@
         <v>125</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M58" s="0" t="n">
         <v>31</v>
@@ -5661,7 +5646,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -5856,7 +5841,7 @@
         <v>8</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M63" s="0" t="n">
         <v>25</v>
@@ -5942,7 +5927,7 @@
         <v>125</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>31</v>
@@ -6188,7 +6173,7 @@
         <v>8</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>31</v>
@@ -6274,7 +6259,7 @@
         <v>125</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>25</v>
@@ -6520,7 +6505,7 @@
         <v>8</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>31</v>
@@ -6606,7 +6591,7 @@
         <v>100</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M72" s="0" t="n">
         <v>31</v>
@@ -7211,11 +7196,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="0" t="s">
         <v>222</v>
       </c>
       <c r="C80" s="0" t="n">
@@ -7281,18 +7266,18 @@
       <c r="AA80" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB80" s="3" t="s">
+      <c r="AB80" s="0" t="s">
         <v>223</v>
       </c>
       <c r="AC80" s="0" t="n">
         <v>1300</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="0" t="s">
         <v>224</v>
       </c>
       <c r="C81" s="0" t="n">
@@ -7361,12 +7346,15 @@
       <c r="AA81" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB81" s="3" t="s">
+      <c r="AB81" s="0" t="s">
         <v>225</v>
       </c>
       <c r="AC81" s="0" t="n">
         <v>750</v>
       </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -697,7 +697,7 @@
     <t xml:space="preserve">00-00012352</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла палочки без лактозы "Unagrande", 45%, 0,12 кг, т/ф </t>
+    <t xml:space="preserve">Моцарелла палочки без лактозы "Unagrande", 45%, 0,12 кг, т/ф</t>
   </si>
   <si>
     <t xml:space="preserve">00-00012503</t>
@@ -837,8 +837,8 @@
   </sheetPr>
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD10" activeCellId="0" sqref="AD10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -754,12 +754,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -803,13 +809,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -839,8 +857,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X21" activeCellId="0" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2299,83 +2317,83 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="0" t="s">
+      <c r="N19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="W19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB19" s="0" t="s">
+      <c r="W19" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AC19" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="AD19" s="0" t="s">
+      <c r="AD19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5685,332 +5703,332 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" s="0" t="s">
+      <c r="D59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="I59" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="J59" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="L59" s="0" t="n">
+      <c r="L59" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="M59" s="0" t="n">
+      <c r="M59" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N59" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O59" s="0" t="s">
+      <c r="N59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q59" s="0" t="n">
+      <c r="Q59" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="R59" s="0" t="n">
+      <c r="R59" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="U59" s="0" t="n">
+      <c r="U59" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="V59" s="0" t="n">
+      <c r="V59" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="W59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y59" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z59" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="0" t="s">
+      <c r="W59" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X59" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z59" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AC59" s="0" t="n">
+      <c r="AC59" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="AD59" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="AD59" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="0" t="s">
+      <c r="D60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="I60" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L60" s="0" t="n">
+      <c r="L60" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="M60" s="0" t="n">
+      <c r="M60" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="N60" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O60" s="0" t="s">
+      <c r="N60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q60" s="0" t="n">
+      <c r="Q60" s="3" t="n">
         <v>360</v>
       </c>
-      <c r="R60" s="0" t="n">
+      <c r="R60" s="3" t="n">
         <v>360</v>
       </c>
-      <c r="V60" s="0" t="n">
+      <c r="V60" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="W60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y60" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z60" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="0" t="s">
+      <c r="W60" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X60" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z60" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="AC60" s="0" t="n">
+      <c r="AC60" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="AD60" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="AD60" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="0" t="s">
+      <c r="D61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="I61" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="J61" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="K61" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L61" s="0" t="n">
+      <c r="K61" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L61" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="M61" s="0" t="n">
+      <c r="M61" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="N61" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O61" s="0" t="s">
+      <c r="N61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O61" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q61" s="0" t="n">
+      <c r="Q61" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="R61" s="0" t="n">
+      <c r="R61" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="U61" s="0" t="n">
+      <c r="U61" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="V61" s="0" t="n">
+      <c r="V61" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="W61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y61" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z61" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA61" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB61" s="0" t="s">
+      <c r="W61" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X61" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y61" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z61" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA61" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB61" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AC61" s="0" t="n">
+      <c r="AC61" s="3" t="n">
         <v>750</v>
       </c>
-      <c r="AD61" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="AD61" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="3" t="n">
         <v>2.7</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="0" t="s">
+      <c r="D62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="I62" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="K62" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L62" s="0" t="n">
+      <c r="K62" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="L62" s="3" t="n">
         <v>960</v>
       </c>
-      <c r="M62" s="0" t="n">
+      <c r="M62" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="N62" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O62" s="0" t="s">
+      <c r="N62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q62" s="0" t="n">
+      <c r="Q62" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="R62" s="0" t="n">
+      <c r="R62" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="U62" s="0" t="n">
+      <c r="U62" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="V62" s="0" t="n">
+      <c r="V62" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="W62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y62" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z62" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="0" t="s">
+      <c r="W62" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X62" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y62" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z62" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AC62" s="0" t="n">
+      <c r="AC62" s="3" t="n">
         <v>750</v>
       </c>
-      <c r="AD62" s="0" t="s">
+      <c r="AD62" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7622,7 +7640,7 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="5" t="s">
         <v>227</v>
       </c>
       <c r="C82" s="0" t="n">
@@ -7688,7 +7706,7 @@
       <c r="AA82" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB82" s="3" t="s">
+      <c r="AB82" s="6" t="s">
         <v>228</v>
       </c>
       <c r="AC82" s="0" t="n">

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="233">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -707,6 +707,18 @@
   </si>
   <si>
     <t xml:space="preserve">00-00012678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Вкусвилл", 45%, 0,12 кг, ф/п (кубики)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,06 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012961</t>
   </si>
 </sst>
 </file>
@@ -716,7 +728,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -752,6 +764,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -809,7 +827,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -838,6 +856,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X21" activeCellId="0" sqref="X21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB87" activeCellId="0" sqref="AB87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7716,6 +7742,166 @@
         <v>35</v>
       </c>
     </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W83" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X83" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y83" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC83" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AD83" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W84" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X84" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y84" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB84" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC84" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AD84" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="238">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -719,6 +719,21 @@
   </si>
   <si>
     <t xml:space="preserve">00-00012961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Вкус и Польза", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкус и Польза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Вкус и Польза", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013020</t>
   </si>
 </sst>
 </file>
@@ -827,7 +842,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -856,12 +871,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -883,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB87" activeCellId="0" sqref="AB87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I88" activeCellId="0" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7746,7 +7765,7 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C83" s="0" t="n">
@@ -7812,7 +7831,7 @@
       <c r="AA83" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB83" s="8" t="s">
+      <c r="AB83" s="7" t="s">
         <v>230</v>
       </c>
       <c r="AC83" s="0" t="n">
@@ -7826,7 +7845,7 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>231</v>
       </c>
       <c r="C84" s="0" t="n">
@@ -7892,13 +7911,185 @@
       <c r="AA84" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB84" s="7" t="s">
+      <c r="AB84" s="6" t="s">
         <v>232</v>
       </c>
       <c r="AC84" s="0" t="n">
         <v>900</v>
       </c>
       <c r="AD84" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T85" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W85" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X85" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y85" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB85" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC85" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD85" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S86" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T86" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W86" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X86" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y86" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB86" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC86" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD86" s="0" t="s">
         <v>35</v>
       </c>
     </row>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="240">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -734,6 +734,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00013020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 0,2 кг, т/ф (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000091462</t>
   </si>
 </sst>
 </file>
@@ -875,12 +881,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -902,8 +908,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I88" activeCellId="0" sqref="I88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7997,7 +8003,7 @@
       <c r="AA85" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB85" s="8" t="s">
+      <c r="AB85" s="6" t="s">
         <v>235</v>
       </c>
       <c r="AC85" s="0" t="n">
@@ -8011,7 +8017,7 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>236</v>
       </c>
       <c r="C86" s="0" t="n">
@@ -8083,13 +8089,93 @@
       <c r="AA86" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB86" s="8" t="s">
+      <c r="AB86" s="6" t="s">
         <v>237</v>
       </c>
       <c r="AC86" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="AD86" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="U87" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="V87" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W87" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X87" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y87" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z87" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA87" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB87" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC87" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AD87" s="0" t="s">
         <v>35</v>
       </c>
     </row>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="242">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -740,6 +740,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000091462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни в рассоле "Вкусвилл", 45%, 0,21/0,35 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013255</t>
   </si>
 </sst>
 </file>
@@ -908,8 +914,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB89" activeCellId="0" sqref="AB89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8169,13 +8175,96 @@
       <c r="AA87" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AB87" s="9" t="s">
+      <c r="AB87" s="6" t="s">
         <v>239</v>
       </c>
       <c r="AC87" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="AD87" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="M88" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="U88" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="V88" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W88" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X88" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y88" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB88" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC88" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AD88" s="0" t="s">
         <v>35</v>
       </c>
     </row>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$1:$C$88</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="231">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -259,252 +256,231 @@
     <t xml:space="preserve">Н0000096639</t>
   </si>
   <si>
-    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качокавалло</t>
+    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фиор Ди Латте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biotec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">малый Комет/Мультиголова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Foodfest", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodfest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orecchio Oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каждый день</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чильеджина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000095985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Chef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зеленая линия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки 15 гр Эсперсен 45%, 3,5 кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эсперсен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, 3,6 кг, пл/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,6 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">малый Комет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,6 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваш выбор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327193010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327192013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у</t>
   </si>
   <si>
     <t xml:space="preserve">САККАРДО</t>
   </si>
   <si>
-    <t xml:space="preserve">Н0000094740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни без лактозы "ВкусВилл", 45%, 0,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фиор Ди Латте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biotec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">малый Комет/Мультиголова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Foodfest", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foodfest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-00011191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orecchio Oro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каждый день</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125/0,225 кг, ф/п (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Unagrande", 50%, 0,125/0,225 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чильеджина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 0,1/0,18 кг, ф/п, (8 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Aventino", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Каждый день", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина без лактозы "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000096636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000095985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Красная птица", 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000090380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 0,37 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metro Chef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Metro Chef" 45%, 1,2 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зеленая линия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000097655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки 15 гр Эсперсен 45%, 3,5 кг, пл/л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эсперсен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла палочки 7,5 гр Эсперсен, 45%, 3,6 кг, пл/л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни "Умалат", 45%, 1,2  кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Pretto", 45%, 1/1,6 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">малый Комет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Pretto", 45%, 1/1,6 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "Ваш выбор", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваш выбор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327193010  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла в воде Чильеджина "Ваш выбор", 45%, 0,1/0,18 кг, ф/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327192013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000099331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000093444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у</t>
-  </si>
-  <si>
     <t xml:space="preserve">Н0000079372</t>
   </si>
   <si>
@@ -535,12 +511,6 @@
     <t xml:space="preserve">00-00008479</t>
   </si>
   <si>
-    <t xml:space="preserve">Моцарелла "Unagrande", 45%, 0,5 кг, ф/п (кубики)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-00008454</t>
-  </si>
-  <si>
     <t xml:space="preserve">ОАЭ_Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
   </si>
   <si>
@@ -569,12 +539,6 @@
   </si>
   <si>
     <t xml:space="preserve">00-00008811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулугуни палочки без лактозы "Умалат", 45%, 0,12 кг, т/ф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-00008879</t>
   </si>
   <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина "Unagrande", 45%, 0,125/0,225 кг, ф/п</t>
@@ -784,17 +748,23 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -838,13 +808,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -856,28 +830,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,15 +838,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD88"/>
+  <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G89" activeCellId="0" sqref="G89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.55"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -1062,7 +1021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1142,7 +1101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1222,7 +1181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -1302,7 +1261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -1348,8 +1307,8 @@
       <c r="O6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="0" t="n">
-        <v>900</v>
+      <c r="R6" s="2" t="n">
+        <v>800</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>10</v>
@@ -1382,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1428,8 +1387,8 @@
       <c r="O7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="0" t="n">
-        <v>900</v>
+      <c r="R7" s="2" t="n">
+        <v>800</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>10</v>
@@ -1462,7 +1421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1508,8 +1467,8 @@
       <c r="O8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="0" t="n">
-        <v>900</v>
+      <c r="R8" s="2" t="n">
+        <v>800</v>
       </c>
       <c r="U8" s="0" t="n">
         <v>10</v>
@@ -1542,7 +1501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1622,7 +1581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1702,7 +1661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1782,7 +1741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1862,7 +1821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -1908,8 +1867,8 @@
       <c r="O13" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="0" t="n">
-        <v>900</v>
+      <c r="R13" s="2" t="n">
+        <v>800</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>10</v>
@@ -1942,7 +1901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -2022,7 +1981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -2102,7 +2061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -2182,7 +2141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -2228,8 +2187,8 @@
       <c r="O17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="0" t="n">
-        <v>900</v>
+      <c r="R17" s="2" t="n">
+        <v>800</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>10</v>
@@ -2262,21 +2221,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>32</v>
@@ -2285,43 +2244,43 @@
         <v>39</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>15</v>
@@ -2333,7 +2292,7 @@
         <v>5</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AC18" s="0" t="n">
         <v>1300</v>
@@ -2342,66 +2301,72 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="G19" s="0" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M19" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T19" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="U19" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y19" s="0" t="n">
         <v>15</v>
@@ -2413,21 +2378,21 @@
         <v>5</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC19" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="AD19" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3.2</v>
@@ -2436,16 +2401,16 @@
         <v>30</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>125</v>
@@ -2466,7 +2431,7 @@
         <v>35</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>1200</v>
@@ -2487,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Y20" s="0" t="n">
         <v>15</v>
@@ -2499,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC20" s="0" t="n">
         <v>1000</v>
@@ -2508,12 +2473,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3.2</v>
@@ -2522,22 +2487,22 @@
         <v>30</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>125</v>
@@ -2552,7 +2517,7 @@
         <v>35</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>1200</v>
@@ -2585,7 +2550,7 @@
         <v>5</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC21" s="0" t="n">
         <v>1000</v>
@@ -2594,12 +2559,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3.2</v>
@@ -2608,25 +2573,25 @@
         <v>30</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>1100</v>
@@ -2638,10 +2603,10 @@
         <v>35</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="S22" s="0" t="n">
         <v>25</v>
@@ -2671,7 +2636,7 @@
         <v>5</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC22" s="0" t="n">
         <v>1000</v>
@@ -2680,12 +2645,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3.2</v>
@@ -2694,40 +2659,40 @@
         <v>30</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S23" s="0" t="n">
         <v>25</v>
@@ -2757,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AC23" s="0" t="n">
         <v>1000</v>
@@ -2766,12 +2731,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3.2</v>
@@ -2780,40 +2745,40 @@
         <v>30</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="S24" s="0" t="n">
         <v>25</v>
@@ -2843,7 +2808,7 @@
         <v>5</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC24" s="0" t="n">
         <v>1000</v>
@@ -2852,12 +2817,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3.2</v>
@@ -2866,22 +2831,22 @@
         <v>30</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>100</v>
@@ -2896,7 +2861,7 @@
         <v>35</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>960</v>
@@ -2929,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC25" s="0" t="n">
         <v>1000</v>
@@ -2938,12 +2903,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3.2</v>
@@ -2952,22 +2917,22 @@
         <v>30</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>100</v>
@@ -2982,7 +2947,7 @@
         <v>35</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>960</v>
@@ -3015,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC26" s="0" t="n">
         <v>1000</v>
@@ -3024,54 +2989,54 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="S27" s="0" t="n">
         <v>25</v>
@@ -3083,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W27" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Y27" s="0" t="n">
         <v>15</v>
@@ -3101,7 +3066,7 @@
         <v>5</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AC27" s="0" t="n">
         <v>1000</v>
@@ -3110,30 +3075,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>125</v>
@@ -3142,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>1100</v>
@@ -3154,22 +3119,22 @@
         <v>35</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="S28" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W28" s="0" t="n">
         <v>20</v>
@@ -3187,7 +3152,7 @@
         <v>5</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC28" s="0" t="n">
         <v>1000</v>
@@ -3196,73 +3161,73 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="S29" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V29" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X29" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="W29" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="Y29" s="0" t="n">
         <v>15</v>
       </c>
@@ -3273,7 +3238,7 @@
         <v>5</v>
       </c>
       <c r="AB29" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC29" s="0" t="n">
         <v>1000</v>
@@ -3282,12 +3247,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>3.2</v>
@@ -3296,22 +3261,22 @@
         <v>30</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>8</v>
@@ -3326,10 +3291,10 @@
         <v>35</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="S30" s="0" t="n">
         <v>25</v>
@@ -3347,7 +3312,7 @@
         <v>20</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Y30" s="0" t="n">
         <v>15</v>
@@ -3359,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AC30" s="0" t="n">
         <v>1000</v>
@@ -3368,12 +3333,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>3.2</v>
@@ -3382,22 +3347,22 @@
         <v>30</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>8</v>
@@ -3412,7 +3377,7 @@
         <v>35</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>720</v>
@@ -3445,7 +3410,7 @@
         <v>5</v>
       </c>
       <c r="AB31" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AC31" s="0" t="n">
         <v>1000</v>
@@ -3454,12 +3419,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>3.2</v>
@@ -3468,22 +3433,22 @@
         <v>30</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>100</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>8</v>
@@ -3498,7 +3463,7 @@
         <v>35</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>720</v>
@@ -3531,7 +3496,7 @@
         <v>5</v>
       </c>
       <c r="AB32" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AC32" s="0" t="n">
         <v>1000</v>
@@ -3540,12 +3505,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>3.2</v>
@@ -3554,19 +3519,19 @@
         <v>30</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>12</v>
@@ -3578,16 +3543,16 @@
         <v>1100</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="S33" s="0" t="n">
         <v>25</v>
@@ -3617,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="AB33" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AC33" s="0" t="n">
         <v>1000</v>
@@ -3626,158 +3591,146 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="G34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB34" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="M34" s="0" t="n">
+      <c r="AC34" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AD34" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="S34" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T34" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y34" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z34" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA34" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB34" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC34" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD34" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>8</v>
+        <v>1200</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S35" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T35" s="0" t="n">
-        <v>20</v>
+        <v>1300</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="Y35" s="0" t="n">
         <v>15</v>
@@ -3789,21 +3742,21 @@
         <v>5</v>
       </c>
       <c r="AB35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AD35" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="AC35" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD35" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>3.2</v>
@@ -3812,16 +3765,16 @@
         <v>30</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>125</v>
@@ -3830,28 +3783,28 @@
         <v>12</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="S36" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U36" s="0" t="n">
         <v>0</v>
@@ -3875,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="AB36" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC36" s="0" t="n">
         <v>1000</v>
@@ -3884,92 +3837,98 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD37" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>370</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>370</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="N37" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="V37" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W37" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y37" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB37" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC37" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="AD37" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2.7</v>
@@ -3978,7 +3937,7 @@
         <v>30</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>32</v>
@@ -3987,22 +3946,22 @@
         <v>33</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>1200</v>
+        <v>280</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>1200</v>
+        <v>280</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>35</v>
@@ -4014,7 +3973,7 @@
         <v>1300</v>
       </c>
       <c r="U38" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V38" s="0" t="n">
         <v>40</v>
@@ -4035,7 +3994,7 @@
         <v>5</v>
       </c>
       <c r="AB38" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC38" s="0" t="n">
         <v>1300</v>
@@ -4044,72 +4003,66 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>125</v>
+        <v>3500</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S39" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T39" s="0" t="n">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>15</v>
@@ -4124,78 +4077,72 @@
         <v>132</v>
       </c>
       <c r="AC39" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AD39" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>133</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>125</v>
+        <v>3600</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="S40" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T40" s="0" t="n">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="U40" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="Y40" s="0" t="n">
         <v>15</v>
@@ -4210,15 +4157,15 @@
         <v>134</v>
       </c>
       <c r="AC40" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AD40" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>135</v>
@@ -4236,25 +4183,25 @@
         <v>32</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>35</v>
@@ -4266,7 +4213,7 @@
         <v>1300</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>40</v>
@@ -4287,7 +4234,7 @@
         <v>5</v>
       </c>
       <c r="AB41" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC41" s="0" t="n">
         <v>1300</v>
@@ -4296,66 +4243,75 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>43</v>
+        <v>138</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>480</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>540</v>
+        <v>480</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Y42" s="0" t="n">
         <v>15</v>
@@ -4367,75 +4323,84 @@
         <v>5</v>
       </c>
       <c r="AB42" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC42" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="AC42" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="AD42" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="C43" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>3600</v>
+        <v>1000</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L43" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q43" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="M43" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="N43" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="R43" s="0" t="n">
-        <v>540</v>
+        <v>900</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="U43" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Y43" s="0" t="n">
         <v>15</v>
@@ -4447,75 +4412,81 @@
         <v>5</v>
       </c>
       <c r="AB43" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD43" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="AC43" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="AD43" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="I44" s="0" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M44" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T44" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N44" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="U44" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W44" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X44" s="0" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Y44" s="0" t="n">
         <v>15</v>
@@ -4530,15 +4501,15 @@
         <v>144</v>
       </c>
       <c r="AC44" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="AD44" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>145</v>
@@ -4550,25 +4521,25 @@
         <v>30</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L45" s="0" t="n">
         <v>1100</v>
@@ -4580,19 +4551,16 @@
         <v>35</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>480</v>
+        <v>84</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="S45" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U45" s="0" t="n">
         <v>0</v>
@@ -4616,7 +4584,7 @@
         <v>5</v>
       </c>
       <c r="AB45" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC45" s="0" t="n">
         <v>1000</v>
@@ -4625,273 +4593,252 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M46" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC46" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AD46" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC47" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AD47" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N46" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q46" s="0" t="n">
+      <c r="F48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="L48" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="R46" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="S46" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T46" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="0" t="n">
+      <c r="M48" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>728</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AD48" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="W46" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X46" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y46" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z46" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC46" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD46" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="R47" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S47" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T47" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X47" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y47" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC47" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD47" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N48" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S48" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X48" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y48" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="0" t="s">
+      <c r="B49" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="AC48" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD48" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>155</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2.7</v>
@@ -4900,7 +4847,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>32</v>
@@ -4909,34 +4856,31 @@
         <v>33</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L49" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="U49" s="0" t="n">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="V49" s="0" t="n">
         <v>40</v>
@@ -4957,75 +4901,84 @@
         <v>5</v>
       </c>
       <c r="AB49" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC49" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AD49" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="AC49" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="AD49" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="I50" s="0" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M50" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T50" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N50" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R50" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="U50" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V50" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W50" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Y50" s="0" t="n">
         <v>15</v>
@@ -5040,72 +4993,81 @@
         <v>158</v>
       </c>
       <c r="AC50" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AD50" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M51" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="F51" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="L51" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="M51" s="0" t="n">
-        <v>65</v>
-      </c>
       <c r="N51" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>720</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>728</v>
+        <v>720</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="U51" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V51" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W51" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X51" s="0" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Y51" s="0" t="n">
         <v>15</v>
@@ -5120,69 +5082,81 @@
         <v>160</v>
       </c>
       <c r="AC51" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="AD51" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>161</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>60</v>
+        <v>138</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>960</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>360</v>
+        <v>960</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W52" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X52" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y52" s="0" t="n">
         <v>15</v>
@@ -5197,15 +5171,15 @@
         <v>162</v>
       </c>
       <c r="AC52" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="AD52" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>163</v>
@@ -5214,28 +5188,28 @@
         <v>3.2</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>125</v>
       </c>
       <c r="J53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K53" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>125</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>1100</v>
@@ -5247,31 +5221,31 @@
         <v>35</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="S53" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W53" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X53" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Y53" s="0" t="n">
         <v>15</v>
@@ -5283,7 +5257,7 @@
         <v>5</v>
       </c>
       <c r="AB53" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC53" s="0" t="n">
         <v>1000</v>
@@ -5292,39 +5266,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>1100</v>
@@ -5336,31 +5310,31 @@
         <v>35</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="S54" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W54" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Y54" s="0" t="n">
         <v>15</v>
@@ -5372,7 +5346,7 @@
         <v>5</v>
       </c>
       <c r="AB54" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC54" s="0" t="n">
         <v>1000</v>
@@ -5381,75 +5355,69 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>960</v>
+        <v>1300</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S55" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T55" s="0" t="n">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="U55" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V55" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W55" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y55" s="0" t="n">
         <v>15</v>
@@ -5461,27 +5429,27 @@
         <v>5</v>
       </c>
       <c r="AB55" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC55" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AD55" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="AC55" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD55" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>31</v>
@@ -5496,10 +5464,10 @@
         <v>42</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>1</v>
@@ -5517,16 +5485,16 @@
         <v>60</v>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W56" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X56" s="0" t="n">
         <v>20</v>
@@ -5541,7 +5509,7 @@
         <v>5</v>
       </c>
       <c r="AB56" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC56" s="0" t="n">
         <v>1300</v>
@@ -5550,24 +5518,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>39</v>
@@ -5576,25 +5544,25 @@
         <v>42</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="Q57" s="0" t="n">
         <v>900</v>
@@ -5602,14 +5570,8 @@
       <c r="R57" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="S57" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T57" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="U57" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V57" s="0" t="n">
         <v>45</v>
@@ -5618,7 +5580,7 @@
         <v>20</v>
       </c>
       <c r="X57" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y57" s="0" t="n">
         <v>15</v>
@@ -5630,36 +5592,36 @@
         <v>5</v>
       </c>
       <c r="AB57" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC57" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AD57" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="AC57" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD57" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>42</v>
@@ -5668,40 +5630,40 @@
         <v>125</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N58" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="S58" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T58" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W58" s="0" t="n">
         <v>20</v>
@@ -5719,7 +5681,7 @@
         <v>5</v>
       </c>
       <c r="AB58" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC58" s="0" t="n">
         <v>1000</v>
@@ -5728,69 +5690,75 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="Q59" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="U59" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V59" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W59" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X59" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y59" s="0" t="n">
         <v>15</v>
@@ -5802,27 +5770,27 @@
         <v>5</v>
       </c>
       <c r="AB59" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC59" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD59" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="AC59" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="AD59" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>31</v>
@@ -5831,43 +5799,46 @@
         <v>32</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>45</v>
+        <v>1020</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="Q60" s="0" t="n">
-        <v>360</v>
+        <v>1300</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>360</v>
+        <v>1300</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W60" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X60" s="0" t="n">
         <v>20</v>
@@ -5891,9 +5862,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>180</v>
@@ -5902,34 +5873,34 @@
         <v>2.7</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>32</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>30</v>
+        <v>370</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M61" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N61" s="0" t="s">
         <v>35</v>
@@ -5938,19 +5909,19 @@
         <v>36</v>
       </c>
       <c r="Q61" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="R61" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="U61" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="V61" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W61" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X61" s="0" t="n">
         <v>20</v>
@@ -5968,66 +5939,72 @@
         <v>181</v>
       </c>
       <c r="AC61" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="AD61" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>182</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>35</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M62" s="0" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N62" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="Q62" s="0" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>900</v>
+        <v>960</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="U62" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V62" s="0" t="n">
         <v>45</v>
@@ -6036,7 +6013,7 @@
         <v>20</v>
       </c>
       <c r="X62" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y62" s="0" t="n">
         <v>15</v>
@@ -6051,15 +6028,15 @@
         <v>183</v>
       </c>
       <c r="AC62" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AD62" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>184</v>
@@ -6068,16 +6045,16 @@
         <v>3.2</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>42</v>
@@ -6086,10 +6063,10 @@
         <v>125</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="L63" s="0" t="n">
         <v>1100</v>
@@ -6101,25 +6078,25 @@
         <v>35</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="R63" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="S63" s="0" t="n">
         <v>25</v>
       </c>
       <c r="T63" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V63" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W63" s="0" t="n">
         <v>20</v>
@@ -6146,75 +6123,69 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>186</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N64" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="Q64" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="R64" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S64" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T64" s="0" t="n">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="U64" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V64" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W64" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X64" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y64" s="0" t="n">
         <v>15</v>
@@ -6229,15 +6200,15 @@
         <v>187</v>
       </c>
       <c r="AC64" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="AD64" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>188</v>
@@ -6255,25 +6226,25 @@
         <v>32</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>189</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="L65" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M65" s="0" t="n">
-        <v>1020</v>
+        <v>65</v>
       </c>
       <c r="N65" s="0" t="s">
         <v>35</v>
@@ -6288,7 +6259,7 @@
         <v>1300</v>
       </c>
       <c r="U65" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V65" s="0" t="n">
         <v>40</v>
@@ -6318,69 +6289,75 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>191</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M66" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N66" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q66" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="R66" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U66" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="V66" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="W66" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X66" s="0" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Y66" s="0" t="n">
         <v>15</v>
@@ -6392,48 +6369,48 @@
         <v>5</v>
       </c>
       <c r="AB66" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC66" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="AD66" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>3.2</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>1100</v>
@@ -6445,7 +6422,7 @@
         <v>35</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q67" s="0" t="n">
         <v>960</v>
@@ -6457,20 +6434,20 @@
         <v>25</v>
       </c>
       <c r="T67" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V67" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X67" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="W67" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X67" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="Y67" s="0" t="n">
         <v>15</v>
       </c>
@@ -6481,7 +6458,7 @@
         <v>5</v>
       </c>
       <c r="AB67" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC67" s="0" t="n">
         <v>1000</v>
@@ -6490,75 +6467,69 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M68" s="0" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N68" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="Q68" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="R68" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S68" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T68" s="0" t="n">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="U68" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V68" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W68" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X68" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y68" s="0" t="n">
         <v>15</v>
@@ -6570,27 +6541,27 @@
         <v>5</v>
       </c>
       <c r="AB68" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC68" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="AD68" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>31</v>
@@ -6599,19 +6570,19 @@
         <v>32</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="L69" s="0" t="n">
         <v>900</v>
@@ -6635,10 +6606,10 @@
         <v>90</v>
       </c>
       <c r="V69" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W69" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X69" s="0" t="n">
         <v>20</v>
@@ -6653,7 +6624,7 @@
         <v>5</v>
       </c>
       <c r="AB69" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC69" s="0" t="n">
         <v>1300</v>
@@ -6662,18 +6633,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>31</v>
@@ -6685,16 +6656,16 @@
         <v>39</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="L70" s="0" t="n">
         <v>900</v>
@@ -6703,25 +6674,22 @@
         <v>65</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="Q70" s="0" t="n">
-        <v>1300</v>
+        <v>240</v>
       </c>
       <c r="R70" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U70" s="0" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="V70" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W70" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X70" s="0" t="n">
         <v>20</v>
@@ -6745,164 +6713,152 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>202</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H71" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="R71" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB71" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="I71" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L71" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="M71" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N71" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q71" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="R71" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S71" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W71" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X71" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y71" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z71" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA71" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB71" s="0" t="s">
+      <c r="AC71" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AD71" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="AC71" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD71" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>205</v>
-      </c>
       <c r="C72" s="0" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N72" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="Q72" s="0" t="n">
-        <v>960</v>
+        <v>1300</v>
       </c>
       <c r="R72" s="0" t="n">
-        <v>960</v>
-      </c>
-      <c r="S72" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T72" s="0" t="n">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="U72" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V72" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W72" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X72" s="0" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="Y72" s="0" t="n">
         <v>15</v>
@@ -6917,15 +6873,15 @@
         <v>206</v>
       </c>
       <c r="AC72" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="AD72" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>207</v>
@@ -6937,31 +6893,31 @@
         <v>30</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>32</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>370</v>
+        <v>3500</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>370</v>
+        <v>30</v>
       </c>
       <c r="L73" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M73" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>35</v>
@@ -6970,13 +6926,13 @@
         <v>36</v>
       </c>
       <c r="Q73" s="0" t="n">
-        <v>1300</v>
+        <v>540</v>
       </c>
       <c r="R73" s="0" t="n">
-        <v>1300</v>
+        <v>540</v>
       </c>
       <c r="U73" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="V73" s="0" t="n">
         <v>40</v>
@@ -7000,15 +6956,15 @@
         <v>208</v>
       </c>
       <c r="AC73" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="AD73" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>209</v>
@@ -7026,19 +6982,19 @@
         <v>32</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="L74" s="0" t="n">
         <v>900</v>
@@ -7052,14 +7008,11 @@
       <c r="O74" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q74" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="R74" s="0" t="n">
-        <v>1300</v>
+      <c r="R74" s="2" t="n">
+        <v>800</v>
       </c>
       <c r="U74" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="V74" s="0" t="n">
         <v>40</v>
@@ -7080,72 +7033,72 @@
         <v>5</v>
       </c>
       <c r="AB74" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC74" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="AD74" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="L75" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M75" s="0" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q75" s="0" t="n">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="R75" s="0" t="n">
-        <v>240</v>
+        <v>1300</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="V75" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W75" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X75" s="0" t="n">
         <v>20</v>
@@ -7160,7 +7113,7 @@
         <v>5</v>
       </c>
       <c r="AB75" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AC75" s="0" t="n">
         <v>1300</v>
@@ -7169,12 +7122,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>2.7</v>
@@ -7192,7 +7145,7 @@
         <v>39</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>120</v>
@@ -7218,8 +7171,8 @@
       <c r="Q76" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="R76" s="0" t="n">
-        <v>900</v>
+      <c r="R76" s="2" t="n">
+        <v>800</v>
       </c>
       <c r="U76" s="0" t="n">
         <v>10</v>
@@ -7243,21 +7196,21 @@
         <v>5</v>
       </c>
       <c r="AB76" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AC76" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="AD76" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2.7</v>
@@ -7266,31 +7219,31 @@
         <v>30</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>32</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="L77" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M77" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N77" s="0" t="s">
         <v>35</v>
@@ -7298,14 +7251,11 @@
       <c r="O77" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q77" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="R77" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="U77" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V77" s="0" t="n">
         <v>40</v>
@@ -7335,9 +7285,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>218</v>
@@ -7355,25 +7305,25 @@
         <v>32</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>3500</v>
+        <v>120</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="L78" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M78" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N78" s="0" t="s">
         <v>35</v>
@@ -7381,14 +7331,11 @@
       <c r="O78" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q78" s="0" t="n">
-        <v>540</v>
-      </c>
       <c r="R78" s="0" t="n">
-        <v>540</v>
+        <v>1300</v>
       </c>
       <c r="U78" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="V78" s="0" t="n">
         <v>40</v>
@@ -7412,15 +7359,15 @@
         <v>219</v>
       </c>
       <c r="AC78" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="AD78" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>220</v>
@@ -7432,19 +7379,19 @@
         <v>30</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>32</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>10</v>
@@ -7456,7 +7403,7 @@
         <v>900</v>
       </c>
       <c r="M79" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N79" s="0" t="s">
         <v>35</v>
@@ -7464,8 +7411,8 @@
       <c r="O79" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R79" s="0" t="n">
-        <v>900</v>
+      <c r="R79" s="2" t="n">
+        <v>800</v>
       </c>
       <c r="U79" s="0" t="n">
         <v>10</v>
@@ -7489,7 +7436,7 @@
         <v>5</v>
       </c>
       <c r="AB79" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AC79" s="0" t="n">
         <v>900</v>
@@ -7498,66 +7445,72 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M80" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X80" s="0" t="n">
         <v>45</v>
-      </c>
-      <c r="N80" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O80" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R80" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U80" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="V80" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W80" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X80" s="0" t="n">
-        <v>20</v>
       </c>
       <c r="Y80" s="0" t="n">
         <v>15</v>
@@ -7572,75 +7525,78 @@
         <v>224</v>
       </c>
       <c r="AC80" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="AD80" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>225</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E81" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M81" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="F81" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="J81" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L81" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="M81" s="0" t="n">
-        <v>65</v>
-      </c>
       <c r="N81" s="0" t="s">
         <v>35</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q81" s="0" t="n">
-        <v>900</v>
+        <v>84</v>
       </c>
       <c r="R81" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="U81" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V81" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X81" s="0" t="n">
         <v>45</v>
-      </c>
-      <c r="W81" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X81" s="0" t="n">
-        <v>20</v>
       </c>
       <c r="Y81" s="0" t="n">
         <v>15</v>
@@ -7655,15 +7611,15 @@
         <v>226</v>
       </c>
       <c r="AC81" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AD81" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>227</v>
@@ -7675,7 +7631,7 @@
         <v>30</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>32</v>
@@ -7684,22 +7640,22 @@
         <v>39</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L82" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M82" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N82" s="0" t="s">
         <v>35</v>
@@ -7711,7 +7667,7 @@
         <v>1300</v>
       </c>
       <c r="U82" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V82" s="0" t="n">
         <v>40</v>
@@ -7741,9 +7697,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>229</v>
@@ -7764,22 +7720,22 @@
         <v>33</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="L83" s="0" t="n">
         <v>900</v>
       </c>
       <c r="M83" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N83" s="0" t="s">
         <v>35</v>
@@ -7787,8 +7743,11 @@
       <c r="O83" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R83" s="0" t="n">
-        <v>1300</v>
+      <c r="Q83" s="2" t="n">
+        <v>960</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>960</v>
       </c>
       <c r="U83" s="0" t="n">
         <v>90</v>
@@ -7821,423 +7780,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I84" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="J84" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K84" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L84" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="M84" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N84" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O84" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R84" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="U84" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="V84" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W84" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X84" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y84" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z84" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA84" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB84" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC84" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="AD84" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="I85" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J85" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K85" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L85" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="M85" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N85" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O85" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="R85" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="S85" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T85" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V85" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W85" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X85" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y85" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z85" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA85" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB85" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC85" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD85" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="I86" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="J86" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K86" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L86" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="M86" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="N86" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O86" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="R86" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="S86" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="T86" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="U86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V86" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="W86" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X86" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y86" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z86" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA86" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB86" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC86" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD86" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I87" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J87" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K87" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L87" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="M87" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N87" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O87" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R87" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U87" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="V87" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W87" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X87" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y87" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z87" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA87" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB87" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC87" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="AD87" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="I88" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="J88" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K88" s="0" t="n">
-        <v>370</v>
-      </c>
-      <c r="L88" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="M88" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N88" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O88" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q88" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="R88" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U88" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="V88" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="W88" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="X88" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y88" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z88" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA88" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB88" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC88" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="AD88" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="C1:C88"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8245,6 +7793,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="233">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00013255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла протеиновая в воде Чильеджина без лактозы "Unagrande", 32%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013433</t>
   </si>
 </sst>
 </file>
@@ -722,7 +728,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -751,6 +757,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -808,7 +820,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -818,6 +830,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -840,11 +860,11 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J86" activeCellId="0" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="9.14"/>
@@ -7560,7 +7580,7 @@
         <v>125</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>125</v>
@@ -7777,6 +7797,95 @@
         <v>1300</v>
       </c>
       <c r="AD83" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="S84" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T84" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W84" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X84" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y84" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB84" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC84" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD84" s="0" t="s">
         <v>35</v>
       </c>
     </row>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="239">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -731,6 +731,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00013434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф (фикс вес)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013886</t>
   </si>
 </sst>
 </file>
@@ -740,7 +746,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -769,12 +775,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -843,7 +843,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -864,18 +864,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD86"/>
+  <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L88" activeCellId="0" sqref="L88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -999,7 +996,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>65</v>
@@ -1044,7 +1041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1079,7 +1076,7 @@
         <v>1200</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>65</v>
@@ -1124,7 +1121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1159,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>45</v>
@@ -1204,7 +1201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>280</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>65</v>
@@ -1284,7 +1281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -1319,7 +1316,7 @@
         <v>30</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>65</v>
@@ -1364,7 +1361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>65</v>
@@ -1444,7 +1441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>35</v>
@@ -1524,7 +1521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1559,7 +1556,7 @@
         <v>280</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>45</v>
@@ -1604,7 +1601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1639,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>45</v>
@@ -1684,7 +1681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1719,7 +1716,7 @@
         <v>200</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>50</v>
@@ -1764,7 +1761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1799,7 +1796,7 @@
         <v>280</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>50</v>
@@ -1844,7 +1841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -1879,7 +1876,7 @@
         <v>30</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>65</v>
@@ -1924,7 +1921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -1959,7 +1956,7 @@
         <v>280</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>65</v>
@@ -2004,7 +2001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -2039,7 +2036,7 @@
         <v>200</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>65</v>
@@ -2084,7 +2081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -2119,7 +2116,7 @@
         <v>1200</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>65</v>
@@ -2164,7 +2161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -2199,7 +2196,7 @@
         <v>30</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>50</v>
@@ -2244,7 +2241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -2279,7 +2276,7 @@
         <v>200</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>50</v>
@@ -2324,7 +2321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -2496,7 +2493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -2582,7 +2579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -2668,7 +2665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -2754,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -2840,7 +2837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -3012,7 +3009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -3098,7 +3095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -3184,7 +3181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -3270,7 +3267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -3356,7 +3353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -3442,7 +3439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -3528,7 +3525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -3614,7 +3611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -3649,7 +3646,7 @@
         <v>370</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>65</v>
@@ -3694,7 +3691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -3729,7 +3726,7 @@
         <v>1200</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>65</v>
@@ -3774,7 +3771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -3860,7 +3857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -3946,7 +3943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -3981,7 +3978,7 @@
         <v>280</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>45</v>
@@ -4026,7 +4023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -4061,7 +4058,7 @@
         <v>15</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>35</v>
@@ -4106,7 +4103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -4141,7 +4138,7 @@
         <v>7.5</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>35</v>
@@ -4186,7 +4183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
@@ -4221,7 +4218,7 @@
         <v>1200</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>50</v>
@@ -4266,7 +4263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -4355,7 +4352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -4444,7 +4441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -4530,7 +4527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -4616,7 +4613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -4651,7 +4648,7 @@
         <v>30</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M46" s="2" t="n">
         <v>50</v>
@@ -4696,7 +4693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -4731,7 +4728,7 @@
         <v>30</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M47" s="2" t="n">
         <v>50</v>
@@ -4776,7 +4773,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -4811,7 +4808,7 @@
         <v>460</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M48" s="2" t="n">
         <v>65</v>
@@ -4856,7 +4853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -4891,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M49" s="2" t="n">
         <v>65</v>
@@ -4933,7 +4930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -5022,7 +5019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -5111,7 +5108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -5200,7 +5197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -5289,7 +5286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -5378,7 +5375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -5413,7 +5410,7 @@
         <v>280</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M55" s="2" t="n">
         <v>65</v>
@@ -5461,7 +5458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -5496,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M56" s="2" t="n">
         <v>45</v>
@@ -5541,7 +5538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -5576,7 +5573,7 @@
         <v>30</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M57" s="2" t="n">
         <v>65</v>
@@ -5624,7 +5621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -5713,7 +5710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -5802,7 +5799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>200</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M60" s="2" t="n">
         <v>1020</v>
@@ -5885,7 +5882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -5920,7 +5917,7 @@
         <v>370</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M61" s="2" t="n">
         <v>50</v>
@@ -5968,7 +5965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -6057,7 +6054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -6146,7 +6143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -6181,7 +6178,7 @@
         <v>280</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M64" s="2" t="n">
         <v>65</v>
@@ -6229,7 +6226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>1200</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M65" s="2" t="n">
         <v>65</v>
@@ -6312,7 +6309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -6401,7 +6398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -6490,7 +6487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -6525,7 +6522,7 @@
         <v>370</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M68" s="2" t="n">
         <v>65</v>
@@ -6573,7 +6570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
@@ -6608,7 +6605,7 @@
         <v>200</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M69" s="2" t="n">
         <v>65</v>
@@ -6656,7 +6653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
@@ -6691,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M70" s="2" t="n">
         <v>65</v>
@@ -6736,7 +6733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -6771,7 +6768,7 @@
         <v>30</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M71" s="2" t="n">
         <v>65</v>
@@ -6819,7 +6816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
@@ -6854,7 +6851,7 @@
         <v>200</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M72" s="2" t="n">
         <v>45</v>
@@ -6902,7 +6899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
@@ -6937,7 +6934,7 @@
         <v>30</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M73" s="2" t="n">
         <v>50</v>
@@ -6985,7 +6982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
@@ -7020,7 +7017,7 @@
         <v>30</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M74" s="2" t="n">
         <v>65</v>
@@ -7065,7 +7062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
@@ -7100,7 +7097,7 @@
         <v>280</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M75" s="2" t="n">
         <v>45</v>
@@ -7145,7 +7142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
@@ -7180,7 +7177,7 @@
         <v>30</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M76" s="2" t="n">
         <v>65</v>
@@ -7228,7 +7225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
@@ -7263,7 +7260,7 @@
         <v>1000</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M77" s="2" t="n">
         <v>65</v>
@@ -7308,7 +7305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
@@ -7343,7 +7340,7 @@
         <v>280</v>
       </c>
       <c r="L78" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M78" s="2" t="n">
         <v>45</v>
@@ -7388,7 +7385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
@@ -7423,7 +7420,7 @@
         <v>30</v>
       </c>
       <c r="L79" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M79" s="2" t="n">
         <v>50</v>
@@ -7468,7 +7465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
@@ -7554,7 +7551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
@@ -7640,7 +7637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
@@ -7675,7 +7672,7 @@
         <v>200</v>
       </c>
       <c r="L82" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M82" s="2" t="n">
         <v>50</v>
@@ -7720,7 +7717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
@@ -7755,7 +7752,7 @@
         <v>210</v>
       </c>
       <c r="L83" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M83" s="2" t="n">
         <v>50</v>
@@ -7803,7 +7800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
@@ -7892,11 +7889,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C85" s="2" t="n">
@@ -7971,7 +7968,7 @@
       <c r="AA85" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AB85" s="4" t="s">
+      <c r="AB85" s="2" t="s">
         <v>234</v>
       </c>
       <c r="AC85" s="2" t="n">
@@ -7981,11 +7978,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C86" s="2" t="n">
@@ -8016,7 +8013,7 @@
         <v>30</v>
       </c>
       <c r="L86" s="2" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="M86" s="2" t="n">
         <v>65</v>
@@ -8054,7 +8051,7 @@
       <c r="AA86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AB86" s="4" t="s">
+      <c r="AB86" s="2" t="s">
         <v>236</v>
       </c>
       <c r="AC86" s="2" t="n">
@@ -8064,6 +8061,89 @@
         <v>35</v>
       </c>
     </row>
+    <row r="87" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>960</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="U87" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="V87" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="W87" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="X87" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y87" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB87" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC87" s="2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AD87" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -746,7 +746,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -775,6 +775,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -826,7 +832,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -836,6 +842,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -866,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7800,7 +7810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
@@ -7808,7 +7818,7 @@
         <v>231</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>35</v>
@@ -7820,7 +7830,7 @@
         <v>82</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>42</v>
@@ -7978,7 +7988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
@@ -7986,7 +7996,7 @@
         <v>235</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>35</v>
@@ -7997,7 +8007,7 @@
       <c r="F86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -8065,7 +8075,7 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C87" s="2" t="n">
@@ -8131,7 +8141,7 @@
       <c r="AA87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AB87" s="4" t="s">
+      <c r="AB87" s="5" t="s">
         <v>238</v>
       </c>
       <c r="AC87" s="2" t="n">

--- a/app/data/static/params/mozzarella.xlsx
+++ b/app/data/static/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="241">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -737,6 +737,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00013886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моцарелла в воде Фиор Ди Латте "ВкусВилл", 45%, 0,1/0,18 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013884</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -832,13 +838,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -862,15 +876,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD87"/>
+  <dimension ref="A1:AD88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U64" activeCellId="0" sqref="U64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC88" activeCellId="0" sqref="AC88:AD88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8139,6 +8153,92 @@
         <v>1300</v>
       </c>
       <c r="AD87" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="M88" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>960</v>
+      </c>
+      <c r="S88" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="T88" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W88" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X88" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y88" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC88" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD88" s="0" t="s">
         <v>35</v>
       </c>
     </row>
